--- a/bug finder.xlsx
+++ b/bug finder.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Tech demo platformer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EA2861-7B92-40CE-8EF3-AF381E0FBF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4F75EF-5C8A-454E-87F6-45FFF6AAF761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="21000" xr2:uid="{9356C0CF-D086-4FEC-A8F0-753CF5CB4E4B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="110">
   <si>
     <t>A</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>TỔNG THỂ</t>
-  </si>
-  <si>
     <t>Đánh dấu tile</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>TRAP</t>
   </si>
   <si>
-    <t>Pause Menu</t>
-  </si>
-  <si>
     <t>StageUI</t>
   </si>
   <si>
@@ -323,20 +317,62 @@
     <t>dmg</t>
   </si>
   <si>
-    <t>giết E</t>
-  </si>
-  <si>
     <t>dmg to</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>chết</t>
+  </si>
+  <si>
+    <t>Pause Menu(restart)</t>
+  </si>
+  <si>
+    <t>ko giết</t>
+  </si>
+  <si>
+    <t>lệch UI</t>
+  </si>
+  <si>
+    <t>pause đc</t>
+  </si>
+  <si>
+    <t>ko ẩn</t>
+  </si>
+  <si>
+    <t>lỗi player(1)</t>
+  </si>
+  <si>
+    <t>giết E(1)</t>
+  </si>
+  <si>
+    <t>switch on/off</t>
+  </si>
+  <si>
+    <t>chưa code(1)</t>
+  </si>
+  <si>
+    <t>quit đc</t>
+  </si>
+  <si>
+    <t>chưa có ui</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>cộng hưởng</t>
+  </si>
+  <si>
+    <t>input riêng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,13 +388,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Roboto Mono"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="14"/>
@@ -665,179 +694,182 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1153,33 +1185,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC41B6A1-997D-4FC2-98D8-24E7BA948B38}">
-  <dimension ref="A1:AZ60"/>
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:AZ59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AQ48" sqref="AQ48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="46" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="21.42578125" style="22" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="20.85546875" style="22" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="15.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="10.28515625" style="22" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="20.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="11.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" style="22" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="19.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="20.85546875" style="22" bestFit="1" customWidth="1"/>
@@ -1191,11 +1227,10 @@
     <col min="35" max="36" width="20.85546875" style="22" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="9" style="22" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="18.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="40" max="41" width="24.85546875" style="22" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="23.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="35.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="35.28515625" style="22" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="19.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="12.85546875" style="22" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="19.5703125" style="22" bestFit="1" customWidth="1"/>
@@ -1205,244 +1240,295 @@
     <col min="53" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="52" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX1" s="9"/>
+      <c r="AY1" s="9"/>
+      <c r="AZ1" s="9"/>
+    </row>
+    <row r="2" spans="1:52" s="15" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="T2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="5" t="s">
+      <c r="U2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="X2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" s="5" t="s">
+      <c r="Z2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="8" t="s">
+      <c r="AG2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS2" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW2" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="AT2" s="8"/>
-      <c r="AU2" s="8"/>
-      <c r="AV2" s="8"/>
-      <c r="AW2" s="9" t="s">
+      <c r="AX2" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="AX2" s="9"/>
-      <c r="AY2" s="9"/>
-      <c r="AZ2" s="9"/>
-    </row>
-    <row r="3" spans="1:52" s="15" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="11" t="s">
+      <c r="AY2" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ2" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="V3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="W3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="X3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y3" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z3" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB3" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC3" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE3" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH3" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI3" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ3" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR3" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AS3" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT3" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU3" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="AV3" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="AW3" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX3" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY3" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ3" s="17" t="s">
-        <v>60</v>
-      </c>
+      <c r="B3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="21"/>
+      <c r="AN3" s="21"/>
+      <c r="AO3" s="21"/>
+      <c r="AP3" s="21"/>
+      <c r="AQ3" s="21"/>
+      <c r="AR3" s="21"/>
+      <c r="AS3" s="21"/>
+      <c r="AT3" s="21"/>
+      <c r="AU3" s="21"/>
+      <c r="AV3" s="21"/>
+      <c r="AW3" s="21"/>
+      <c r="AX3" s="21"/>
+      <c r="AY3" s="21"/>
+      <c r="AZ3" s="21"/>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
-        <v>15</v>
-      </c>
+      <c r="A4" s="18"/>
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -1497,9 +1583,9 @@
       <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -1554,9 +1640,9 @@
         <v>10</v>
       </c>
       <c r="C6" s="20"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -1607,13 +1693,13 @@
     <row r="7" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A7" s="18"/>
       <c r="B7" s="19" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="24"/>
       <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
@@ -1663,14 +1749,14 @@
     <row r="8" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A8" s="18"/>
       <c r="B8" s="19" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="24"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
+      <c r="H8" s="20"/>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
@@ -1727,7 +1813,7 @@
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
+      <c r="I9" s="20"/>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
@@ -1775,16 +1861,18 @@
     <row r="10" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A10" s="18"/>
       <c r="B10" s="19" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="20"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="26"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
-      <c r="J10" s="21"/>
+      <c r="J10" s="20"/>
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
@@ -1831,19 +1919,17 @@
     <row r="11" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="24"/>
-      <c r="E11" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="26"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
-      <c r="K11" s="21"/>
+      <c r="K11" s="20"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
@@ -1887,20 +1973,24 @@
       <c r="AZ11" s="21"/>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19" t="s">
-        <v>14</v>
+      <c r="A12" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="C12" s="20"/>
-      <c r="D12" s="24"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="24"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
+      <c r="G12" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
-      <c r="L12" s="21"/>
+      <c r="L12" s="24"/>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="21"/>
@@ -1943,25 +2033,25 @@
       <c r="AZ12" s="21"/>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A13" s="27" t="s">
-        <v>22</v>
-      </c>
+      <c r="A13" s="27"/>
       <c r="B13" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
-      <c r="E13" s="24"/>
+      <c r="E13" s="30" t="s">
+        <v>92</v>
+      </c>
       <c r="F13" s="20"/>
       <c r="G13" s="30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
+      <c r="J13" s="24"/>
       <c r="K13" s="20"/>
       <c r="L13" s="24"/>
-      <c r="M13" s="21"/>
+      <c r="M13" s="24"/>
       <c r="N13" s="21"/>
       <c r="O13" s="21"/>
       <c r="P13" s="21"/>
@@ -2009,12 +2099,10 @@
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
-      <c r="E14" s="30" t="s">
-        <v>94</v>
-      </c>
+      <c r="E14" s="24"/>
       <c r="F14" s="20"/>
       <c r="G14" s="30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
@@ -2022,7 +2110,7 @@
       <c r="K14" s="20"/>
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
-      <c r="N14" s="21"/>
+      <c r="N14" s="24"/>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
@@ -2065,23 +2153,25 @@
     <row r="15" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A15" s="27"/>
       <c r="B15" s="28" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="20"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="24"/>
       <c r="G15" s="30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
-      <c r="J15" s="24"/>
+      <c r="J15" s="20"/>
       <c r="K15" s="20"/>
       <c r="L15" s="24"/>
       <c r="M15" s="24"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="21"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="20"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
@@ -2123,26 +2213,24 @@
     <row r="16" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A16" s="27"/>
       <c r="B16" s="28" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="24"/>
-      <c r="E16" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
+      <c r="J16" s="24"/>
       <c r="K16" s="20"/>
       <c r="L16" s="24"/>
       <c r="M16" s="24"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="21"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
       <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
@@ -2186,11 +2274,11 @@
         <v>19</v>
       </c>
       <c r="C17" s="20"/>
-      <c r="D17" s="24"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="24"/>
       <c r="F17" s="20"/>
       <c r="G17" s="30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
@@ -2198,10 +2286,10 @@
       <c r="K17" s="20"/>
       <c r="L17" s="24"/>
       <c r="M17" s="24"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="21"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
       <c r="R17" s="21"/>
       <c r="S17" s="21"/>
       <c r="T17" s="21"/>
@@ -2248,19 +2336,19 @@
       <c r="E18" s="24"/>
       <c r="F18" s="20"/>
       <c r="G18" s="30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
-      <c r="J18" s="24"/>
+      <c r="J18" s="20"/>
       <c r="K18" s="20"/>
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="21"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
       <c r="S18" s="21"/>
       <c r="T18" s="21"/>
       <c r="U18" s="21"/>
@@ -2297,29 +2385,37 @@
       <c r="AZ18" s="21"/>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
+      <c r="A19" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="24"/>
-      <c r="F19" s="20"/>
+      <c r="F19" s="24"/>
       <c r="G19" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
+        <v>69</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="24"/>
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="21"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="24"/>
       <c r="T19" s="21"/>
       <c r="U19" s="21"/>
       <c r="V19" s="21"/>
@@ -2355,38 +2451,40 @@
       <c r="AZ19" s="21"/>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A20" s="31" t="s">
-        <v>28</v>
-      </c>
+      <c r="A20" s="31"/>
       <c r="B20" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="24"/>
+        <v>22</v>
+      </c>
+      <c r="C20" s="20"/>
       <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
+      <c r="E20" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>70</v>
+      </c>
       <c r="G20" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="J20" s="30" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="21"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="20"/>
       <c r="U20" s="21"/>
       <c r="V20" s="21"/>
       <c r="W20" s="21"/>
@@ -2423,39 +2521,27 @@
     <row r="21" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A21" s="31"/>
       <c r="B21" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="20"/>
+        <v>23</v>
+      </c>
+      <c r="C21" s="24"/>
       <c r="D21" s="24"/>
-      <c r="E21" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="I21" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>72</v>
-      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="20"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="21"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
       <c r="V21" s="21"/>
       <c r="W21" s="21"/>
       <c r="X21" s="21"/>
@@ -2491,28 +2577,28 @@
     <row r="22" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A22" s="31"/>
       <c r="B22" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="24"/>
+        <v>24</v>
+      </c>
+      <c r="C22" s="20"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="24"/>
+      <c r="E22" s="20"/>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
-      <c r="K22" s="24"/>
+      <c r="K22" s="20"/>
       <c r="L22" s="24"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="21"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="T22" s="24"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
       <c r="W22" s="21"/>
       <c r="X22" s="21"/>
       <c r="Y22" s="21"/>
@@ -2547,27 +2633,33 @@
     <row r="23" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A23" s="31"/>
       <c r="B23" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="20"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="21"/>
+      <c r="D23" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
       <c r="X23" s="21"/>
       <c r="Y23" s="21"/>
       <c r="Z23" s="21"/>
@@ -2599,34 +2691,54 @@
       <c r="AZ23" s="21"/>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32" t="s">
+      <c r="A24" s="33" t="s">
         <v>27</v>
       </c>
+      <c r="B24" s="34" t="s">
+        <v>28</v>
+      </c>
       <c r="C24" s="20"/>
-      <c r="D24" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
       <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="21"/>
+      <c r="K24" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="L24" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="M24" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="N24" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="O24" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="P24" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q24" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="R24" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="S24" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
       <c r="Y24" s="21"/>
       <c r="Z24" s="21"/>
       <c r="AA24" s="21"/>
@@ -2657,43 +2769,61 @@
       <c r="AZ24" s="21"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="33"/>
+      <c r="B25" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="34" t="s">
-        <v>30</v>
-      </c>
       <c r="C25" s="20"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="20"/>
+      <c r="D25" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="24"/>
       <c r="F25" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="29" t="s">
-        <v>91</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="J25" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="K25" s="20"/>
       <c r="L25" s="30" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M25" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
+        <v>102</v>
+      </c>
+      <c r="N25" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="O25" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="P25" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q25" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="R25" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="S25" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="20"/>
       <c r="X25" s="25"/>
-      <c r="Y25" s="21"/>
+      <c r="Y25" s="25"/>
       <c r="Z25" s="21"/>
       <c r="AA25" s="21"/>
       <c r="AB25" s="21"/>
@@ -2725,48 +2855,38 @@
     <row r="26" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A26" s="33"/>
       <c r="B26" s="34" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C26" s="20"/>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="H26" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="I26" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="J26" s="29" t="s">
-        <v>81</v>
-      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
       <c r="K26" s="20"/>
-      <c r="L26" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="M26" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="30" t="s">
+        <v>106</v>
+      </c>
       <c r="X26" s="25"/>
       <c r="Y26" s="25"/>
-      <c r="Z26" s="21"/>
+      <c r="Z26" s="20"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="21"/>
       <c r="AC26" s="21"/>
@@ -2795,37 +2915,47 @@
       <c r="AZ26" s="21"/>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34" t="s">
-        <v>50</v>
+      <c r="A27" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="20"/>
-      <c r="F27" s="29" t="s">
-        <v>68</v>
-      </c>
+      <c r="F27" s="20"/>
       <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
+      <c r="H27" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="J27" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" s="29" t="s">
+        <v>90</v>
+      </c>
       <c r="L27" s="20"/>
       <c r="M27" s="20"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="25"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="24"/>
       <c r="X27" s="25"/>
       <c r="Y27" s="25"/>
-      <c r="Z27" s="25"/>
-      <c r="AA27" s="21"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
       <c r="AB27" s="21"/>
       <c r="AC27" s="21"/>
       <c r="AD27" s="21"/>
@@ -2853,46 +2983,39 @@
       <c r="AZ27" s="21"/>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="31" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="20"/>
+        <v>63</v>
+      </c>
       <c r="D28" s="24"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="I28" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="J28" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="K28" s="29" t="s">
-        <v>92</v>
-      </c>
+      <c r="G28" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
       <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="25"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
       <c r="X28" s="25"/>
       <c r="Y28" s="25"/>
-      <c r="Z28" s="25"/>
-      <c r="AA28" s="25"/>
-      <c r="AB28" s="21"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
       <c r="AC28" s="21"/>
       <c r="AD28" s="21"/>
       <c r="AE28" s="21"/>
@@ -2919,40 +3042,37 @@
       <c r="AZ28" s="21"/>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A29" s="31" t="s">
-        <v>34</v>
-      </c>
+      <c r="A29" s="31"/>
       <c r="B29" s="19" t="s">
-        <v>65</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C29" s="20"/>
       <c r="D29" s="24"/>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="G29" s="50"/>
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
       <c r="K29" s="20"/>
       <c r="L29" s="20"/>
       <c r="M29" s="24"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="25"/>
-      <c r="W29" s="25"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
       <c r="X29" s="25"/>
       <c r="Y29" s="25"/>
-      <c r="Z29" s="25"/>
-      <c r="AA29" s="25"/>
-      <c r="AB29" s="25"/>
-      <c r="AC29" s="21"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="20"/>
       <c r="AD29" s="21"/>
       <c r="AE29" s="21"/>
       <c r="AF29" s="21"/>
@@ -2980,36 +3100,36 @@
     <row r="30" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A30" s="31"/>
       <c r="B30" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="20"/>
+        <v>60</v>
+      </c>
+      <c r="C30" s="24"/>
       <c r="D30" s="24"/>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="50"/>
+      <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
       <c r="M30" s="24"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="25"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
       <c r="X30" s="25"/>
       <c r="Y30" s="25"/>
-      <c r="Z30" s="25"/>
-      <c r="AA30" s="25"/>
-      <c r="AB30" s="25"/>
-      <c r="AC30" s="25"/>
-      <c r="AD30" s="21"/>
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="20"/>
+      <c r="AD30" s="20"/>
       <c r="AE30" s="21"/>
       <c r="AF30" s="21"/>
       <c r="AG30" s="21"/>
@@ -3036,7 +3156,7 @@
     <row r="31" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A31" s="31"/>
       <c r="B31" s="19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
@@ -3049,24 +3169,24 @@
       <c r="K31" s="20"/>
       <c r="L31" s="20"/>
       <c r="M31" s="24"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="25"/>
-      <c r="V31" s="25"/>
-      <c r="W31" s="25"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
       <c r="X31" s="25"/>
       <c r="Y31" s="25"/>
-      <c r="Z31" s="25"/>
-      <c r="AA31" s="25"/>
-      <c r="AB31" s="25"/>
-      <c r="AC31" s="25"/>
-      <c r="AD31" s="25"/>
-      <c r="AE31" s="21"/>
+      <c r="Z31" s="20"/>
+      <c r="AA31" s="20"/>
+      <c r="AB31" s="20"/>
+      <c r="AC31" s="20"/>
+      <c r="AD31" s="20"/>
+      <c r="AE31" s="20"/>
       <c r="AF31" s="21"/>
       <c r="AG31" s="21"/>
       <c r="AH31" s="21"/>
@@ -3092,38 +3212,38 @@
     <row r="32" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A32" s="31"/>
       <c r="B32" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="24"/>
+        <v>34</v>
+      </c>
+      <c r="C32" s="20"/>
       <c r="D32" s="24"/>
-      <c r="E32" s="20"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
+      <c r="G32" s="24"/>
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
       <c r="J32" s="20"/>
       <c r="K32" s="20"/>
       <c r="L32" s="20"/>
       <c r="M32" s="24"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="25"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="25"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
       <c r="X32" s="25"/>
       <c r="Y32" s="25"/>
-      <c r="Z32" s="25"/>
-      <c r="AA32" s="25"/>
-      <c r="AB32" s="25"/>
-      <c r="AC32" s="25"/>
-      <c r="AD32" s="25"/>
-      <c r="AE32" s="25"/>
-      <c r="AF32" s="21"/>
+      <c r="Z32" s="20"/>
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="20"/>
+      <c r="AC32" s="20"/>
+      <c r="AD32" s="20"/>
+      <c r="AE32" s="20"/>
+      <c r="AF32" s="20"/>
       <c r="AG32" s="21"/>
       <c r="AH32" s="21"/>
       <c r="AI32" s="21"/>
@@ -3148,7 +3268,7 @@
     <row r="33" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A33" s="31"/>
       <c r="B33" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="24"/>
@@ -3157,30 +3277,30 @@
       <c r="G33" s="24"/>
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
+      <c r="J33" s="24"/>
       <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
+      <c r="L33" s="24"/>
       <c r="M33" s="24"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="25"/>
-      <c r="V33" s="25"/>
-      <c r="W33" s="25"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
       <c r="X33" s="25"/>
       <c r="Y33" s="25"/>
-      <c r="Z33" s="25"/>
-      <c r="AA33" s="25"/>
-      <c r="AB33" s="25"/>
-      <c r="AC33" s="25"/>
-      <c r="AD33" s="25"/>
-      <c r="AE33" s="25"/>
-      <c r="AF33" s="25"/>
-      <c r="AG33" s="21"/>
+      <c r="Z33" s="20"/>
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="20"/>
+      <c r="AC33" s="20"/>
+      <c r="AD33" s="20"/>
+      <c r="AE33" s="20"/>
+      <c r="AF33" s="20"/>
+      <c r="AG33" s="24"/>
       <c r="AH33" s="21"/>
       <c r="AI33" s="21"/>
       <c r="AJ33" s="21"/>
@@ -3204,40 +3324,40 @@
     <row r="34" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A34" s="31"/>
       <c r="B34" s="19" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
+      <c r="E34" s="20"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="24"/>
+      <c r="G34" s="20"/>
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
-      <c r="J34" s="24"/>
+      <c r="J34" s="20"/>
       <c r="K34" s="20"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="25"/>
-      <c r="U34" s="25"/>
-      <c r="V34" s="25"/>
-      <c r="W34" s="25"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
       <c r="X34" s="25"/>
       <c r="Y34" s="25"/>
-      <c r="Z34" s="25"/>
-      <c r="AA34" s="25"/>
-      <c r="AB34" s="25"/>
-      <c r="AC34" s="25"/>
-      <c r="AD34" s="25"/>
-      <c r="AE34" s="25"/>
-      <c r="AF34" s="25"/>
-      <c r="AG34" s="25"/>
-      <c r="AH34" s="21"/>
+      <c r="Z34" s="20"/>
+      <c r="AA34" s="20"/>
+      <c r="AB34" s="20"/>
+      <c r="AC34" s="20"/>
+      <c r="AD34" s="20"/>
+      <c r="AE34" s="20"/>
+      <c r="AF34" s="20"/>
+      <c r="AG34" s="20"/>
+      <c r="AH34" s="20"/>
       <c r="AI34" s="21"/>
       <c r="AJ34" s="21"/>
       <c r="AK34" s="21"/>
@@ -3260,7 +3380,7 @@
     <row r="35" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A35" s="31"/>
       <c r="B35" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="24"/>
@@ -3273,28 +3393,28 @@
       <c r="K35" s="20"/>
       <c r="L35" s="20"/>
       <c r="M35" s="20"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="25"/>
-      <c r="U35" s="25"/>
-      <c r="V35" s="25"/>
-      <c r="W35" s="25"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
       <c r="X35" s="25"/>
       <c r="Y35" s="25"/>
-      <c r="Z35" s="25"/>
-      <c r="AA35" s="25"/>
-      <c r="AB35" s="25"/>
-      <c r="AC35" s="25"/>
-      <c r="AD35" s="25"/>
-      <c r="AE35" s="25"/>
-      <c r="AF35" s="25"/>
-      <c r="AG35" s="25"/>
-      <c r="AH35" s="25"/>
-      <c r="AI35" s="21"/>
+      <c r="Z35" s="20"/>
+      <c r="AA35" s="20"/>
+      <c r="AB35" s="20"/>
+      <c r="AC35" s="20"/>
+      <c r="AD35" s="20"/>
+      <c r="AE35" s="20"/>
+      <c r="AF35" s="20"/>
+      <c r="AG35" s="20"/>
+      <c r="AH35" s="20"/>
+      <c r="AI35" s="20"/>
       <c r="AJ35" s="21"/>
       <c r="AK35" s="21"/>
       <c r="AL35" s="21"/>
@@ -3316,42 +3436,42 @@
     <row r="36" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A36" s="31"/>
       <c r="B36" s="19" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="24"/>
-      <c r="E36" s="20"/>
+      <c r="E36" s="35"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
+      <c r="G36" s="24"/>
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
+      <c r="L36" s="24"/>
       <c r="M36" s="20"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="25"/>
-      <c r="U36" s="25"/>
-      <c r="V36" s="25"/>
-      <c r="W36" s="25"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
       <c r="X36" s="25"/>
       <c r="Y36" s="25"/>
-      <c r="Z36" s="25"/>
-      <c r="AA36" s="25"/>
-      <c r="AB36" s="25"/>
-      <c r="AC36" s="25"/>
-      <c r="AD36" s="25"/>
-      <c r="AE36" s="25"/>
-      <c r="AF36" s="25"/>
-      <c r="AG36" s="25"/>
-      <c r="AH36" s="25"/>
-      <c r="AI36" s="25"/>
-      <c r="AJ36" s="21"/>
+      <c r="Z36" s="20"/>
+      <c r="AA36" s="20"/>
+      <c r="AB36" s="20"/>
+      <c r="AC36" s="20"/>
+      <c r="AD36" s="20"/>
+      <c r="AE36" s="20"/>
+      <c r="AF36" s="20"/>
+      <c r="AG36" s="24"/>
+      <c r="AH36" s="20"/>
+      <c r="AI36" s="20"/>
+      <c r="AJ36" s="24"/>
       <c r="AK36" s="21"/>
       <c r="AL36" s="21"/>
       <c r="AM36" s="21"/>
@@ -3372,43 +3492,43 @@
     <row r="37" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A37" s="31"/>
       <c r="B37" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="24"/>
-      <c r="E37" s="35"/>
+      <c r="E37" s="20"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="24"/>
+      <c r="G37" s="20"/>
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
       <c r="J37" s="20"/>
       <c r="K37" s="20"/>
       <c r="L37" s="24"/>
       <c r="M37" s="20"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="25"/>
-      <c r="V37" s="25"/>
-      <c r="W37" s="25"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
       <c r="X37" s="25"/>
       <c r="Y37" s="25"/>
-      <c r="Z37" s="25"/>
-      <c r="AA37" s="25"/>
-      <c r="AB37" s="25"/>
-      <c r="AC37" s="25"/>
-      <c r="AD37" s="25"/>
-      <c r="AE37" s="25"/>
-      <c r="AF37" s="25"/>
-      <c r="AG37" s="25"/>
-      <c r="AH37" s="25"/>
-      <c r="AI37" s="25"/>
-      <c r="AJ37" s="25"/>
-      <c r="AK37" s="21"/>
+      <c r="Z37" s="20"/>
+      <c r="AA37" s="20"/>
+      <c r="AB37" s="20"/>
+      <c r="AC37" s="20"/>
+      <c r="AD37" s="20"/>
+      <c r="AE37" s="20"/>
+      <c r="AF37" s="20"/>
+      <c r="AG37" s="20"/>
+      <c r="AH37" s="20"/>
+      <c r="AI37" s="20"/>
+      <c r="AJ37" s="20"/>
+      <c r="AK37" s="20"/>
       <c r="AL37" s="21"/>
       <c r="AM37" s="21"/>
       <c r="AN37" s="21"/>
@@ -3428,44 +3548,44 @@
     <row r="38" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A38" s="31"/>
       <c r="B38" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="24"/>
-      <c r="E38" s="20"/>
+      <c r="E38" s="35"/>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
+      <c r="J38" s="24"/>
       <c r="K38" s="20"/>
       <c r="L38" s="24"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="25"/>
-      <c r="U38" s="25"/>
-      <c r="V38" s="25"/>
-      <c r="W38" s="25"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="24"/>
       <c r="X38" s="25"/>
       <c r="Y38" s="25"/>
-      <c r="Z38" s="25"/>
-      <c r="AA38" s="25"/>
-      <c r="AB38" s="25"/>
-      <c r="AC38" s="25"/>
-      <c r="AD38" s="25"/>
-      <c r="AE38" s="25"/>
-      <c r="AF38" s="25"/>
-      <c r="AG38" s="25"/>
-      <c r="AH38" s="25"/>
-      <c r="AI38" s="25"/>
-      <c r="AJ38" s="25"/>
-      <c r="AK38" s="25"/>
-      <c r="AL38" s="21"/>
+      <c r="Z38" s="20"/>
+      <c r="AA38" s="20"/>
+      <c r="AB38" s="20"/>
+      <c r="AC38" s="20"/>
+      <c r="AD38" s="20"/>
+      <c r="AE38" s="20"/>
+      <c r="AF38" s="20"/>
+      <c r="AG38" s="20"/>
+      <c r="AH38" s="20"/>
+      <c r="AI38" s="20"/>
+      <c r="AJ38" s="20"/>
+      <c r="AK38" s="20"/>
+      <c r="AL38" s="20"/>
       <c r="AM38" s="21"/>
       <c r="AN38" s="21"/>
       <c r="AO38" s="21"/>
@@ -3488,41 +3608,43 @@
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="24"/>
-      <c r="E39" s="35"/>
+      <c r="E39" s="36"/>
       <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
+      <c r="G39" s="24"/>
       <c r="H39" s="20"/>
       <c r="I39" s="20"/>
-      <c r="J39" s="24"/>
+      <c r="J39" s="20"/>
       <c r="K39" s="20"/>
       <c r="L39" s="24"/>
       <c r="M39" s="24"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="25"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="25"/>
-      <c r="U39" s="25"/>
-      <c r="V39" s="25"/>
-      <c r="W39" s="25"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
       <c r="X39" s="25"/>
       <c r="Y39" s="25"/>
-      <c r="Z39" s="25"/>
-      <c r="AA39" s="25"/>
-      <c r="AB39" s="25"/>
-      <c r="AC39" s="25"/>
-      <c r="AD39" s="25"/>
-      <c r="AE39" s="25"/>
-      <c r="AF39" s="25"/>
-      <c r="AG39" s="25"/>
-      <c r="AH39" s="25"/>
-      <c r="AI39" s="25"/>
-      <c r="AJ39" s="25"/>
-      <c r="AK39" s="25"/>
-      <c r="AL39" s="25"/>
-      <c r="AM39" s="21"/>
+      <c r="Z39" s="20"/>
+      <c r="AA39" s="20"/>
+      <c r="AB39" s="20"/>
+      <c r="AC39" s="20"/>
+      <c r="AD39" s="20"/>
+      <c r="AE39" s="20"/>
+      <c r="AF39" s="20"/>
+      <c r="AG39" s="20"/>
+      <c r="AH39" s="20"/>
+      <c r="AI39" s="20"/>
+      <c r="AJ39" s="24"/>
+      <c r="AK39" s="20"/>
+      <c r="AL39" s="20"/>
+      <c r="AM39" s="30" t="s">
+        <v>108</v>
+      </c>
       <c r="AN39" s="21"/>
       <c r="AO39" s="21"/>
       <c r="AP39" s="21"/>
@@ -3540,46 +3662,48 @@
     <row r="40" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A40" s="31"/>
       <c r="B40" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" s="20"/>
       <c r="D40" s="24"/>
-      <c r="E40" s="36"/>
+      <c r="E40" s="20"/>
       <c r="F40" s="20"/>
-      <c r="G40" s="24"/>
+      <c r="G40" s="20"/>
       <c r="H40" s="20"/>
       <c r="I40" s="20"/>
       <c r="J40" s="20"/>
       <c r="K40" s="20"/>
       <c r="L40" s="24"/>
       <c r="M40" s="24"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="25"/>
-      <c r="S40" s="25"/>
-      <c r="T40" s="25"/>
-      <c r="U40" s="25"/>
-      <c r="V40" s="25"/>
-      <c r="W40" s="25"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="24"/>
       <c r="X40" s="25"/>
       <c r="Y40" s="25"/>
-      <c r="Z40" s="25"/>
-      <c r="AA40" s="25"/>
-      <c r="AB40" s="25"/>
-      <c r="AC40" s="25"/>
-      <c r="AD40" s="25"/>
-      <c r="AE40" s="25"/>
-      <c r="AF40" s="25"/>
-      <c r="AG40" s="25"/>
-      <c r="AH40" s="25"/>
-      <c r="AI40" s="25"/>
-      <c r="AJ40" s="25"/>
-      <c r="AK40" s="25"/>
-      <c r="AL40" s="25"/>
-      <c r="AM40" s="25"/>
-      <c r="AN40" s="21"/>
+      <c r="Z40" s="20"/>
+      <c r="AA40" s="20"/>
+      <c r="AB40" s="20"/>
+      <c r="AC40" s="20"/>
+      <c r="AD40" s="20"/>
+      <c r="AE40" s="20"/>
+      <c r="AF40" s="20"/>
+      <c r="AG40" s="20"/>
+      <c r="AH40" s="20"/>
+      <c r="AI40" s="20"/>
+      <c r="AJ40" s="24"/>
+      <c r="AK40" s="20"/>
+      <c r="AL40" s="20"/>
+      <c r="AM40" s="24"/>
+      <c r="AN40" s="24"/>
       <c r="AO40" s="21"/>
       <c r="AP40" s="21"/>
       <c r="AQ40" s="21"/>
@@ -3596,7 +3720,7 @@
     <row r="41" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A41" s="31"/>
       <c r="B41" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" s="20"/>
       <c r="D41" s="24"/>
@@ -3609,34 +3733,36 @@
       <c r="K41" s="20"/>
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="25"/>
-      <c r="R41" s="25"/>
-      <c r="S41" s="25"/>
-      <c r="T41" s="25"/>
-      <c r="U41" s="25"/>
-      <c r="V41" s="25"/>
-      <c r="W41" s="25"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="24"/>
+      <c r="S41" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="24"/>
       <c r="X41" s="25"/>
       <c r="Y41" s="25"/>
-      <c r="Z41" s="25"/>
-      <c r="AA41" s="25"/>
-      <c r="AB41" s="25"/>
-      <c r="AC41" s="25"/>
-      <c r="AD41" s="25"/>
-      <c r="AE41" s="25"/>
-      <c r="AF41" s="25"/>
-      <c r="AG41" s="25"/>
-      <c r="AH41" s="25"/>
-      <c r="AI41" s="25"/>
-      <c r="AJ41" s="25"/>
-      <c r="AK41" s="25"/>
-      <c r="AL41" s="25"/>
-      <c r="AM41" s="25"/>
-      <c r="AN41" s="25"/>
-      <c r="AO41" s="21"/>
+      <c r="Z41" s="20"/>
+      <c r="AA41" s="20"/>
+      <c r="AB41" s="20"/>
+      <c r="AC41" s="20"/>
+      <c r="AD41" s="20"/>
+      <c r="AE41" s="20"/>
+      <c r="AF41" s="20"/>
+      <c r="AG41" s="20"/>
+      <c r="AH41" s="20"/>
+      <c r="AI41" s="20"/>
+      <c r="AJ41" s="24"/>
+      <c r="AK41" s="20"/>
+      <c r="AL41" s="20"/>
+      <c r="AM41" s="24"/>
+      <c r="AN41" s="24"/>
+      <c r="AO41" s="24"/>
       <c r="AP41" s="21"/>
       <c r="AQ41" s="21"/>
       <c r="AR41" s="21"/>
@@ -3652,7 +3778,7 @@
     <row r="42" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A42" s="31"/>
       <c r="B42" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="24"/>
@@ -3665,35 +3791,37 @@
       <c r="K42" s="20"/>
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
-      <c r="N42" s="25"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="25"/>
-      <c r="Q42" s="25"/>
-      <c r="R42" s="25"/>
-      <c r="S42" s="25"/>
-      <c r="T42" s="25"/>
-      <c r="U42" s="25"/>
-      <c r="V42" s="25"/>
-      <c r="W42" s="25"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="24"/>
+      <c r="S42" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="T42" s="20"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="20"/>
+      <c r="W42" s="24"/>
       <c r="X42" s="25"/>
       <c r="Y42" s="25"/>
-      <c r="Z42" s="25"/>
-      <c r="AA42" s="25"/>
-      <c r="AB42" s="25"/>
-      <c r="AC42" s="25"/>
-      <c r="AD42" s="25"/>
-      <c r="AE42" s="25"/>
-      <c r="AF42" s="25"/>
-      <c r="AG42" s="25"/>
-      <c r="AH42" s="25"/>
-      <c r="AI42" s="25"/>
-      <c r="AJ42" s="25"/>
-      <c r="AK42" s="25"/>
-      <c r="AL42" s="25"/>
-      <c r="AM42" s="25"/>
-      <c r="AN42" s="25"/>
-      <c r="AO42" s="25"/>
-      <c r="AP42" s="21"/>
+      <c r="Z42" s="20"/>
+      <c r="AA42" s="20"/>
+      <c r="AB42" s="20"/>
+      <c r="AC42" s="20"/>
+      <c r="AD42" s="20"/>
+      <c r="AE42" s="20"/>
+      <c r="AF42" s="20"/>
+      <c r="AG42" s="20"/>
+      <c r="AH42" s="20"/>
+      <c r="AI42" s="20"/>
+      <c r="AJ42" s="20"/>
+      <c r="AK42" s="20"/>
+      <c r="AL42" s="20"/>
+      <c r="AM42" s="20"/>
+      <c r="AN42" s="24"/>
+      <c r="AO42" s="24"/>
+      <c r="AP42" s="24"/>
       <c r="AQ42" s="21"/>
       <c r="AR42" s="21"/>
       <c r="AS42" s="21"/>
@@ -3708,49 +3836,51 @@
     <row r="43" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A43" s="31"/>
       <c r="B43" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="24"/>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
+      <c r="G43" s="24"/>
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
+      <c r="K43" s="24"/>
       <c r="L43" s="24"/>
       <c r="M43" s="24"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="25"/>
-      <c r="R43" s="25"/>
-      <c r="S43" s="25"/>
-      <c r="T43" s="25"/>
-      <c r="U43" s="25"/>
-      <c r="V43" s="25"/>
-      <c r="W43" s="25"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="T43" s="20"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="20"/>
       <c r="X43" s="25"/>
       <c r="Y43" s="25"/>
-      <c r="Z43" s="25"/>
-      <c r="AA43" s="25"/>
-      <c r="AB43" s="25"/>
-      <c r="AC43" s="25"/>
-      <c r="AD43" s="25"/>
-      <c r="AE43" s="25"/>
-      <c r="AF43" s="25"/>
-      <c r="AG43" s="25"/>
-      <c r="AH43" s="25"/>
-      <c r="AI43" s="25"/>
-      <c r="AJ43" s="25"/>
-      <c r="AK43" s="25"/>
-      <c r="AL43" s="25"/>
-      <c r="AM43" s="25"/>
-      <c r="AN43" s="25"/>
-      <c r="AO43" s="25"/>
-      <c r="AP43" s="25"/>
-      <c r="AQ43" s="21"/>
+      <c r="Z43" s="20"/>
+      <c r="AA43" s="20"/>
+      <c r="AB43" s="20"/>
+      <c r="AC43" s="20"/>
+      <c r="AD43" s="20"/>
+      <c r="AE43" s="20"/>
+      <c r="AF43" s="20"/>
+      <c r="AG43" s="20"/>
+      <c r="AH43" s="20"/>
+      <c r="AI43" s="20"/>
+      <c r="AJ43" s="24"/>
+      <c r="AK43" s="20"/>
+      <c r="AL43" s="20"/>
+      <c r="AM43" s="20"/>
+      <c r="AN43" s="20"/>
+      <c r="AO43" s="20"/>
+      <c r="AP43" s="20"/>
+      <c r="AQ43" s="30"/>
       <c r="AR43" s="21"/>
       <c r="AS43" s="21"/>
       <c r="AT43" s="21"/>
@@ -3762,54 +3892,62 @@
       <c r="AZ43" s="21"/>
     </row>
     <row r="44" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A44" s="31"/>
+      <c r="A44" s="38"/>
       <c r="B44" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="24"/>
       <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H44" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="I44" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="J44" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="K44" s="20"/>
       <c r="L44" s="24"/>
       <c r="M44" s="24"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="25"/>
-      <c r="Q44" s="25"/>
-      <c r="R44" s="25"/>
-      <c r="S44" s="25"/>
-      <c r="T44" s="25"/>
-      <c r="U44" s="25"/>
-      <c r="V44" s="25"/>
-      <c r="W44" s="25"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="24"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="24"/>
+      <c r="W44" s="20"/>
       <c r="X44" s="25"/>
       <c r="Y44" s="25"/>
-      <c r="Z44" s="25"/>
-      <c r="AA44" s="25"/>
-      <c r="AB44" s="25"/>
-      <c r="AC44" s="25"/>
-      <c r="AD44" s="25"/>
-      <c r="AE44" s="25"/>
-      <c r="AF44" s="25"/>
-      <c r="AG44" s="25"/>
-      <c r="AH44" s="25"/>
-      <c r="AI44" s="25"/>
-      <c r="AJ44" s="25"/>
-      <c r="AK44" s="25"/>
-      <c r="AL44" s="25"/>
-      <c r="AM44" s="25"/>
-      <c r="AN44" s="25"/>
-      <c r="AO44" s="25"/>
-      <c r="AP44" s="25"/>
-      <c r="AQ44" s="25"/>
-      <c r="AR44" s="37" t="s">
-        <v>74</v>
-      </c>
+      <c r="Z44" s="20"/>
+      <c r="AA44" s="20"/>
+      <c r="AB44" s="20"/>
+      <c r="AC44" s="20"/>
+      <c r="AD44" s="20"/>
+      <c r="AE44" s="20"/>
+      <c r="AF44" s="20"/>
+      <c r="AG44" s="20"/>
+      <c r="AH44" s="20"/>
+      <c r="AI44" s="20"/>
+      <c r="AJ44" s="20"/>
+      <c r="AK44" s="20"/>
+      <c r="AL44" s="20"/>
+      <c r="AM44" s="20"/>
+      <c r="AN44" s="20"/>
+      <c r="AO44" s="20"/>
+      <c r="AP44" s="20"/>
+      <c r="AQ44" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR44" s="25"/>
       <c r="AS44" s="21"/>
       <c r="AT44" s="21"/>
       <c r="AU44" s="21"/>
@@ -3820,61 +3958,55 @@
       <c r="AZ44" s="21"/>
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A45" s="38"/>
-      <c r="B45" s="19" t="s">
-        <v>47</v>
+      <c r="A45" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="40" t="s">
+        <v>49</v>
       </c>
       <c r="C45" s="20"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="H45" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="I45" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="J45" s="30" t="s">
-        <v>85</v>
-      </c>
+      <c r="D45" s="20"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="20"/>
       <c r="K45" s="20"/>
       <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="25"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="25"/>
-      <c r="R45" s="25"/>
-      <c r="S45" s="25"/>
-      <c r="T45" s="25"/>
-      <c r="U45" s="25"/>
-      <c r="V45" s="25"/>
-      <c r="W45" s="25"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
       <c r="X45" s="25"/>
       <c r="Y45" s="25"/>
-      <c r="Z45" s="25"/>
-      <c r="AA45" s="25"/>
-      <c r="AB45" s="25"/>
-      <c r="AC45" s="25"/>
-      <c r="AD45" s="25"/>
-      <c r="AE45" s="25"/>
-      <c r="AF45" s="25"/>
-      <c r="AG45" s="25"/>
-      <c r="AH45" s="25"/>
-      <c r="AI45" s="25"/>
-      <c r="AJ45" s="25"/>
-      <c r="AK45" s="25"/>
-      <c r="AL45" s="25"/>
-      <c r="AM45" s="25"/>
-      <c r="AN45" s="25"/>
-      <c r="AO45" s="25"/>
-      <c r="AP45" s="25"/>
-      <c r="AQ45" s="25"/>
+      <c r="Z45" s="20"/>
+      <c r="AA45" s="20"/>
+      <c r="AB45" s="20"/>
+      <c r="AC45" s="20"/>
+      <c r="AD45" s="20"/>
+      <c r="AE45" s="20"/>
+      <c r="AF45" s="20"/>
+      <c r="AG45" s="20"/>
+      <c r="AH45" s="20"/>
+      <c r="AI45" s="20"/>
+      <c r="AJ45" s="20"/>
+      <c r="AK45" s="20"/>
+      <c r="AL45" s="20"/>
+      <c r="AM45" s="20"/>
+      <c r="AN45" s="20"/>
+      <c r="AO45" s="20"/>
+      <c r="AP45" s="20"/>
+      <c r="AQ45" s="20"/>
       <c r="AR45" s="25"/>
-      <c r="AS45" s="21"/>
+      <c r="AS45" s="25"/>
       <c r="AT45" s="21"/>
       <c r="AU45" s="21"/>
       <c r="AV45" s="21"/>
@@ -3884,56 +4016,56 @@
       <c r="AZ45" s="21"/>
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A46" s="39" t="s">
-        <v>55</v>
-      </c>
+      <c r="A46" s="39"/>
       <c r="B46" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
-      <c r="E46" s="26"/>
+      <c r="E46" s="20"/>
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
       <c r="H46" s="20"/>
-      <c r="I46" s="24"/>
+      <c r="I46" s="20"/>
       <c r="J46" s="20"/>
       <c r="K46" s="20"/>
       <c r="L46" s="24"/>
       <c r="M46" s="20"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="25"/>
-      <c r="R46" s="25"/>
-      <c r="S46" s="25"/>
-      <c r="T46" s="25"/>
-      <c r="U46" s="25"/>
-      <c r="V46" s="25"/>
-      <c r="W46" s="25"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="20"/>
       <c r="X46" s="25"/>
       <c r="Y46" s="25"/>
-      <c r="Z46" s="25"/>
-      <c r="AA46" s="25"/>
-      <c r="AB46" s="25"/>
-      <c r="AC46" s="25"/>
-      <c r="AD46" s="25"/>
-      <c r="AE46" s="25"/>
-      <c r="AF46" s="25"/>
-      <c r="AG46" s="25"/>
-      <c r="AH46" s="25"/>
-      <c r="AI46" s="25"/>
-      <c r="AJ46" s="25"/>
-      <c r="AK46" s="25"/>
-      <c r="AL46" s="25"/>
-      <c r="AM46" s="25"/>
-      <c r="AN46" s="25"/>
-      <c r="AO46" s="25"/>
-      <c r="AP46" s="25"/>
-      <c r="AQ46" s="25"/>
+      <c r="Z46" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA46" s="20"/>
+      <c r="AB46" s="20"/>
+      <c r="AC46" s="20"/>
+      <c r="AD46" s="20"/>
+      <c r="AE46" s="20"/>
+      <c r="AF46" s="20"/>
+      <c r="AG46" s="20"/>
+      <c r="AH46" s="20"/>
+      <c r="AI46" s="20"/>
+      <c r="AJ46" s="20"/>
+      <c r="AK46" s="20"/>
+      <c r="AL46" s="20"/>
+      <c r="AM46" s="20"/>
+      <c r="AN46" s="20"/>
+      <c r="AO46" s="20"/>
+      <c r="AP46" s="20"/>
+      <c r="AQ46" s="20"/>
       <c r="AR46" s="25"/>
       <c r="AS46" s="25"/>
-      <c r="AT46" s="21"/>
+      <c r="AT46" s="25"/>
       <c r="AU46" s="21"/>
       <c r="AV46" s="21"/>
       <c r="AW46" s="21"/>
@@ -3944,7 +4076,7 @@
     <row r="47" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A47" s="39"/>
       <c r="B47" s="40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
@@ -3957,40 +4089,42 @@
       <c r="K47" s="20"/>
       <c r="L47" s="24"/>
       <c r="M47" s="20"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="25"/>
-      <c r="R47" s="25"/>
-      <c r="S47" s="25"/>
-      <c r="T47" s="25"/>
-      <c r="U47" s="25"/>
-      <c r="V47" s="25"/>
-      <c r="W47" s="25"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="20"/>
       <c r="X47" s="25"/>
       <c r="Y47" s="25"/>
-      <c r="Z47" s="25"/>
-      <c r="AA47" s="25"/>
-      <c r="AB47" s="25"/>
-      <c r="AC47" s="25"/>
-      <c r="AD47" s="25"/>
-      <c r="AE47" s="25"/>
-      <c r="AF47" s="25"/>
-      <c r="AG47" s="25"/>
-      <c r="AH47" s="25"/>
-      <c r="AI47" s="25"/>
-      <c r="AJ47" s="25"/>
-      <c r="AK47" s="25"/>
-      <c r="AL47" s="25"/>
-      <c r="AM47" s="25"/>
-      <c r="AN47" s="25"/>
-      <c r="AO47" s="25"/>
-      <c r="AP47" s="25"/>
-      <c r="AQ47" s="25"/>
+      <c r="Z47" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA47" s="20"/>
+      <c r="AB47" s="20"/>
+      <c r="AC47" s="20"/>
+      <c r="AD47" s="20"/>
+      <c r="AE47" s="20"/>
+      <c r="AF47" s="20"/>
+      <c r="AG47" s="20"/>
+      <c r="AH47" s="20"/>
+      <c r="AI47" s="20"/>
+      <c r="AJ47" s="20"/>
+      <c r="AK47" s="20"/>
+      <c r="AL47" s="20"/>
+      <c r="AM47" s="20"/>
+      <c r="AN47" s="20"/>
+      <c r="AO47" s="20"/>
+      <c r="AP47" s="20"/>
+      <c r="AQ47" s="20"/>
       <c r="AR47" s="25"/>
       <c r="AS47" s="25"/>
       <c r="AT47" s="25"/>
-      <c r="AU47" s="21"/>
+      <c r="AU47" s="25"/>
       <c r="AV47" s="21"/>
       <c r="AW47" s="21"/>
       <c r="AX47" s="21"/>
@@ -4000,227 +4134,259 @@
     <row r="48" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A48" s="39"/>
       <c r="B48" s="40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="30" t="s">
+        <v>80</v>
+      </c>
       <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
+      <c r="I48" s="24"/>
       <c r="J48" s="20"/>
       <c r="K48" s="20"/>
       <c r="L48" s="24"/>
       <c r="M48" s="20"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="25"/>
-      <c r="P48" s="25"/>
-      <c r="Q48" s="25"/>
-      <c r="R48" s="25"/>
-      <c r="S48" s="25"/>
-      <c r="T48" s="25"/>
-      <c r="U48" s="25"/>
-      <c r="V48" s="25"/>
-      <c r="W48" s="25"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="20"/>
       <c r="X48" s="25"/>
       <c r="Y48" s="25"/>
-      <c r="Z48" s="25"/>
-      <c r="AA48" s="25"/>
-      <c r="AB48" s="25"/>
-      <c r="AC48" s="25"/>
-      <c r="AD48" s="25"/>
-      <c r="AE48" s="25"/>
-      <c r="AF48" s="25"/>
-      <c r="AG48" s="25"/>
-      <c r="AH48" s="25"/>
-      <c r="AI48" s="25"/>
-      <c r="AJ48" s="25"/>
-      <c r="AK48" s="25"/>
-      <c r="AL48" s="25"/>
-      <c r="AM48" s="25"/>
-      <c r="AN48" s="25"/>
-      <c r="AO48" s="25"/>
-      <c r="AP48" s="25"/>
-      <c r="AQ48" s="25"/>
+      <c r="Z48" s="20"/>
+      <c r="AA48" s="20"/>
+      <c r="AB48" s="20"/>
+      <c r="AC48" s="20"/>
+      <c r="AD48" s="20"/>
+      <c r="AE48" s="20"/>
+      <c r="AF48" s="20"/>
+      <c r="AG48" s="20"/>
+      <c r="AH48" s="20"/>
+      <c r="AI48" s="20"/>
+      <c r="AJ48" s="20"/>
+      <c r="AK48" s="20"/>
+      <c r="AL48" s="20"/>
+      <c r="AM48" s="24"/>
+      <c r="AN48" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO48" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP48" s="20"/>
+      <c r="AQ48" s="20"/>
       <c r="AR48" s="25"/>
       <c r="AS48" s="25"/>
       <c r="AT48" s="25"/>
       <c r="AU48" s="25"/>
-      <c r="AV48" s="21"/>
+      <c r="AV48" s="25"/>
       <c r="AW48" s="21"/>
       <c r="AX48" s="21"/>
       <c r="AY48" s="21"/>
       <c r="AZ48" s="21"/>
     </row>
     <row r="49" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A49" s="39"/>
-      <c r="B49" s="40" t="s">
+      <c r="A49" s="41" t="s">
         <v>54</v>
+      </c>
+      <c r="B49" s="42" t="s">
+        <v>55</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="24"/>
       <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="30" t="s">
-        <v>82</v>
-      </c>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
       <c r="H49" s="20"/>
-      <c r="I49" s="24"/>
+      <c r="I49" s="20"/>
       <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="25"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="25"/>
-      <c r="R49" s="25"/>
-      <c r="S49" s="25"/>
-      <c r="T49" s="25"/>
-      <c r="U49" s="25"/>
-      <c r="V49" s="25"/>
-      <c r="W49" s="25"/>
+      <c r="K49" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="L49" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="M49" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="N49" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="O49" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="P49" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q49" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="R49" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="S49" s="24"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="20"/>
+      <c r="V49" s="20"/>
+      <c r="W49" s="24"/>
       <c r="X49" s="25"/>
       <c r="Y49" s="25"/>
-      <c r="Z49" s="25"/>
-      <c r="AA49" s="25"/>
-      <c r="AB49" s="25"/>
-      <c r="AC49" s="25"/>
-      <c r="AD49" s="25"/>
-      <c r="AE49" s="25"/>
-      <c r="AF49" s="25"/>
-      <c r="AG49" s="25"/>
-      <c r="AH49" s="25"/>
-      <c r="AI49" s="25"/>
-      <c r="AJ49" s="25"/>
-      <c r="AK49" s="25"/>
-      <c r="AL49" s="25"/>
-      <c r="AM49" s="25"/>
-      <c r="AN49" s="25"/>
-      <c r="AO49" s="25"/>
-      <c r="AP49" s="25"/>
-      <c r="AQ49" s="25"/>
+      <c r="Z49" s="20"/>
+      <c r="AA49" s="20"/>
+      <c r="AB49" s="20"/>
+      <c r="AC49" s="20"/>
+      <c r="AD49" s="20"/>
+      <c r="AE49" s="20"/>
+      <c r="AF49" s="20"/>
+      <c r="AG49" s="20"/>
+      <c r="AH49" s="20"/>
+      <c r="AI49" s="20"/>
+      <c r="AJ49" s="20"/>
+      <c r="AK49" s="20"/>
+      <c r="AL49" s="20"/>
+      <c r="AM49" s="20"/>
+      <c r="AN49" s="20"/>
+      <c r="AO49" s="20"/>
+      <c r="AP49" s="20"/>
+      <c r="AQ49" s="20"/>
       <c r="AR49" s="25"/>
       <c r="AS49" s="25"/>
       <c r="AT49" s="25"/>
       <c r="AU49" s="25"/>
       <c r="AV49" s="25"/>
-      <c r="AW49" s="21"/>
+      <c r="AW49" s="25"/>
       <c r="AX49" s="21"/>
       <c r="AY49" s="21"/>
       <c r="AZ49" s="21"/>
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A50" s="41" t="s">
+      <c r="A50" s="41"/>
+      <c r="B50" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="42" t="s">
-        <v>57</v>
-      </c>
       <c r="C50" s="20"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
       <c r="F50" s="20"/>
       <c r="G50" s="20"/>
       <c r="H50" s="20"/>
       <c r="I50" s="20"/>
       <c r="J50" s="20"/>
-      <c r="K50" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="L50" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="M50" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="N50" s="25"/>
-      <c r="O50" s="25"/>
-      <c r="P50" s="25"/>
-      <c r="Q50" s="25"/>
-      <c r="R50" s="25"/>
-      <c r="S50" s="25"/>
-      <c r="T50" s="25"/>
-      <c r="U50" s="25"/>
-      <c r="V50" s="25"/>
-      <c r="W50" s="25"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="20"/>
+      <c r="U50" s="20"/>
+      <c r="V50" s="20"/>
+      <c r="W50" s="20"/>
       <c r="X50" s="25"/>
       <c r="Y50" s="25"/>
-      <c r="Z50" s="25"/>
-      <c r="AA50" s="25"/>
-      <c r="AB50" s="25"/>
-      <c r="AC50" s="25"/>
-      <c r="AD50" s="25"/>
-      <c r="AE50" s="25"/>
-      <c r="AF50" s="25"/>
-      <c r="AG50" s="25"/>
-      <c r="AH50" s="25"/>
-      <c r="AI50" s="25"/>
-      <c r="AJ50" s="25"/>
-      <c r="AK50" s="25"/>
-      <c r="AL50" s="25"/>
-      <c r="AM50" s="25"/>
-      <c r="AN50" s="25"/>
-      <c r="AO50" s="25"/>
-      <c r="AP50" s="25"/>
-      <c r="AQ50" s="25"/>
+      <c r="Z50" s="20"/>
+      <c r="AA50" s="20"/>
+      <c r="AB50" s="20"/>
+      <c r="AC50" s="20"/>
+      <c r="AD50" s="20"/>
+      <c r="AE50" s="20"/>
+      <c r="AF50" s="20"/>
+      <c r="AG50" s="20"/>
+      <c r="AH50" s="20"/>
+      <c r="AI50" s="20"/>
+      <c r="AJ50" s="20"/>
+      <c r="AK50" s="20"/>
+      <c r="AL50" s="20"/>
+      <c r="AM50" s="20"/>
+      <c r="AN50" s="20"/>
+      <c r="AO50" s="20"/>
+      <c r="AP50" s="20"/>
+      <c r="AQ50" s="20"/>
       <c r="AR50" s="25"/>
       <c r="AS50" s="25"/>
       <c r="AT50" s="25"/>
       <c r="AU50" s="25"/>
       <c r="AV50" s="25"/>
       <c r="AW50" s="25"/>
-      <c r="AX50" s="21"/>
+      <c r="AX50" s="25"/>
       <c r="AY50" s="21"/>
       <c r="AZ50" s="21"/>
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A51" s="41"/>
       <c r="B51" s="42" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
+      <c r="E51" s="30" t="s">
+        <v>71</v>
+      </c>
       <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
       <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
+      <c r="K51" s="24"/>
       <c r="L51" s="20"/>
       <c r="M51" s="20"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="25"/>
-      <c r="R51" s="25"/>
-      <c r="S51" s="25"/>
-      <c r="T51" s="25"/>
-      <c r="U51" s="25"/>
-      <c r="V51" s="25"/>
-      <c r="W51" s="25"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="T51" s="20"/>
+      <c r="U51" s="20"/>
+      <c r="V51" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="W51" s="29" t="s">
+        <v>98</v>
+      </c>
       <c r="X51" s="25"/>
       <c r="Y51" s="25"/>
-      <c r="Z51" s="25"/>
-      <c r="AA51" s="25"/>
-      <c r="AB51" s="25"/>
-      <c r="AC51" s="25"/>
-      <c r="AD51" s="25"/>
-      <c r="AE51" s="25"/>
-      <c r="AF51" s="25"/>
-      <c r="AG51" s="25"/>
-      <c r="AH51" s="25"/>
-      <c r="AI51" s="25"/>
-      <c r="AJ51" s="25"/>
+      <c r="Z51" s="20"/>
+      <c r="AA51" s="20"/>
+      <c r="AB51" s="20"/>
+      <c r="AC51" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD51" s="20"/>
+      <c r="AE51" s="20"/>
+      <c r="AF51" s="20"/>
+      <c r="AG51" s="24"/>
+      <c r="AH51" s="24"/>
+      <c r="AI51" s="24"/>
+      <c r="AJ51" s="20"/>
       <c r="AK51" s="25"/>
-      <c r="AL51" s="25"/>
-      <c r="AM51" s="25"/>
-      <c r="AN51" s="25"/>
-      <c r="AO51" s="25"/>
-      <c r="AP51" s="25"/>
-      <c r="AQ51" s="25"/>
+      <c r="AL51" s="24"/>
+      <c r="AM51" s="24"/>
+      <c r="AN51" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO51" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP51" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ51" s="29" t="s">
+        <v>79</v>
+      </c>
       <c r="AR51" s="25"/>
       <c r="AS51" s="25"/>
       <c r="AT51" s="25"/>
@@ -4228,57 +4394,57 @@
       <c r="AV51" s="25"/>
       <c r="AW51" s="25"/>
       <c r="AX51" s="25"/>
-      <c r="AY51" s="21"/>
+      <c r="AY51" s="25"/>
       <c r="AZ51" s="21"/>
     </row>
     <row r="52" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A52" s="41"/>
       <c r="B52" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="F52" s="20"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="25"/>
-      <c r="P52" s="25"/>
-      <c r="Q52" s="25"/>
-      <c r="R52" s="25"/>
-      <c r="S52" s="25"/>
-      <c r="T52" s="25"/>
-      <c r="U52" s="25"/>
-      <c r="V52" s="25"/>
-      <c r="W52" s="25"/>
-      <c r="X52" s="25"/>
-      <c r="Y52" s="25"/>
-      <c r="Z52" s="25"/>
-      <c r="AA52" s="25"/>
-      <c r="AB52" s="25"/>
-      <c r="AC52" s="25"/>
-      <c r="AD52" s="25"/>
-      <c r="AE52" s="25"/>
-      <c r="AF52" s="25"/>
-      <c r="AG52" s="25"/>
-      <c r="AH52" s="25"/>
-      <c r="AI52" s="25"/>
-      <c r="AJ52" s="25"/>
-      <c r="AK52" s="25"/>
-      <c r="AL52" s="25"/>
-      <c r="AM52" s="25"/>
-      <c r="AN52" s="25"/>
-      <c r="AO52" s="25"/>
-      <c r="AP52" s="25"/>
-      <c r="AQ52" s="25"/>
+        <v>58</v>
+      </c>
+      <c r="C52" s="43"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="M52" s="44"/>
+      <c r="N52" s="44"/>
+      <c r="O52" s="44"/>
+      <c r="P52" s="44"/>
+      <c r="Q52" s="44"/>
+      <c r="R52" s="44"/>
+      <c r="S52" s="44"/>
+      <c r="T52" s="44"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="44"/>
+      <c r="W52" s="44"/>
+      <c r="X52" s="45"/>
+      <c r="Y52" s="45"/>
+      <c r="Z52" s="44"/>
+      <c r="AA52" s="44"/>
+      <c r="AB52" s="20"/>
+      <c r="AC52" s="20"/>
+      <c r="AD52" s="20"/>
+      <c r="AE52" s="20"/>
+      <c r="AF52" s="20"/>
+      <c r="AG52" s="20"/>
+      <c r="AH52" s="20"/>
+      <c r="AI52" s="20"/>
+      <c r="AJ52" s="20"/>
+      <c r="AK52" s="20"/>
+      <c r="AL52" s="20"/>
+      <c r="AM52" s="20"/>
+      <c r="AN52" s="20"/>
+      <c r="AO52" s="20"/>
+      <c r="AP52" s="20"/>
+      <c r="AQ52" s="20"/>
       <c r="AR52" s="25"/>
       <c r="AS52" s="25"/>
       <c r="AT52" s="25"/>
@@ -4287,67 +4453,38 @@
       <c r="AW52" s="25"/>
       <c r="AX52" s="25"/>
       <c r="AY52" s="25"/>
-      <c r="AZ52" s="21"/>
+      <c r="AZ52" s="25"/>
     </row>
     <row r="53" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A53" s="41"/>
-      <c r="B53" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="43"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="44"/>
-      <c r="K53" s="44"/>
-      <c r="L53" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="M53" s="44"/>
-      <c r="N53" s="45"/>
-      <c r="O53" s="45"/>
-      <c r="P53" s="45"/>
-      <c r="Q53" s="45"/>
-      <c r="R53" s="45"/>
-      <c r="S53" s="45"/>
-      <c r="T53" s="45"/>
-      <c r="U53" s="45"/>
-      <c r="V53" s="45"/>
-      <c r="W53" s="45"/>
-      <c r="X53" s="45"/>
-      <c r="Y53" s="45"/>
-      <c r="Z53" s="45"/>
-      <c r="AA53" s="45"/>
-      <c r="AB53" s="25"/>
-      <c r="AC53" s="25"/>
-      <c r="AD53" s="25"/>
-      <c r="AE53" s="25"/>
-      <c r="AF53" s="25"/>
-      <c r="AG53" s="25"/>
-      <c r="AH53" s="25"/>
-      <c r="AI53" s="25"/>
-      <c r="AJ53" s="25"/>
-      <c r="AK53" s="25"/>
-      <c r="AL53" s="25"/>
-      <c r="AM53" s="25"/>
-      <c r="AN53" s="25"/>
-      <c r="AO53" s="25"/>
-      <c r="AP53" s="25"/>
-      <c r="AQ53" s="25"/>
-      <c r="AR53" s="25"/>
-      <c r="AS53" s="25"/>
-      <c r="AT53" s="25"/>
-      <c r="AU53" s="25"/>
-      <c r="AV53" s="25"/>
-      <c r="AW53" s="25"/>
-      <c r="AX53" s="25"/>
-      <c r="AY53" s="25"/>
-      <c r="AZ53" s="25"/>
+      <c r="AC53" s="47"/>
+      <c r="AD53" s="47"/>
+      <c r="AE53" s="48"/>
+      <c r="AF53" s="48"/>
+      <c r="AG53" s="48"/>
+      <c r="AH53" s="48"/>
+      <c r="AI53" s="48"/>
+      <c r="AJ53" s="48"/>
+      <c r="AK53" s="48"/>
+      <c r="AL53" s="48"/>
+      <c r="AM53" s="48"/>
+      <c r="AN53" s="48"/>
+      <c r="AO53" s="48"/>
+      <c r="AP53" s="48"/>
+      <c r="AQ53" s="48"/>
+      <c r="AR53" s="48"/>
+      <c r="AS53" s="48"/>
+      <c r="AT53" s="48"/>
+      <c r="AU53" s="48"/>
+      <c r="AV53" s="48"/>
+      <c r="AW53" s="48"/>
+      <c r="AX53" s="48"/>
+      <c r="AY53" s="48"/>
+      <c r="AZ53" s="47"/>
     </row>
     <row r="54" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A54" s="22" t="s">
+        <v>84</v>
+      </c>
       <c r="AC54" s="47"/>
       <c r="AD54" s="47"/>
       <c r="AE54" s="48"/>
@@ -4374,41 +4511,38 @@
       <c r="AZ54" s="47"/>
     </row>
     <row r="55" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="51" t="s">
         <v>86</v>
+      </c>
+      <c r="B55" s="46" t="s">
+        <v>85</v>
       </c>
       <c r="AC55" s="47"/>
       <c r="AD55" s="47"/>
-      <c r="AE55" s="48"/>
-      <c r="AF55" s="48"/>
-      <c r="AG55" s="48"/>
-      <c r="AH55" s="48"/>
-      <c r="AI55" s="48"/>
-      <c r="AJ55" s="48"/>
-      <c r="AK55" s="48"/>
-      <c r="AL55" s="48"/>
-      <c r="AM55" s="48"/>
-      <c r="AN55" s="48"/>
-      <c r="AO55" s="48"/>
-      <c r="AP55" s="48"/>
-      <c r="AQ55" s="48"/>
-      <c r="AR55" s="48"/>
-      <c r="AS55" s="48"/>
-      <c r="AT55" s="48"/>
-      <c r="AU55" s="48"/>
-      <c r="AV55" s="48"/>
-      <c r="AW55" s="48"/>
-      <c r="AX55" s="48"/>
-      <c r="AY55" s="48"/>
+      <c r="AE55" s="47"/>
+      <c r="AF55" s="47"/>
+      <c r="AG55" s="47"/>
+      <c r="AH55" s="47"/>
+      <c r="AI55" s="47"/>
+      <c r="AJ55" s="47"/>
+      <c r="AK55" s="47"/>
+      <c r="AL55" s="47"/>
+      <c r="AM55" s="47"/>
+      <c r="AN55" s="47"/>
+      <c r="AO55" s="47"/>
+      <c r="AP55" s="47"/>
+      <c r="AQ55" s="47"/>
+      <c r="AR55" s="47"/>
+      <c r="AS55" s="47"/>
+      <c r="AT55" s="47"/>
+      <c r="AU55" s="47"/>
+      <c r="AV55" s="47"/>
+      <c r="AW55" s="47"/>
+      <c r="AX55" s="47"/>
+      <c r="AY55" s="47"/>
       <c r="AZ55" s="47"/>
     </row>
     <row r="56" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A56" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="B56" s="46" t="s">
-        <v>87</v>
-      </c>
       <c r="AC56" s="47"/>
       <c r="AD56" s="47"/>
       <c r="AE56" s="47"/>
@@ -4460,39 +4594,12 @@
       <c r="AY57" s="47"/>
       <c r="AZ57" s="47"/>
     </row>
-    <row r="58" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="AC58" s="47"/>
-      <c r="AD58" s="47"/>
-      <c r="AE58" s="47"/>
-      <c r="AF58" s="47"/>
-      <c r="AG58" s="47"/>
-      <c r="AH58" s="47"/>
-      <c r="AI58" s="47"/>
-      <c r="AJ58" s="47"/>
-      <c r="AK58" s="47"/>
-      <c r="AL58" s="47"/>
-      <c r="AM58" s="47"/>
-      <c r="AN58" s="47"/>
-      <c r="AO58" s="47"/>
-      <c r="AP58" s="47"/>
-      <c r="AQ58" s="47"/>
-      <c r="AR58" s="47"/>
-      <c r="AS58" s="47"/>
-      <c r="AT58" s="47"/>
-      <c r="AU58" s="47"/>
-      <c r="AV58" s="47"/>
-      <c r="AW58" s="47"/>
-      <c r="AX58" s="47"/>
-      <c r="AY58" s="47"/>
-      <c r="AZ58" s="47"/>
-    </row>
-    <row r="60" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="G60" s="49"/>
+    <row r="59" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="G59" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A2:B3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4504,7 +4611,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>

--- a/bug finder.xlsx
+++ b/bug finder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Tech demo platformer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4F75EF-5C8A-454E-87F6-45FFF6AAF761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9D506B-FBE8-4FFC-91A1-66D2B632CCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="21000" xr2:uid="{9356C0CF-D086-4FEC-A8F0-753CF5CB4E4B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="113">
   <si>
     <t>A</t>
   </si>
@@ -299,9 +299,6 @@
     <t>Restart E</t>
   </si>
   <si>
-    <t>ko chết kẹt</t>
-  </si>
-  <si>
     <t>lỗi khi chết và đồng hồ chưa chạy</t>
   </si>
   <si>
@@ -366,6 +363,18 @@
   </si>
   <si>
     <t>input riêng</t>
+  </si>
+  <si>
+    <t>test enemy</t>
+  </si>
+  <si>
+    <t>time ko lưu</t>
+  </si>
+  <si>
+    <t>cần lưu mọi thứ khi vào game (có thể check point đầu game)</t>
+  </si>
+  <si>
+    <t>restart ko cho p và r trùng vị trí</t>
   </si>
 </sst>
 </file>
@@ -694,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -844,11 +853,8 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -865,11 +871,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1190,11 +1205,11 @@
   </sheetPr>
   <dimension ref="A1:AZ59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AQ48" sqref="AQ48"/>
+      <selection pane="bottomRight" activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.35"/>
@@ -1210,7 +1225,8 @@
     <col min="16" max="16" width="17.42578125" style="22" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="15.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="27.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="10.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" style="22" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="20.85546875" style="22" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.5703125" style="22" bestFit="1" customWidth="1"/>
@@ -1241,8 +1257,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53"/>
-      <c r="B1" s="54"/>
+      <c r="A1" s="52"/>
+      <c r="B1" s="53"/>
       <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
@@ -1311,8 +1327,8 @@
       <c r="AZ1" s="9"/>
     </row>
     <row r="2" spans="1:52" s="15" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
@@ -1331,7 +1347,7 @@
       <c r="H2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="11" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="11" t="s">
@@ -1362,7 +1378,7 @@
         <v>20</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T2" s="13" t="s">
         <v>22</v>
@@ -1865,7 +1881,7 @@
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="24"/>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="24" t="s">
         <v>83</v>
       </c>
       <c r="F10" s="26"/>
@@ -1983,7 +1999,7 @@
       <c r="D12" s="20"/>
       <c r="E12" s="24"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="24" t="s">
         <v>68</v>
       </c>
       <c r="H12" s="20"/>
@@ -2039,11 +2055,11 @@
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
-      <c r="E13" s="30" t="s">
-        <v>92</v>
+      <c r="E13" s="24" t="s">
+        <v>91</v>
       </c>
       <c r="F13" s="20"/>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="24" t="s">
         <v>68</v>
       </c>
       <c r="H13" s="20"/>
@@ -2101,7 +2117,7 @@
       <c r="D14" s="20"/>
       <c r="E14" s="24"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="24" t="s">
         <v>68</v>
       </c>
       <c r="H14" s="20"/>
@@ -2157,11 +2173,11 @@
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="24"/>
-      <c r="E15" s="30" t="s">
-        <v>87</v>
+      <c r="E15" s="29" t="s">
+        <v>109</v>
       </c>
       <c r="F15" s="24"/>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="24" t="s">
         <v>68</v>
       </c>
       <c r="H15" s="20"/>
@@ -2219,7 +2235,7 @@
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="24" t="s">
         <v>68</v>
       </c>
       <c r="H16" s="20"/>
@@ -2277,7 +2293,7 @@
       <c r="D17" s="20"/>
       <c r="E17" s="24"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="24" t="s">
         <v>68</v>
       </c>
       <c r="H17" s="20"/>
@@ -2335,7 +2351,7 @@
       <c r="D18" s="20"/>
       <c r="E18" s="24"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="24" t="s">
         <v>68</v>
       </c>
       <c r="H18" s="20"/>
@@ -2389,22 +2405,22 @@
         <v>26</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="30" t="s">
+      <c r="I19" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="J19" s="30" t="s">
+      <c r="J19" s="24" t="s">
         <v>83</v>
       </c>
       <c r="K19" s="24"/>
@@ -2457,22 +2473,22 @@
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="24"/>
-      <c r="E20" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="30" t="s">
+      <c r="E20" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="30" t="s">
+      <c r="G20" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="30" t="s">
+      <c r="I20" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="J20" s="30" t="s">
+      <c r="J20" s="24" t="s">
         <v>70</v>
       </c>
       <c r="K20" s="24"/>
@@ -2593,8 +2609,8 @@
       <c r="P22" s="20"/>
       <c r="Q22" s="24"/>
       <c r="R22" s="20"/>
-      <c r="S22" s="30" t="s">
-        <v>99</v>
+      <c r="S22" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="T22" s="24"/>
       <c r="U22" s="20"/>
@@ -2654,7 +2670,7 @@
       <c r="Q23" s="20"/>
       <c r="R23" s="20"/>
       <c r="S23" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T23" s="20"/>
       <c r="U23" s="20"/>
@@ -2708,31 +2724,31 @@
       <c r="I24" s="20"/>
       <c r="J24" s="24"/>
       <c r="K24" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L24" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M24" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N24" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O24" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P24" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q24" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R24" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S24" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T24" s="20"/>
       <c r="U24" s="20"/>
@@ -2795,28 +2811,28 @@
       </c>
       <c r="K25" s="20"/>
       <c r="L25" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M25" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N25" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O25" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P25" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q25" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R25" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S25" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T25" s="20"/>
       <c r="U25" s="20"/>
@@ -2876,13 +2892,13 @@
       <c r="Q26" s="20"/>
       <c r="R26" s="20"/>
       <c r="S26" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T26" s="20"/>
       <c r="U26" s="20"/>
       <c r="V26" s="20"/>
       <c r="W26" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X26" s="25"/>
       <c r="Y26" s="25"/>
@@ -2936,7 +2952,7 @@
         <v>79</v>
       </c>
       <c r="K27" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L27" s="20"/>
       <c r="M27" s="20"/>
@@ -2992,7 +3008,7 @@
       <c r="D28" s="24"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="24" t="s">
         <v>76</v>
       </c>
       <c r="H28" s="20"/>
@@ -3566,7 +3582,7 @@
       <c r="P38" s="24"/>
       <c r="Q38" s="24"/>
       <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
+      <c r="S38" s="24"/>
       <c r="T38" s="20"/>
       <c r="U38" s="20"/>
       <c r="V38" s="20"/>
@@ -3643,7 +3659,7 @@
       <c r="AK39" s="20"/>
       <c r="AL39" s="20"/>
       <c r="AM39" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AN39" s="21"/>
       <c r="AO39" s="21"/>
@@ -3681,7 +3697,7 @@
       <c r="Q40" s="24"/>
       <c r="R40" s="24"/>
       <c r="S40" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T40" s="20"/>
       <c r="U40" s="20"/>
@@ -3739,7 +3755,7 @@
       <c r="Q41" s="24"/>
       <c r="R41" s="24"/>
       <c r="S41" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T41" s="20"/>
       <c r="U41" s="20"/>
@@ -3797,7 +3813,7 @@
       <c r="Q42" s="20"/>
       <c r="R42" s="24"/>
       <c r="S42" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T42" s="20"/>
       <c r="U42" s="20"/>
@@ -3855,9 +3871,11 @@
       <c r="Q43" s="20"/>
       <c r="R43" s="20"/>
       <c r="S43" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="T43" s="20"/>
+        <v>102</v>
+      </c>
+      <c r="T43" s="30" t="s">
+        <v>110</v>
+      </c>
       <c r="U43" s="20"/>
       <c r="V43" s="20"/>
       <c r="W43" s="20"/>
@@ -3900,16 +3918,16 @@
       <c r="D44" s="24"/>
       <c r="E44" s="20"/>
       <c r="F44" s="24"/>
-      <c r="G44" s="30" t="s">
+      <c r="G44" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="H44" s="30" t="s">
+      <c r="H44" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="I44" s="30" t="s">
+      <c r="I44" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="J44" s="30" t="s">
+      <c r="J44" s="24" t="s">
         <v>83</v>
       </c>
       <c r="K44" s="20"/>
@@ -3947,7 +3965,7 @@
       <c r="AQ44" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="AR44" s="25"/>
+      <c r="AR44" s="20"/>
       <c r="AS44" s="21"/>
       <c r="AT44" s="21"/>
       <c r="AU44" s="21"/>
@@ -4005,8 +4023,8 @@
       <c r="AO45" s="20"/>
       <c r="AP45" s="20"/>
       <c r="AQ45" s="20"/>
-      <c r="AR45" s="25"/>
-      <c r="AS45" s="25"/>
+      <c r="AR45" s="20"/>
+      <c r="AS45" s="20"/>
       <c r="AT45" s="21"/>
       <c r="AU45" s="21"/>
       <c r="AV45" s="21"/>
@@ -4044,7 +4062,7 @@
       <c r="X46" s="25"/>
       <c r="Y46" s="25"/>
       <c r="Z46" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA46" s="20"/>
       <c r="AB46" s="20"/>
@@ -4063,9 +4081,9 @@
       <c r="AO46" s="20"/>
       <c r="AP46" s="20"/>
       <c r="AQ46" s="20"/>
-      <c r="AR46" s="25"/>
-      <c r="AS46" s="25"/>
-      <c r="AT46" s="25"/>
+      <c r="AR46" s="20"/>
+      <c r="AS46" s="20"/>
+      <c r="AT46" s="20"/>
       <c r="AU46" s="21"/>
       <c r="AV46" s="21"/>
       <c r="AW46" s="21"/>
@@ -4102,7 +4120,7 @@
       <c r="X47" s="25"/>
       <c r="Y47" s="25"/>
       <c r="Z47" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA47" s="20"/>
       <c r="AB47" s="20"/>
@@ -4121,10 +4139,10 @@
       <c r="AO47" s="20"/>
       <c r="AP47" s="20"/>
       <c r="AQ47" s="20"/>
-      <c r="AR47" s="25"/>
-      <c r="AS47" s="25"/>
-      <c r="AT47" s="25"/>
-      <c r="AU47" s="25"/>
+      <c r="AR47" s="20"/>
+      <c r="AS47" s="20"/>
+      <c r="AT47" s="20"/>
+      <c r="AU47" s="20"/>
       <c r="AV47" s="21"/>
       <c r="AW47" s="21"/>
       <c r="AX47" s="21"/>
@@ -4175,19 +4193,19 @@
       <c r="AK48" s="20"/>
       <c r="AL48" s="20"/>
       <c r="AM48" s="24"/>
-      <c r="AN48" s="59" t="s">
+      <c r="AN48" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="AO48" s="59" t="s">
+      <c r="AO48" s="51" t="s">
         <v>79</v>
       </c>
       <c r="AP48" s="20"/>
       <c r="AQ48" s="20"/>
-      <c r="AR48" s="25"/>
-      <c r="AS48" s="25"/>
-      <c r="AT48" s="25"/>
-      <c r="AU48" s="25"/>
-      <c r="AV48" s="25"/>
+      <c r="AR48" s="20"/>
+      <c r="AS48" s="20"/>
+      <c r="AT48" s="20"/>
+      <c r="AU48" s="20"/>
+      <c r="AV48" s="20"/>
       <c r="AW48" s="21"/>
       <c r="AX48" s="21"/>
       <c r="AY48" s="21"/>
@@ -4209,28 +4227,28 @@
       <c r="I49" s="20"/>
       <c r="J49" s="20"/>
       <c r="K49" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="L49" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="M49" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="L49" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="M49" s="30" t="s">
+      <c r="N49" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="O49" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="P49" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="N49" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="O49" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="P49" s="30" t="s">
-        <v>93</v>
-      </c>
       <c r="Q49" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R49" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S49" s="24"/>
       <c r="T49" s="20"/>
@@ -4257,12 +4275,12 @@
       <c r="AO49" s="20"/>
       <c r="AP49" s="20"/>
       <c r="AQ49" s="20"/>
-      <c r="AR49" s="25"/>
-      <c r="AS49" s="25"/>
-      <c r="AT49" s="25"/>
-      <c r="AU49" s="25"/>
-      <c r="AV49" s="25"/>
-      <c r="AW49" s="25"/>
+      <c r="AR49" s="20"/>
+      <c r="AS49" s="20"/>
+      <c r="AT49" s="24"/>
+      <c r="AU49" s="24"/>
+      <c r="AV49" s="20"/>
+      <c r="AW49" s="24"/>
       <c r="AX49" s="21"/>
       <c r="AY49" s="21"/>
       <c r="AZ49" s="21"/>
@@ -4313,13 +4331,13 @@
       <c r="AO50" s="20"/>
       <c r="AP50" s="20"/>
       <c r="AQ50" s="20"/>
-      <c r="AR50" s="25"/>
-      <c r="AS50" s="25"/>
-      <c r="AT50" s="25"/>
-      <c r="AU50" s="25"/>
-      <c r="AV50" s="25"/>
-      <c r="AW50" s="25"/>
-      <c r="AX50" s="25"/>
+      <c r="AR50" s="20"/>
+      <c r="AS50" s="20"/>
+      <c r="AT50" s="20"/>
+      <c r="AU50" s="20"/>
+      <c r="AV50" s="24"/>
+      <c r="AW50" s="20"/>
+      <c r="AX50" s="20"/>
       <c r="AY50" s="21"/>
       <c r="AZ50" s="21"/>
     </row>
@@ -4330,7 +4348,7 @@
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
-      <c r="E51" s="30" t="s">
+      <c r="E51" s="24" t="s">
         <v>71</v>
       </c>
       <c r="F51" s="20"/>
@@ -4346,16 +4364,16 @@
       <c r="P51" s="20"/>
       <c r="Q51" s="20"/>
       <c r="R51" s="20"/>
-      <c r="S51" s="30" t="s">
-        <v>101</v>
+      <c r="S51" s="24" t="s">
+        <v>100</v>
       </c>
       <c r="T51" s="20"/>
       <c r="U51" s="20"/>
       <c r="V51" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="W51" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X51" s="25"/>
       <c r="Y51" s="25"/>
@@ -4363,7 +4381,7 @@
       <c r="AA51" s="20"/>
       <c r="AB51" s="20"/>
       <c r="AC51" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD51" s="20"/>
       <c r="AE51" s="20"/>
@@ -4376,25 +4394,25 @@
       <c r="AL51" s="24"/>
       <c r="AM51" s="24"/>
       <c r="AN51" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AO51" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AP51" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AQ51" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="AR51" s="25"/>
-      <c r="AS51" s="25"/>
-      <c r="AT51" s="25"/>
-      <c r="AU51" s="25"/>
-      <c r="AV51" s="25"/>
-      <c r="AW51" s="25"/>
-      <c r="AX51" s="25"/>
-      <c r="AY51" s="25"/>
+      <c r="AR51" s="20"/>
+      <c r="AS51" s="24"/>
+      <c r="AT51" s="20"/>
+      <c r="AU51" s="20"/>
+      <c r="AV51" s="24"/>
+      <c r="AW51" s="20"/>
+      <c r="AX51" s="24"/>
+      <c r="AY51" s="20"/>
       <c r="AZ51" s="21"/>
     </row>
     <row r="52" spans="1:52" x14ac:dyDescent="0.35">
@@ -4412,7 +4430,7 @@
       <c r="J52" s="44"/>
       <c r="K52" s="44"/>
       <c r="L52" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M52" s="44"/>
       <c r="N52" s="44"/>
@@ -4445,15 +4463,15 @@
       <c r="AO52" s="20"/>
       <c r="AP52" s="20"/>
       <c r="AQ52" s="20"/>
-      <c r="AR52" s="25"/>
-      <c r="AS52" s="25"/>
-      <c r="AT52" s="25"/>
-      <c r="AU52" s="25"/>
-      <c r="AV52" s="25"/>
-      <c r="AW52" s="25"/>
-      <c r="AX52" s="25"/>
-      <c r="AY52" s="25"/>
-      <c r="AZ52" s="25"/>
+      <c r="AR52" s="20"/>
+      <c r="AS52" s="20"/>
+      <c r="AT52" s="20"/>
+      <c r="AU52" s="20"/>
+      <c r="AV52" s="24"/>
+      <c r="AW52" s="20"/>
+      <c r="AX52" s="24"/>
+      <c r="AY52" s="24"/>
+      <c r="AZ52" s="24"/>
     </row>
     <row r="53" spans="1:52" x14ac:dyDescent="0.35">
       <c r="AC53" s="47"/>
@@ -4510,37 +4528,43 @@
       <c r="AY54" s="48"/>
       <c r="AZ54" s="47"/>
     </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A55" s="51" t="s">
+    <row r="55" spans="1:52" s="60" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B55" s="46" t="s">
+      <c r="B55" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="AC55" s="47"/>
-      <c r="AD55" s="47"/>
-      <c r="AE55" s="47"/>
-      <c r="AF55" s="47"/>
-      <c r="AG55" s="47"/>
-      <c r="AH55" s="47"/>
-      <c r="AI55" s="47"/>
-      <c r="AJ55" s="47"/>
-      <c r="AK55" s="47"/>
-      <c r="AL55" s="47"/>
-      <c r="AM55" s="47"/>
-      <c r="AN55" s="47"/>
-      <c r="AO55" s="47"/>
-      <c r="AP55" s="47"/>
-      <c r="AQ55" s="47"/>
-      <c r="AR55" s="47"/>
-      <c r="AS55" s="47"/>
-      <c r="AT55" s="47"/>
-      <c r="AU55" s="47"/>
-      <c r="AV55" s="47"/>
-      <c r="AW55" s="47"/>
-      <c r="AX55" s="47"/>
-      <c r="AY55" s="47"/>
-      <c r="AZ55" s="47"/>
+      <c r="C55" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC55" s="61"/>
+      <c r="AD55" s="61"/>
+      <c r="AE55" s="61"/>
+      <c r="AF55" s="61"/>
+      <c r="AG55" s="61"/>
+      <c r="AH55" s="61"/>
+      <c r="AI55" s="61"/>
+      <c r="AJ55" s="61"/>
+      <c r="AK55" s="61"/>
+      <c r="AL55" s="61"/>
+      <c r="AM55" s="61"/>
+      <c r="AN55" s="61"/>
+      <c r="AO55" s="61"/>
+      <c r="AP55" s="61"/>
+      <c r="AQ55" s="61"/>
+      <c r="AR55" s="61"/>
+      <c r="AS55" s="61"/>
+      <c r="AT55" s="61"/>
+      <c r="AU55" s="61"/>
+      <c r="AV55" s="61"/>
+      <c r="AW55" s="61"/>
+      <c r="AX55" s="61"/>
+      <c r="AY55" s="61"/>
+      <c r="AZ55" s="61"/>
     </row>
     <row r="56" spans="1:52" x14ac:dyDescent="0.35">
       <c r="AC56" s="47"/>
@@ -4625,8 +4649,8 @@
     <col min="6" max="6" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:6" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4678,8 +4702,8 @@
     <col min="6" max="6" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:6" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
     </row>

--- a/bug finder.xlsx
+++ b/bug finder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Tech demo platformer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9D506B-FBE8-4FFC-91A1-66D2B632CCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10743E0B-AA03-435D-BBE4-9B68B140DD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="21000" xr2:uid="{9356C0CF-D086-4FEC-A8F0-753CF5CB4E4B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="111">
   <si>
     <t>A</t>
   </si>
@@ -260,9 +260,6 @@
     <t>R move(enter)</t>
   </si>
   <si>
-    <t>move clone</t>
-  </si>
-  <si>
     <t>Sinh clone</t>
   </si>
   <si>
@@ -302,9 +299,6 @@
     <t>lỗi khi chết và đồng hồ chưa chạy</t>
   </si>
   <si>
-    <t>dmg thay vì chết</t>
-  </si>
-  <si>
     <t>ẩn</t>
   </si>
   <si>
@@ -356,9 +350,6 @@
     <t>chưa có ui</t>
   </si>
   <si>
-    <t>effect</t>
-  </si>
-  <si>
     <t>cộng hưởng</t>
   </si>
   <si>
@@ -375,6 +366,9 @@
   </si>
   <si>
     <t>restart ko cho p và r trùng vị trí</t>
+  </si>
+  <si>
+    <t>ko xuống</t>
   </si>
 </sst>
 </file>
@@ -454,7 +448,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -547,12 +541,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -570,7 +558,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -676,21 +664,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -703,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -769,30 +742,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -805,15 +775,12 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -835,26 +802,29 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -871,20 +841,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1203,24 +1170,24 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:AZ59"/>
+  <dimension ref="A1:BM75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H59" sqref="H59"/>
+      <selection pane="bottomRight" activeCell="AV89" sqref="AV89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="43" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="21.42578125" style="22" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="20.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="22" customWidth="1"/>
     <col min="12" max="15" width="15.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.42578125" style="22" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="15.5703125" style="22" bestFit="1" customWidth="1"/>
@@ -1257,8 +1224,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52"/>
-      <c r="B1" s="53"/>
+      <c r="A1" s="51"/>
+      <c r="B1" s="52"/>
       <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
@@ -1327,8 +1294,8 @@
       <c r="AZ1" s="9"/>
     </row>
     <row r="2" spans="1:52" s="15" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
       <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
@@ -1342,7 +1309,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>11</v>
@@ -1378,7 +1345,7 @@
         <v>20</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T2" s="13" t="s">
         <v>22</v>
@@ -1709,7 +1676,7 @@
     <row r="7" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A7" s="18"/>
       <c r="B7" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -1882,9 +1849,9 @@
       <c r="C10" s="20"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="26"/>
+        <v>82</v>
+      </c>
+      <c r="F10" s="25"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
@@ -1989,10 +1956,10 @@
       <c r="AZ11" s="21"/>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="20"/>
@@ -2049,14 +2016,14 @@
       <c r="AZ12" s="21"/>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="24" t="s">
@@ -2109,8 +2076,8 @@
       <c r="AZ13" s="21"/>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28" t="s">
+      <c r="A14" s="26"/>
+      <c r="B14" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="20"/>
@@ -2167,14 +2134,14 @@
       <c r="AZ14" s="21"/>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28" t="s">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="24"/>
-      <c r="E15" s="29" t="s">
-        <v>109</v>
+      <c r="E15" s="24" t="s">
+        <v>106</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="24" t="s">
@@ -2227,8 +2194,8 @@
       <c r="AZ15" s="21"/>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="20"/>
@@ -2285,8 +2252,8 @@
       <c r="AZ16" s="21"/>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="27" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="20"/>
@@ -2343,8 +2310,8 @@
       <c r="AZ17" s="21"/>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28" t="s">
+      <c r="A18" s="26"/>
+      <c r="B18" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="20"/>
@@ -2401,11 +2368,11 @@
       <c r="AZ18" s="21"/>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="32" t="s">
-        <v>95</v>
+      <c r="B19" s="31" t="s">
+        <v>93</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
@@ -2415,13 +2382,13 @@
         <v>69</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
@@ -2467,14 +2434,14 @@
       <c r="AZ19" s="21"/>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32" t="s">
+      <c r="A20" s="30"/>
+      <c r="B20" s="31" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="24"/>
-      <c r="E20" s="57" t="s">
-        <v>87</v>
+      <c r="E20" s="47" t="s">
+        <v>86</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>70</v>
@@ -2535,8 +2502,8 @@
       <c r="AZ20" s="21"/>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32" t="s">
+      <c r="A21" s="30"/>
+      <c r="B21" s="31" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="24"/>
@@ -2591,8 +2558,8 @@
       <c r="AZ21" s="21"/>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32" t="s">
+      <c r="A22" s="30"/>
+      <c r="B22" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="20"/>
@@ -2610,7 +2577,7 @@
       <c r="Q22" s="24"/>
       <c r="R22" s="20"/>
       <c r="S22" s="24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="T22" s="24"/>
       <c r="U22" s="20"/>
@@ -2647,12 +2614,12 @@
       <c r="AZ22" s="21"/>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32" t="s">
+      <c r="A23" s="30"/>
+      <c r="B23" s="31" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="20"/>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E23" s="24"/>
@@ -2669,8 +2636,8 @@
       <c r="P23" s="20"/>
       <c r="Q23" s="20"/>
       <c r="R23" s="20"/>
-      <c r="S23" s="30" t="s">
-        <v>99</v>
+      <c r="S23" s="24" t="s">
+        <v>97</v>
       </c>
       <c r="T23" s="20"/>
       <c r="U23" s="20"/>
@@ -2707,48 +2674,46 @@
       <c r="AZ23" s="21"/>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="24"/>
       <c r="E24" s="20"/>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="24" t="s">
         <v>65</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
       <c r="J24" s="24"/>
-      <c r="K24" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="L24" s="30" t="s">
+      <c r="K24" s="24"/>
+      <c r="L24" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="M24" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="N24" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="O24" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="P24" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q24" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="R24" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="S24" s="24" t="s">
         <v>101</v>
-      </c>
-      <c r="M24" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="N24" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="O24" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="P24" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q24" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="R24" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="S24" s="30" t="s">
-        <v>103</v>
       </c>
       <c r="T24" s="20"/>
       <c r="U24" s="20"/>
@@ -2785,61 +2750,61 @@
       <c r="AZ24" s="21"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34" t="s">
+      <c r="A25" s="32"/>
+      <c r="B25" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="20"/>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="29" t="s">
         <v>64</v>
       </c>
       <c r="E25" s="24"/>
-      <c r="F25" s="29" t="s">
+      <c r="F25" s="24" t="s">
         <v>65</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="I25" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="J25" s="29" t="s">
-        <v>79</v>
+        <v>64</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>78</v>
       </c>
       <c r="K25" s="20"/>
-      <c r="L25" s="30" t="s">
+      <c r="L25" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="M25" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="N25" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="O25" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="P25" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q25" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="R25" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="S25" s="24" t="s">
         <v>101</v>
-      </c>
-      <c r="M25" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="N25" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="O25" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="P25" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q25" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="R25" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="S25" s="30" t="s">
-        <v>103</v>
       </c>
       <c r="T25" s="20"/>
       <c r="U25" s="20"/>
       <c r="V25" s="24"/>
       <c r="W25" s="20"/>
-      <c r="X25" s="25"/>
-      <c r="Y25" s="25"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
       <c r="Z25" s="21"/>
       <c r="AA25" s="21"/>
       <c r="AB25" s="21"/>
@@ -2869,14 +2834,14 @@
       <c r="AZ25" s="21"/>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A26" s="33"/>
-      <c r="B26" s="34" t="s">
+      <c r="A26" s="32"/>
+      <c r="B26" s="33" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
-      <c r="F26" s="29" t="s">
+      <c r="F26" s="24" t="s">
         <v>66</v>
       </c>
       <c r="G26" s="20"/>
@@ -2891,17 +2856,17 @@
       <c r="P26" s="20"/>
       <c r="Q26" s="20"/>
       <c r="R26" s="20"/>
-      <c r="S26" s="30" t="s">
-        <v>103</v>
+      <c r="S26" s="24" t="s">
+        <v>101</v>
       </c>
       <c r="T26" s="20"/>
       <c r="U26" s="20"/>
       <c r="V26" s="20"/>
-      <c r="W26" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
+      <c r="W26" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="24"/>
       <c r="Z26" s="20"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="21"/>
@@ -2942,17 +2907,17 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
-      <c r="H27" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="I27" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="J27" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="K27" s="29" t="s">
-        <v>89</v>
+      <c r="H27" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="J27" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="K27" s="28" t="s">
+        <v>87</v>
       </c>
       <c r="L27" s="20"/>
       <c r="M27" s="20"/>
@@ -2962,14 +2927,14 @@
       <c r="Q27" s="20"/>
       <c r="R27" s="20"/>
       <c r="S27" s="20"/>
-      <c r="T27" s="29" t="s">
-        <v>79</v>
+      <c r="T27" s="28" t="s">
+        <v>78</v>
       </c>
       <c r="U27" s="20"/>
       <c r="V27" s="20"/>
       <c r="W27" s="24"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="25"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
       <c r="Z27" s="20"/>
       <c r="AA27" s="20"/>
       <c r="AB27" s="21"/>
@@ -2999,7 +2964,7 @@
       <c r="AZ27" s="21"/>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="30" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="19" t="s">
@@ -3009,7 +2974,7 @@
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
       <c r="G28" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
@@ -3027,8 +2992,8 @@
       <c r="U28" s="20"/>
       <c r="V28" s="20"/>
       <c r="W28" s="20"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
       <c r="Z28" s="20"/>
       <c r="AA28" s="20"/>
       <c r="AB28" s="20"/>
@@ -3058,7 +3023,7 @@
       <c r="AZ28" s="21"/>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A29" s="31"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="19" t="s">
         <v>62</v>
       </c>
@@ -3066,7 +3031,7 @@
       <c r="D29" s="24"/>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="50"/>
+      <c r="G29" s="45"/>
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
@@ -3083,8 +3048,8 @@
       <c r="U29" s="20"/>
       <c r="V29" s="20"/>
       <c r="W29" s="20"/>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="25"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20"/>
       <c r="Z29" s="20"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="20"/>
@@ -3114,7 +3079,7 @@
       <c r="AZ29" s="21"/>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A30" s="31"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="19" t="s">
         <v>60</v>
       </c>
@@ -3139,8 +3104,8 @@
       <c r="U30" s="20"/>
       <c r="V30" s="20"/>
       <c r="W30" s="20"/>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="25"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="20"/>
       <c r="Z30" s="20"/>
       <c r="AA30" s="20"/>
       <c r="AB30" s="20"/>
@@ -3170,7 +3135,7 @@
       <c r="AZ30" s="21"/>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A31" s="31"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="19" t="s">
         <v>59</v>
       </c>
@@ -3195,8 +3160,8 @@
       <c r="U31" s="20"/>
       <c r="V31" s="20"/>
       <c r="W31" s="20"/>
-      <c r="X31" s="25"/>
-      <c r="Y31" s="25"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="20"/>
       <c r="Z31" s="20"/>
       <c r="AA31" s="20"/>
       <c r="AB31" s="20"/>
@@ -3226,7 +3191,7 @@
       <c r="AZ31" s="21"/>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A32" s="31"/>
+      <c r="A32" s="30"/>
       <c r="B32" s="19" t="s">
         <v>34</v>
       </c>
@@ -3251,8 +3216,8 @@
       <c r="U32" s="20"/>
       <c r="V32" s="20"/>
       <c r="W32" s="20"/>
-      <c r="X32" s="25"/>
-      <c r="Y32" s="25"/>
+      <c r="X32" s="24"/>
+      <c r="Y32" s="24"/>
       <c r="Z32" s="20"/>
       <c r="AA32" s="20"/>
       <c r="AB32" s="20"/>
@@ -3282,7 +3247,7 @@
       <c r="AZ32" s="21"/>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A33" s="31"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="19" t="s">
         <v>35</v>
       </c>
@@ -3307,8 +3272,8 @@
       <c r="U33" s="20"/>
       <c r="V33" s="20"/>
       <c r="W33" s="20"/>
-      <c r="X33" s="25"/>
-      <c r="Y33" s="25"/>
+      <c r="X33" s="24"/>
+      <c r="Y33" s="24"/>
       <c r="Z33" s="20"/>
       <c r="AA33" s="20"/>
       <c r="AB33" s="20"/>
@@ -3338,7 +3303,7 @@
       <c r="AZ33" s="21"/>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A34" s="31"/>
+      <c r="A34" s="30"/>
       <c r="B34" s="19" t="s">
         <v>47</v>
       </c>
@@ -3363,8 +3328,8 @@
       <c r="U34" s="20"/>
       <c r="V34" s="20"/>
       <c r="W34" s="20"/>
-      <c r="X34" s="25"/>
-      <c r="Y34" s="25"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="20"/>
       <c r="Z34" s="20"/>
       <c r="AA34" s="20"/>
       <c r="AB34" s="20"/>
@@ -3394,7 +3359,7 @@
       <c r="AZ34" s="21"/>
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A35" s="31"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="19" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +3384,8 @@
       <c r="U35" s="20"/>
       <c r="V35" s="20"/>
       <c r="W35" s="20"/>
-      <c r="X35" s="25"/>
-      <c r="Y35" s="25"/>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="20"/>
       <c r="Z35" s="20"/>
       <c r="AA35" s="20"/>
       <c r="AB35" s="20"/>
@@ -3450,13 +3415,13 @@
       <c r="AZ35" s="21"/>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A36" s="31"/>
+      <c r="A36" s="30"/>
       <c r="B36" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="24"/>
-      <c r="E36" s="35"/>
+      <c r="E36" s="34"/>
       <c r="F36" s="20"/>
       <c r="G36" s="24"/>
       <c r="H36" s="20"/>
@@ -3475,8 +3440,8 @@
       <c r="U36" s="20"/>
       <c r="V36" s="20"/>
       <c r="W36" s="20"/>
-      <c r="X36" s="25"/>
-      <c r="Y36" s="25"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
       <c r="Z36" s="20"/>
       <c r="AA36" s="20"/>
       <c r="AB36" s="20"/>
@@ -3506,7 +3471,7 @@
       <c r="AZ36" s="21"/>
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A37" s="31"/>
+      <c r="A37" s="30"/>
       <c r="B37" s="19" t="s">
         <v>37</v>
       </c>
@@ -3531,8 +3496,8 @@
       <c r="U37" s="20"/>
       <c r="V37" s="20"/>
       <c r="W37" s="20"/>
-      <c r="X37" s="25"/>
-      <c r="Y37" s="25"/>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="20"/>
       <c r="Z37" s="20"/>
       <c r="AA37" s="20"/>
       <c r="AB37" s="20"/>
@@ -3562,13 +3527,13 @@
       <c r="AZ37" s="21"/>
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A38" s="31"/>
+      <c r="A38" s="30"/>
       <c r="B38" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="24"/>
-      <c r="E38" s="35"/>
+      <c r="E38" s="34"/>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
@@ -3587,8 +3552,8 @@
       <c r="U38" s="20"/>
       <c r="V38" s="20"/>
       <c r="W38" s="24"/>
-      <c r="X38" s="25"/>
-      <c r="Y38" s="25"/>
+      <c r="X38" s="24"/>
+      <c r="Y38" s="24"/>
       <c r="Z38" s="20"/>
       <c r="AA38" s="20"/>
       <c r="AB38" s="20"/>
@@ -3618,13 +3583,13 @@
       <c r="AZ38" s="21"/>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A39" s="31"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="24"/>
-      <c r="E39" s="36"/>
+      <c r="E39" s="35"/>
       <c r="F39" s="20"/>
       <c r="G39" s="24"/>
       <c r="H39" s="20"/>
@@ -3643,8 +3608,8 @@
       <c r="U39" s="20"/>
       <c r="V39" s="20"/>
       <c r="W39" s="20"/>
-      <c r="X39" s="25"/>
-      <c r="Y39" s="25"/>
+      <c r="X39" s="24"/>
+      <c r="Y39" s="24"/>
       <c r="Z39" s="20"/>
       <c r="AA39" s="20"/>
       <c r="AB39" s="20"/>
@@ -3658,8 +3623,8 @@
       <c r="AJ39" s="24"/>
       <c r="AK39" s="20"/>
       <c r="AL39" s="20"/>
-      <c r="AM39" s="30" t="s">
-        <v>107</v>
+      <c r="AM39" s="24" t="s">
+        <v>104</v>
       </c>
       <c r="AN39" s="21"/>
       <c r="AO39" s="21"/>
@@ -3676,7 +3641,7 @@
       <c r="AZ39" s="21"/>
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A40" s="31"/>
+      <c r="A40" s="30"/>
       <c r="B40" s="19" t="s">
         <v>41</v>
       </c>
@@ -3696,15 +3661,15 @@
       <c r="P40" s="24"/>
       <c r="Q40" s="24"/>
       <c r="R40" s="24"/>
-      <c r="S40" s="30" t="s">
-        <v>100</v>
+      <c r="S40" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="T40" s="20"/>
       <c r="U40" s="20"/>
       <c r="V40" s="20"/>
       <c r="W40" s="24"/>
-      <c r="X40" s="25"/>
-      <c r="Y40" s="25"/>
+      <c r="X40" s="24"/>
+      <c r="Y40" s="24"/>
       <c r="Z40" s="20"/>
       <c r="AA40" s="20"/>
       <c r="AB40" s="20"/>
@@ -3734,7 +3699,7 @@
       <c r="AZ40" s="21"/>
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A41" s="31"/>
+      <c r="A41" s="30"/>
       <c r="B41" s="19" t="s">
         <v>42</v>
       </c>
@@ -3754,15 +3719,15 @@
       <c r="P41" s="24"/>
       <c r="Q41" s="24"/>
       <c r="R41" s="24"/>
-      <c r="S41" s="30" t="s">
-        <v>100</v>
+      <c r="S41" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="T41" s="20"/>
       <c r="U41" s="20"/>
       <c r="V41" s="20"/>
       <c r="W41" s="24"/>
-      <c r="X41" s="25"/>
-      <c r="Y41" s="25"/>
+      <c r="X41" s="24"/>
+      <c r="Y41" s="24"/>
       <c r="Z41" s="20"/>
       <c r="AA41" s="20"/>
       <c r="AB41" s="20"/>
@@ -3792,7 +3757,7 @@
       <c r="AZ41" s="21"/>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A42" s="31"/>
+      <c r="A42" s="30"/>
       <c r="B42" s="19" t="s">
         <v>43</v>
       </c>
@@ -3812,15 +3777,15 @@
       <c r="P42" s="20"/>
       <c r="Q42" s="20"/>
       <c r="R42" s="24"/>
-      <c r="S42" s="30" t="s">
-        <v>100</v>
+      <c r="S42" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="T42" s="20"/>
       <c r="U42" s="20"/>
       <c r="V42" s="20"/>
       <c r="W42" s="24"/>
-      <c r="X42" s="25"/>
-      <c r="Y42" s="25"/>
+      <c r="X42" s="20"/>
+      <c r="Y42" s="20"/>
       <c r="Z42" s="20"/>
       <c r="AA42" s="20"/>
       <c r="AB42" s="20"/>
@@ -3850,7 +3815,7 @@
       <c r="AZ42" s="21"/>
     </row>
     <row r="43" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A43" s="31"/>
+      <c r="A43" s="30"/>
       <c r="B43" s="19" t="s">
         <v>44</v>
       </c>
@@ -3870,17 +3835,17 @@
       <c r="P43" s="20"/>
       <c r="Q43" s="20"/>
       <c r="R43" s="20"/>
-      <c r="S43" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="T43" s="30" t="s">
-        <v>110</v>
+      <c r="S43" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="T43" s="24" t="s">
+        <v>107</v>
       </c>
       <c r="U43" s="20"/>
       <c r="V43" s="20"/>
       <c r="W43" s="20"/>
-      <c r="X43" s="25"/>
-      <c r="Y43" s="25"/>
+      <c r="X43" s="24"/>
+      <c r="Y43" s="24"/>
       <c r="Z43" s="20"/>
       <c r="AA43" s="20"/>
       <c r="AB43" s="20"/>
@@ -3898,7 +3863,7 @@
       <c r="AN43" s="20"/>
       <c r="AO43" s="20"/>
       <c r="AP43" s="20"/>
-      <c r="AQ43" s="30"/>
+      <c r="AQ43" s="24"/>
       <c r="AR43" s="21"/>
       <c r="AS43" s="21"/>
       <c r="AT43" s="21"/>
@@ -3910,7 +3875,7 @@
       <c r="AZ43" s="21"/>
     </row>
     <row r="44" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A44" s="38"/>
+      <c r="A44" s="36"/>
       <c r="B44" s="19" t="s">
         <v>45</v>
       </c>
@@ -3922,13 +3887,13 @@
         <v>69</v>
       </c>
       <c r="H44" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I44" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="J44" s="24" t="s">
         <v>82</v>
-      </c>
-      <c r="J44" s="24" t="s">
-        <v>83</v>
       </c>
       <c r="K44" s="20"/>
       <c r="L44" s="24"/>
@@ -3943,8 +3908,8 @@
       <c r="U44" s="20"/>
       <c r="V44" s="24"/>
       <c r="W44" s="20"/>
-      <c r="X44" s="25"/>
-      <c r="Y44" s="25"/>
+      <c r="X44" s="20"/>
+      <c r="Y44" s="20"/>
       <c r="Z44" s="20"/>
       <c r="AA44" s="20"/>
       <c r="AB44" s="20"/>
@@ -3962,7 +3927,7 @@
       <c r="AN44" s="20"/>
       <c r="AO44" s="20"/>
       <c r="AP44" s="20"/>
-      <c r="AQ44" s="37" t="s">
+      <c r="AQ44" s="59" t="s">
         <v>72</v>
       </c>
       <c r="AR44" s="20"/>
@@ -3976,15 +3941,15 @@
       <c r="AZ44" s="21"/>
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A45" s="39" t="s">
+      <c r="A45" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="38" t="s">
         <v>49</v>
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
-      <c r="E45" s="26"/>
+      <c r="E45" s="25"/>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
@@ -4003,8 +3968,8 @@
       <c r="U45" s="20"/>
       <c r="V45" s="20"/>
       <c r="W45" s="20"/>
-      <c r="X45" s="25"/>
-      <c r="Y45" s="25"/>
+      <c r="X45" s="20"/>
+      <c r="Y45" s="20"/>
       <c r="Z45" s="20"/>
       <c r="AA45" s="20"/>
       <c r="AB45" s="20"/>
@@ -4034,8 +3999,8 @@
       <c r="AZ45" s="21"/>
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A46" s="39"/>
-      <c r="B46" s="40" t="s">
+      <c r="A46" s="37"/>
+      <c r="B46" s="38" t="s">
         <v>50</v>
       </c>
       <c r="C46" s="20"/>
@@ -4059,10 +4024,10 @@
       <c r="U46" s="20"/>
       <c r="V46" s="20"/>
       <c r="W46" s="20"/>
-      <c r="X46" s="25"/>
-      <c r="Y46" s="25"/>
-      <c r="Z46" s="30" t="s">
-        <v>91</v>
+      <c r="X46" s="20"/>
+      <c r="Y46" s="20"/>
+      <c r="Z46" s="24" t="s">
+        <v>89</v>
       </c>
       <c r="AA46" s="20"/>
       <c r="AB46" s="20"/>
@@ -4092,8 +4057,8 @@
       <c r="AZ46" s="21"/>
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A47" s="39"/>
-      <c r="B47" s="40" t="s">
+      <c r="A47" s="37"/>
+      <c r="B47" s="38" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="20"/>
@@ -4117,10 +4082,10 @@
       <c r="U47" s="20"/>
       <c r="V47" s="20"/>
       <c r="W47" s="20"/>
-      <c r="X47" s="25"/>
-      <c r="Y47" s="25"/>
-      <c r="Z47" s="30" t="s">
-        <v>91</v>
+      <c r="X47" s="20"/>
+      <c r="Y47" s="20"/>
+      <c r="Z47" s="24" t="s">
+        <v>89</v>
       </c>
       <c r="AA47" s="20"/>
       <c r="AB47" s="20"/>
@@ -4150,16 +4115,16 @@
       <c r="AZ47" s="21"/>
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A48" s="39"/>
-      <c r="B48" s="40" t="s">
+      <c r="A48" s="37"/>
+      <c r="B48" s="38" t="s">
         <v>52</v>
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="24"/>
       <c r="E48" s="24"/>
       <c r="F48" s="24"/>
-      <c r="G48" s="30" t="s">
-        <v>80</v>
+      <c r="G48" s="29" t="s">
+        <v>79</v>
       </c>
       <c r="H48" s="20"/>
       <c r="I48" s="24"/>
@@ -4177,8 +4142,8 @@
       <c r="U48" s="20"/>
       <c r="V48" s="20"/>
       <c r="W48" s="20"/>
-      <c r="X48" s="25"/>
-      <c r="Y48" s="25"/>
+      <c r="X48" s="29"/>
+      <c r="Y48" s="29"/>
       <c r="Z48" s="20"/>
       <c r="AA48" s="20"/>
       <c r="AB48" s="20"/>
@@ -4193,11 +4158,11 @@
       <c r="AK48" s="20"/>
       <c r="AL48" s="20"/>
       <c r="AM48" s="24"/>
-      <c r="AN48" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO48" s="51" t="s">
-        <v>79</v>
+      <c r="AN48" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO48" s="46" t="s">
+        <v>78</v>
       </c>
       <c r="AP48" s="20"/>
       <c r="AQ48" s="20"/>
@@ -4211,11 +4176,11 @@
       <c r="AY48" s="21"/>
       <c r="AZ48" s="21"/>
     </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A49" s="41" t="s">
+    <row r="49" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="A49" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="40" t="s">
         <v>55</v>
       </c>
       <c r="C49" s="20"/>
@@ -4226,37 +4191,37 @@
       <c r="H49" s="20"/>
       <c r="I49" s="20"/>
       <c r="J49" s="20"/>
-      <c r="K49" s="30" t="s">
+      <c r="K49" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="L49" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="L49" s="30" t="s">
+      <c r="M49" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="N49" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="M49" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="N49" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="O49" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="P49" s="30" t="s">
+      <c r="O49" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="Q49" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="R49" s="30" t="s">
-        <v>91</v>
+      <c r="P49" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q49" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="R49" s="24" t="s">
+        <v>92</v>
       </c>
       <c r="S49" s="24"/>
       <c r="T49" s="20"/>
       <c r="U49" s="20"/>
       <c r="V49" s="20"/>
       <c r="W49" s="24"/>
-      <c r="X49" s="25"/>
-      <c r="Y49" s="25"/>
+      <c r="X49" s="20"/>
+      <c r="Y49" s="20"/>
       <c r="Z49" s="20"/>
       <c r="AA49" s="20"/>
       <c r="AB49" s="20"/>
@@ -4285,9 +4250,9 @@
       <c r="AY49" s="21"/>
       <c r="AZ49" s="21"/>
     </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A50" s="41"/>
-      <c r="B50" s="42" t="s">
+    <row r="50" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="A50" s="39"/>
+      <c r="B50" s="40" t="s">
         <v>56</v>
       </c>
       <c r="C50" s="20"/>
@@ -4311,8 +4276,8 @@
       <c r="U50" s="20"/>
       <c r="V50" s="20"/>
       <c r="W50" s="20"/>
-      <c r="X50" s="25"/>
-      <c r="Y50" s="25"/>
+      <c r="X50" s="20"/>
+      <c r="Y50" s="20"/>
       <c r="Z50" s="20"/>
       <c r="AA50" s="20"/>
       <c r="AB50" s="20"/>
@@ -4341,9 +4306,9 @@
       <c r="AY50" s="21"/>
       <c r="AZ50" s="21"/>
     </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A51" s="41"/>
-      <c r="B51" s="42" t="s">
+    <row r="51" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="A51" s="39"/>
+      <c r="B51" s="40" t="s">
         <v>73</v>
       </c>
       <c r="C51" s="20"/>
@@ -4365,23 +4330,23 @@
       <c r="Q51" s="20"/>
       <c r="R51" s="20"/>
       <c r="S51" s="24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T51" s="20"/>
       <c r="U51" s="20"/>
-      <c r="V51" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="W51" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="X51" s="25"/>
-      <c r="Y51" s="25"/>
+      <c r="V51" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="W51" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="X51" s="24"/>
+      <c r="Y51" s="24"/>
       <c r="Z51" s="20"/>
       <c r="AA51" s="20"/>
       <c r="AB51" s="20"/>
-      <c r="AC51" s="30" t="s">
-        <v>106</v>
+      <c r="AC51" s="24" t="s">
+        <v>110</v>
       </c>
       <c r="AD51" s="20"/>
       <c r="AE51" s="20"/>
@@ -4390,21 +4355,19 @@
       <c r="AH51" s="24"/>
       <c r="AI51" s="24"/>
       <c r="AJ51" s="20"/>
-      <c r="AK51" s="25"/>
+      <c r="AK51" s="20"/>
       <c r="AL51" s="24"/>
       <c r="AM51" s="24"/>
-      <c r="AN51" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="AO51" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="AP51" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="AQ51" s="29" t="s">
-        <v>79</v>
-      </c>
+      <c r="AN51" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO51" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP51" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ51" s="24"/>
       <c r="AR51" s="20"/>
       <c r="AS51" s="24"/>
       <c r="AT51" s="20"/>
@@ -4415,38 +4378,38 @@
       <c r="AY51" s="20"/>
       <c r="AZ51" s="21"/>
     </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A52" s="41"/>
-      <c r="B52" s="42" t="s">
+    <row r="52" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="A52" s="39"/>
+      <c r="B52" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="43"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="44"/>
-      <c r="K52" s="44"/>
-      <c r="L52" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="M52" s="44"/>
-      <c r="N52" s="44"/>
-      <c r="O52" s="44"/>
-      <c r="P52" s="44"/>
-      <c r="Q52" s="44"/>
-      <c r="R52" s="44"/>
-      <c r="S52" s="44"/>
-      <c r="T52" s="44"/>
-      <c r="U52" s="44"/>
-      <c r="V52" s="44"/>
-      <c r="W52" s="44"/>
-      <c r="X52" s="45"/>
-      <c r="Y52" s="45"/>
-      <c r="Z52" s="44"/>
-      <c r="AA52" s="44"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="42"/>
+      <c r="S52" s="42"/>
+      <c r="T52" s="42"/>
+      <c r="U52" s="42"/>
+      <c r="V52" s="56"/>
+      <c r="W52" s="56"/>
+      <c r="X52" s="56"/>
+      <c r="Y52" s="56"/>
+      <c r="Z52" s="56"/>
+      <c r="AA52" s="56"/>
       <c r="AB52" s="20"/>
       <c r="AC52" s="20"/>
       <c r="AD52" s="20"/>
@@ -4473,153 +4436,1079 @@
       <c r="AY52" s="24"/>
       <c r="AZ52" s="24"/>
     </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="AC53" s="47"/>
-      <c r="AD53" s="47"/>
-      <c r="AE53" s="48"/>
-      <c r="AF53" s="48"/>
-      <c r="AG53" s="48"/>
-      <c r="AH53" s="48"/>
-      <c r="AI53" s="48"/>
-      <c r="AJ53" s="48"/>
-      <c r="AK53" s="48"/>
-      <c r="AL53" s="48"/>
-      <c r="AM53" s="48"/>
-      <c r="AN53" s="48"/>
-      <c r="AO53" s="48"/>
-      <c r="AP53" s="48"/>
-      <c r="AQ53" s="48"/>
-      <c r="AR53" s="48"/>
-      <c r="AS53" s="48"/>
-      <c r="AT53" s="48"/>
-      <c r="AU53" s="48"/>
-      <c r="AV53" s="48"/>
-      <c r="AW53" s="48"/>
-      <c r="AX53" s="48"/>
-      <c r="AY53" s="48"/>
-      <c r="AZ53" s="47"/>
-    </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="V53" s="57"/>
+      <c r="W53" s="57"/>
+      <c r="X53" s="57"/>
+      <c r="Y53" s="57"/>
+      <c r="Z53" s="57"/>
+      <c r="AA53" s="57"/>
+      <c r="AB53" s="57"/>
+      <c r="AC53" s="57"/>
+      <c r="AD53" s="57"/>
+      <c r="AE53" s="56"/>
+      <c r="AF53" s="56"/>
+      <c r="AG53" s="56"/>
+      <c r="AH53" s="56"/>
+      <c r="AI53" s="56"/>
+      <c r="AJ53" s="56"/>
+      <c r="AK53" s="56"/>
+      <c r="AL53" s="56"/>
+      <c r="AM53" s="56"/>
+      <c r="AN53" s="56"/>
+      <c r="AO53" s="56"/>
+      <c r="AP53" s="56"/>
+      <c r="AQ53" s="56"/>
+      <c r="AR53" s="56"/>
+      <c r="AS53" s="56"/>
+      <c r="AT53" s="56"/>
+      <c r="AU53" s="56"/>
+      <c r="AV53" s="56"/>
+      <c r="AW53" s="56"/>
+      <c r="AX53" s="56"/>
+      <c r="AY53" s="56"/>
+      <c r="AZ53" s="57"/>
+      <c r="BA53" s="57"/>
+      <c r="BB53" s="57"/>
+      <c r="BC53" s="57"/>
+      <c r="BD53" s="57"/>
+      <c r="BE53" s="57"/>
+      <c r="BF53" s="57"/>
+      <c r="BG53" s="57"/>
+      <c r="BH53" s="57"/>
+      <c r="BI53" s="57"/>
+      <c r="BJ53" s="57"/>
+      <c r="BK53" s="57"/>
+      <c r="BL53" s="57"/>
+      <c r="BM53" s="57"/>
+    </row>
+    <row r="54" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A54" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="V54" s="57"/>
+      <c r="W54" s="57"/>
+      <c r="X54" s="57"/>
+      <c r="Y54" s="57"/>
+      <c r="Z54" s="57"/>
+      <c r="AA54" s="57"/>
+      <c r="AB54" s="57"/>
+      <c r="AC54" s="57"/>
+      <c r="AD54" s="57"/>
+      <c r="AE54" s="56"/>
+      <c r="AF54" s="56"/>
+      <c r="AG54" s="56"/>
+      <c r="AH54" s="56"/>
+      <c r="AI54" s="56"/>
+      <c r="AJ54" s="56"/>
+      <c r="AK54" s="56"/>
+      <c r="AL54" s="56"/>
+      <c r="AM54" s="56"/>
+      <c r="AN54" s="56"/>
+      <c r="AO54" s="56"/>
+      <c r="AP54" s="56"/>
+      <c r="AQ54" s="56"/>
+      <c r="AR54" s="56"/>
+      <c r="AS54" s="56"/>
+      <c r="AT54" s="56"/>
+      <c r="AU54" s="56"/>
+      <c r="AV54" s="56"/>
+      <c r="AW54" s="56"/>
+      <c r="AX54" s="56"/>
+      <c r="AY54" s="56"/>
+      <c r="AZ54" s="57"/>
+      <c r="BA54" s="57"/>
+      <c r="BB54" s="57"/>
+      <c r="BC54" s="57"/>
+      <c r="BD54" s="57"/>
+      <c r="BE54" s="57"/>
+      <c r="BF54" s="57"/>
+      <c r="BG54" s="57"/>
+      <c r="BH54" s="57"/>
+      <c r="BI54" s="57"/>
+      <c r="BJ54" s="57"/>
+      <c r="BK54" s="57"/>
+      <c r="BL54" s="57"/>
+      <c r="BM54" s="57"/>
+    </row>
+    <row r="55" spans="1:65" s="50" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="AC54" s="47"/>
-      <c r="AD54" s="47"/>
-      <c r="AE54" s="48"/>
-      <c r="AF54" s="48"/>
-      <c r="AG54" s="48"/>
-      <c r="AH54" s="48"/>
-      <c r="AI54" s="48"/>
-      <c r="AJ54" s="48"/>
-      <c r="AK54" s="48"/>
-      <c r="AL54" s="48"/>
-      <c r="AM54" s="48"/>
-      <c r="AN54" s="48"/>
-      <c r="AO54" s="48"/>
-      <c r="AP54" s="48"/>
-      <c r="AQ54" s="48"/>
-      <c r="AR54" s="48"/>
-      <c r="AS54" s="48"/>
-      <c r="AT54" s="48"/>
-      <c r="AU54" s="48"/>
-      <c r="AV54" s="48"/>
-      <c r="AW54" s="48"/>
-      <c r="AX54" s="48"/>
-      <c r="AY54" s="48"/>
-      <c r="AZ54" s="47"/>
-    </row>
-    <row r="55" spans="1:52" s="60" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="B55" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="D55" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC55" s="61"/>
-      <c r="AD55" s="61"/>
-      <c r="AE55" s="61"/>
-      <c r="AF55" s="61"/>
-      <c r="AG55" s="61"/>
-      <c r="AH55" s="61"/>
-      <c r="AI55" s="61"/>
-      <c r="AJ55" s="61"/>
-      <c r="AK55" s="61"/>
-      <c r="AL55" s="61"/>
-      <c r="AM55" s="61"/>
-      <c r="AN55" s="61"/>
-      <c r="AO55" s="61"/>
-      <c r="AP55" s="61"/>
-      <c r="AQ55" s="61"/>
-      <c r="AR55" s="61"/>
-      <c r="AS55" s="61"/>
-      <c r="AT55" s="61"/>
-      <c r="AU55" s="61"/>
-      <c r="AV55" s="61"/>
-      <c r="AW55" s="61"/>
-      <c r="AX55" s="61"/>
-      <c r="AY55" s="61"/>
-      <c r="AZ55" s="61"/>
-    </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="AC56" s="47"/>
-      <c r="AD56" s="47"/>
-      <c r="AE56" s="47"/>
-      <c r="AF56" s="47"/>
-      <c r="AG56" s="47"/>
-      <c r="AH56" s="47"/>
-      <c r="AI56" s="47"/>
-      <c r="AJ56" s="47"/>
-      <c r="AK56" s="47"/>
-      <c r="AL56" s="47"/>
-      <c r="AM56" s="47"/>
-      <c r="AN56" s="47"/>
-      <c r="AO56" s="47"/>
-      <c r="AP56" s="47"/>
-      <c r="AQ56" s="47"/>
-      <c r="AR56" s="47"/>
-      <c r="AS56" s="47"/>
-      <c r="AT56" s="47"/>
-      <c r="AU56" s="47"/>
-      <c r="AV56" s="47"/>
-      <c r="AW56" s="47"/>
-      <c r="AX56" s="47"/>
-      <c r="AY56" s="47"/>
-      <c r="AZ56" s="47"/>
-    </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="AC57" s="47"/>
-      <c r="AD57" s="47"/>
-      <c r="AE57" s="47"/>
-      <c r="AF57" s="47"/>
-      <c r="AG57" s="47"/>
-      <c r="AH57" s="47"/>
-      <c r="AI57" s="47"/>
-      <c r="AJ57" s="47"/>
-      <c r="AK57" s="47"/>
-      <c r="AL57" s="47"/>
-      <c r="AM57" s="47"/>
-      <c r="AN57" s="47"/>
-      <c r="AO57" s="47"/>
-      <c r="AP57" s="47"/>
-      <c r="AQ57" s="47"/>
-      <c r="AR57" s="47"/>
-      <c r="AS57" s="47"/>
-      <c r="AT57" s="47"/>
-      <c r="AU57" s="47"/>
-      <c r="AV57" s="47"/>
-      <c r="AW57" s="47"/>
-      <c r="AX57" s="47"/>
-      <c r="AY57" s="47"/>
-      <c r="AZ57" s="47"/>
-    </row>
-    <row r="59" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="G59" s="49"/>
+      <c r="C55" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="V55" s="58"/>
+      <c r="W55" s="58"/>
+      <c r="X55" s="58"/>
+      <c r="Y55" s="58"/>
+      <c r="Z55" s="58"/>
+      <c r="AA55" s="58"/>
+      <c r="AB55" s="58"/>
+      <c r="AC55" s="58"/>
+      <c r="AD55" s="58"/>
+      <c r="AE55" s="58"/>
+      <c r="AF55" s="58"/>
+      <c r="AG55" s="58"/>
+      <c r="AH55" s="58"/>
+      <c r="AI55" s="58"/>
+      <c r="AJ55" s="58"/>
+      <c r="AK55" s="58"/>
+      <c r="AL55" s="58"/>
+      <c r="AM55" s="58"/>
+      <c r="AN55" s="58"/>
+      <c r="AO55" s="58"/>
+      <c r="AP55" s="58"/>
+      <c r="AQ55" s="58"/>
+      <c r="AR55" s="58"/>
+      <c r="AS55" s="58"/>
+      <c r="AT55" s="58"/>
+      <c r="AU55" s="58"/>
+      <c r="AV55" s="58"/>
+      <c r="AW55" s="58"/>
+      <c r="AX55" s="58"/>
+      <c r="AY55" s="58"/>
+      <c r="AZ55" s="58"/>
+      <c r="BA55" s="58"/>
+      <c r="BB55" s="58"/>
+      <c r="BC55" s="58"/>
+      <c r="BD55" s="58"/>
+      <c r="BE55" s="58"/>
+      <c r="BF55" s="58"/>
+      <c r="BG55" s="58"/>
+      <c r="BH55" s="58"/>
+      <c r="BI55" s="58"/>
+      <c r="BJ55" s="58"/>
+      <c r="BK55" s="58"/>
+      <c r="BL55" s="58"/>
+      <c r="BM55" s="58"/>
+    </row>
+    <row r="56" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="V56" s="57"/>
+      <c r="W56" s="57"/>
+      <c r="X56" s="57"/>
+      <c r="Y56" s="57"/>
+      <c r="Z56" s="57"/>
+      <c r="AA56" s="57"/>
+      <c r="AB56" s="57"/>
+      <c r="AC56" s="57"/>
+      <c r="AD56" s="57"/>
+      <c r="AE56" s="57"/>
+      <c r="AF56" s="57"/>
+      <c r="AG56" s="57"/>
+      <c r="AH56" s="57"/>
+      <c r="AI56" s="57"/>
+      <c r="AJ56" s="57"/>
+      <c r="AK56" s="57"/>
+      <c r="AL56" s="57"/>
+      <c r="AM56" s="57"/>
+      <c r="AN56" s="57"/>
+      <c r="AO56" s="57"/>
+      <c r="AP56" s="57"/>
+      <c r="AQ56" s="57"/>
+      <c r="AR56" s="57"/>
+      <c r="AS56" s="57"/>
+      <c r="AT56" s="57"/>
+      <c r="AU56" s="57"/>
+      <c r="AV56" s="57"/>
+      <c r="AW56" s="57"/>
+      <c r="AX56" s="57"/>
+      <c r="AY56" s="57"/>
+      <c r="AZ56" s="57"/>
+      <c r="BA56" s="57"/>
+      <c r="BB56" s="57"/>
+      <c r="BC56" s="57"/>
+      <c r="BD56" s="57"/>
+      <c r="BE56" s="57"/>
+      <c r="BF56" s="57"/>
+      <c r="BG56" s="57"/>
+      <c r="BH56" s="57"/>
+      <c r="BI56" s="57"/>
+      <c r="BJ56" s="57"/>
+      <c r="BK56" s="57"/>
+      <c r="BL56" s="57"/>
+      <c r="BM56" s="57"/>
+    </row>
+    <row r="57" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="V57" s="57"/>
+      <c r="W57" s="57"/>
+      <c r="X57" s="57"/>
+      <c r="Y57" s="57"/>
+      <c r="Z57" s="57"/>
+      <c r="AA57" s="57"/>
+      <c r="AB57" s="57"/>
+      <c r="AC57" s="57"/>
+      <c r="AD57" s="57"/>
+      <c r="AE57" s="57"/>
+      <c r="AF57" s="57"/>
+      <c r="AG57" s="57"/>
+      <c r="AH57" s="57"/>
+      <c r="AI57" s="57"/>
+      <c r="AJ57" s="57"/>
+      <c r="AK57" s="57"/>
+      <c r="AL57" s="57"/>
+      <c r="AM57" s="57"/>
+      <c r="AN57" s="57"/>
+      <c r="AO57" s="57"/>
+      <c r="AP57" s="57"/>
+      <c r="AQ57" s="57"/>
+      <c r="AR57" s="57"/>
+      <c r="AS57" s="57"/>
+      <c r="AT57" s="57"/>
+      <c r="AU57" s="57"/>
+      <c r="AV57" s="57"/>
+      <c r="AW57" s="57"/>
+      <c r="AX57" s="57"/>
+      <c r="AY57" s="57"/>
+      <c r="AZ57" s="57"/>
+      <c r="BA57" s="57"/>
+      <c r="BB57" s="57"/>
+      <c r="BC57" s="57"/>
+      <c r="BD57" s="57"/>
+      <c r="BE57" s="57"/>
+      <c r="BF57" s="57"/>
+      <c r="BG57" s="57"/>
+      <c r="BH57" s="57"/>
+      <c r="BI57" s="57"/>
+      <c r="BJ57" s="57"/>
+      <c r="BK57" s="57"/>
+      <c r="BL57" s="57"/>
+      <c r="BM57" s="57"/>
+    </row>
+    <row r="58" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="V58" s="57"/>
+      <c r="W58" s="57"/>
+      <c r="X58" s="57"/>
+      <c r="Y58" s="57"/>
+      <c r="Z58" s="57"/>
+      <c r="AA58" s="57"/>
+      <c r="AB58" s="57"/>
+      <c r="AC58" s="57"/>
+      <c r="AD58" s="57"/>
+      <c r="AE58" s="57"/>
+      <c r="AF58" s="57"/>
+      <c r="AG58" s="57"/>
+      <c r="AH58" s="57"/>
+      <c r="AI58" s="57"/>
+      <c r="AJ58" s="57"/>
+      <c r="AK58" s="57"/>
+      <c r="AL58" s="57"/>
+      <c r="AM58" s="57"/>
+      <c r="AN58" s="57"/>
+      <c r="AO58" s="57"/>
+      <c r="AP58" s="57"/>
+      <c r="AQ58" s="57"/>
+      <c r="AR58" s="57"/>
+      <c r="AS58" s="57"/>
+      <c r="AT58" s="57"/>
+      <c r="AU58" s="57"/>
+      <c r="AV58" s="57"/>
+      <c r="AW58" s="57"/>
+      <c r="AX58" s="57"/>
+      <c r="AY58" s="57"/>
+      <c r="AZ58" s="57"/>
+      <c r="BA58" s="57"/>
+      <c r="BB58" s="57"/>
+      <c r="BC58" s="57"/>
+      <c r="BD58" s="57"/>
+      <c r="BE58" s="57"/>
+      <c r="BF58" s="57"/>
+      <c r="BG58" s="57"/>
+      <c r="BH58" s="57"/>
+      <c r="BI58" s="57"/>
+      <c r="BJ58" s="57"/>
+      <c r="BK58" s="57"/>
+      <c r="BL58" s="57"/>
+      <c r="BM58" s="57"/>
+    </row>
+    <row r="59" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="G59" s="44"/>
+      <c r="V59" s="57"/>
+      <c r="W59" s="57"/>
+      <c r="X59" s="57"/>
+      <c r="Y59" s="57"/>
+      <c r="Z59" s="57"/>
+      <c r="AA59" s="57"/>
+      <c r="AB59" s="57"/>
+      <c r="AC59" s="57"/>
+      <c r="AD59" s="57"/>
+      <c r="AE59" s="57"/>
+      <c r="AF59" s="57"/>
+      <c r="AG59" s="57"/>
+      <c r="AH59" s="57"/>
+      <c r="AI59" s="57"/>
+      <c r="AJ59" s="57"/>
+      <c r="AK59" s="57"/>
+      <c r="AL59" s="57"/>
+      <c r="AM59" s="57"/>
+      <c r="AN59" s="57"/>
+      <c r="AO59" s="57"/>
+      <c r="AP59" s="57"/>
+      <c r="AQ59" s="57"/>
+      <c r="AR59" s="57"/>
+      <c r="AS59" s="57"/>
+      <c r="AT59" s="57"/>
+      <c r="AU59" s="57"/>
+      <c r="AV59" s="57"/>
+      <c r="AW59" s="57"/>
+      <c r="AX59" s="57"/>
+      <c r="AY59" s="57"/>
+      <c r="AZ59" s="57"/>
+      <c r="BA59" s="57"/>
+      <c r="BB59" s="57"/>
+      <c r="BC59" s="57"/>
+      <c r="BD59" s="57"/>
+      <c r="BE59" s="57"/>
+      <c r="BF59" s="57"/>
+      <c r="BG59" s="57"/>
+      <c r="BH59" s="57"/>
+      <c r="BI59" s="57"/>
+      <c r="BJ59" s="57"/>
+      <c r="BK59" s="57"/>
+      <c r="BL59" s="57"/>
+      <c r="BM59" s="57"/>
+    </row>
+    <row r="60" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="V60" s="57"/>
+      <c r="W60" s="57"/>
+      <c r="X60" s="57"/>
+      <c r="Y60" s="57"/>
+      <c r="Z60" s="57"/>
+      <c r="AA60" s="57"/>
+      <c r="AB60" s="57"/>
+      <c r="AC60" s="57"/>
+      <c r="AD60" s="57"/>
+      <c r="AE60" s="57"/>
+      <c r="AF60" s="57"/>
+      <c r="AG60" s="57"/>
+      <c r="AH60" s="57"/>
+      <c r="AI60" s="57"/>
+      <c r="AJ60" s="57"/>
+      <c r="AK60" s="57"/>
+      <c r="AL60" s="57"/>
+      <c r="AM60" s="57"/>
+      <c r="AN60" s="57"/>
+      <c r="AO60" s="57"/>
+      <c r="AP60" s="57"/>
+      <c r="AQ60" s="57"/>
+      <c r="AR60" s="57"/>
+      <c r="AS60" s="57"/>
+      <c r="AT60" s="57"/>
+      <c r="AU60" s="57"/>
+      <c r="AV60" s="57"/>
+      <c r="AW60" s="57"/>
+      <c r="AX60" s="57"/>
+      <c r="AY60" s="57"/>
+      <c r="AZ60" s="57"/>
+      <c r="BA60" s="57"/>
+      <c r="BB60" s="57"/>
+      <c r="BC60" s="57"/>
+      <c r="BD60" s="57"/>
+      <c r="BE60" s="57"/>
+      <c r="BF60" s="57"/>
+      <c r="BG60" s="57"/>
+      <c r="BH60" s="57"/>
+      <c r="BI60" s="57"/>
+      <c r="BJ60" s="57"/>
+      <c r="BK60" s="57"/>
+      <c r="BL60" s="57"/>
+      <c r="BM60" s="57"/>
+    </row>
+    <row r="61" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="V61" s="57"/>
+      <c r="W61" s="57"/>
+      <c r="X61" s="57"/>
+      <c r="Y61" s="57"/>
+      <c r="Z61" s="57"/>
+      <c r="AA61" s="57"/>
+      <c r="AB61" s="57"/>
+      <c r="AC61" s="57"/>
+      <c r="AD61" s="57"/>
+      <c r="AE61" s="57"/>
+      <c r="AF61" s="57"/>
+      <c r="AG61" s="57"/>
+      <c r="AH61" s="57"/>
+      <c r="AI61" s="57"/>
+      <c r="AJ61" s="57"/>
+      <c r="AK61" s="57"/>
+      <c r="AL61" s="57"/>
+      <c r="AM61" s="57"/>
+      <c r="AN61" s="57"/>
+      <c r="AO61" s="57"/>
+      <c r="AP61" s="57"/>
+      <c r="AQ61" s="57"/>
+      <c r="AR61" s="57"/>
+      <c r="AS61" s="57"/>
+      <c r="AT61" s="57"/>
+      <c r="AU61" s="57"/>
+      <c r="AV61" s="57"/>
+      <c r="AW61" s="57"/>
+      <c r="AX61" s="57"/>
+      <c r="AY61" s="57"/>
+      <c r="AZ61" s="57"/>
+      <c r="BA61" s="57"/>
+      <c r="BB61" s="57"/>
+      <c r="BC61" s="57"/>
+      <c r="BD61" s="57"/>
+      <c r="BE61" s="57"/>
+      <c r="BF61" s="57"/>
+      <c r="BG61" s="57"/>
+      <c r="BH61" s="57"/>
+      <c r="BI61" s="57"/>
+      <c r="BJ61" s="57"/>
+      <c r="BK61" s="57"/>
+      <c r="BL61" s="57"/>
+      <c r="BM61" s="57"/>
+    </row>
+    <row r="62" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="V62" s="57"/>
+      <c r="W62" s="57"/>
+      <c r="X62" s="57"/>
+      <c r="Y62" s="57"/>
+      <c r="Z62" s="57"/>
+      <c r="AA62" s="57"/>
+      <c r="AB62" s="57"/>
+      <c r="AC62" s="57"/>
+      <c r="AD62" s="57"/>
+      <c r="AE62" s="57"/>
+      <c r="AF62" s="57"/>
+      <c r="AG62" s="57"/>
+      <c r="AH62" s="57"/>
+      <c r="AI62" s="57"/>
+      <c r="AJ62" s="57"/>
+      <c r="AK62" s="57"/>
+      <c r="AL62" s="57"/>
+      <c r="AM62" s="57"/>
+      <c r="AN62" s="57"/>
+      <c r="AO62" s="57"/>
+      <c r="AP62" s="57"/>
+      <c r="AQ62" s="57"/>
+      <c r="AR62" s="57"/>
+      <c r="AS62" s="57"/>
+      <c r="AT62" s="57"/>
+      <c r="AU62" s="57"/>
+      <c r="AV62" s="57"/>
+      <c r="AW62" s="57"/>
+      <c r="AX62" s="57"/>
+      <c r="AY62" s="57"/>
+      <c r="AZ62" s="57"/>
+      <c r="BA62" s="57"/>
+      <c r="BB62" s="57"/>
+      <c r="BC62" s="57"/>
+      <c r="BD62" s="57"/>
+      <c r="BE62" s="57"/>
+      <c r="BF62" s="57"/>
+      <c r="BG62" s="57"/>
+      <c r="BH62" s="57"/>
+      <c r="BI62" s="57"/>
+      <c r="BJ62" s="57"/>
+      <c r="BK62" s="57"/>
+      <c r="BL62" s="57"/>
+      <c r="BM62" s="57"/>
+    </row>
+    <row r="63" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="V63" s="57"/>
+      <c r="W63" s="57"/>
+      <c r="X63" s="57"/>
+      <c r="Y63" s="57"/>
+      <c r="Z63" s="57"/>
+      <c r="AA63" s="57"/>
+      <c r="AB63" s="57"/>
+      <c r="AC63" s="57"/>
+      <c r="AD63" s="57"/>
+      <c r="AE63" s="57"/>
+      <c r="AF63" s="57"/>
+      <c r="AG63" s="57"/>
+      <c r="AH63" s="57"/>
+      <c r="AI63" s="57"/>
+      <c r="AJ63" s="57"/>
+      <c r="AK63" s="57"/>
+      <c r="AL63" s="57"/>
+      <c r="AM63" s="57"/>
+      <c r="AN63" s="57"/>
+      <c r="AO63" s="57"/>
+      <c r="AP63" s="57"/>
+      <c r="AQ63" s="57"/>
+      <c r="AR63" s="57"/>
+      <c r="AS63" s="57"/>
+      <c r="AT63" s="57"/>
+      <c r="AU63" s="57"/>
+      <c r="AV63" s="57"/>
+      <c r="AW63" s="57"/>
+      <c r="AX63" s="57"/>
+      <c r="AY63" s="57"/>
+      <c r="AZ63" s="57"/>
+      <c r="BA63" s="57"/>
+      <c r="BB63" s="57"/>
+      <c r="BC63" s="57"/>
+      <c r="BD63" s="57"/>
+      <c r="BE63" s="57"/>
+      <c r="BF63" s="57"/>
+      <c r="BG63" s="57"/>
+      <c r="BH63" s="57"/>
+      <c r="BI63" s="57"/>
+      <c r="BJ63" s="57"/>
+      <c r="BK63" s="57"/>
+      <c r="BL63" s="57"/>
+      <c r="BM63" s="57"/>
+    </row>
+    <row r="64" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="V64" s="57"/>
+      <c r="W64" s="57"/>
+      <c r="X64" s="57"/>
+      <c r="Y64" s="57"/>
+      <c r="Z64" s="57"/>
+      <c r="AA64" s="57"/>
+      <c r="AB64" s="57"/>
+      <c r="AC64" s="57"/>
+      <c r="AD64" s="57"/>
+      <c r="AE64" s="57"/>
+      <c r="AF64" s="57"/>
+      <c r="AG64" s="57"/>
+      <c r="AH64" s="57"/>
+      <c r="AI64" s="57"/>
+      <c r="AJ64" s="57"/>
+      <c r="AK64" s="57"/>
+      <c r="AL64" s="57"/>
+      <c r="AM64" s="57"/>
+      <c r="AN64" s="57"/>
+      <c r="AO64" s="57"/>
+      <c r="AP64" s="57"/>
+      <c r="AQ64" s="57"/>
+      <c r="AR64" s="57"/>
+      <c r="AS64" s="57"/>
+      <c r="AT64" s="57"/>
+      <c r="AU64" s="57"/>
+      <c r="AV64" s="57"/>
+      <c r="AW64" s="57"/>
+      <c r="AX64" s="57"/>
+      <c r="AY64" s="57"/>
+      <c r="AZ64" s="57"/>
+      <c r="BA64" s="57"/>
+      <c r="BB64" s="57"/>
+      <c r="BC64" s="57"/>
+      <c r="BD64" s="57"/>
+      <c r="BE64" s="57"/>
+      <c r="BF64" s="57"/>
+      <c r="BG64" s="57"/>
+      <c r="BH64" s="57"/>
+      <c r="BI64" s="57"/>
+      <c r="BJ64" s="57"/>
+      <c r="BK64" s="57"/>
+      <c r="BL64" s="57"/>
+      <c r="BM64" s="57"/>
+    </row>
+    <row r="65" spans="22:65" x14ac:dyDescent="0.35">
+      <c r="V65" s="57"/>
+      <c r="W65" s="57"/>
+      <c r="X65" s="57"/>
+      <c r="Y65" s="57"/>
+      <c r="Z65" s="57"/>
+      <c r="AA65" s="57"/>
+      <c r="AB65" s="57"/>
+      <c r="AC65" s="57"/>
+      <c r="AD65" s="57"/>
+      <c r="AE65" s="57"/>
+      <c r="AF65" s="57"/>
+      <c r="AG65" s="57"/>
+      <c r="AH65" s="57"/>
+      <c r="AI65" s="57"/>
+      <c r="AJ65" s="57"/>
+      <c r="AK65" s="57"/>
+      <c r="AL65" s="57"/>
+      <c r="AM65" s="57"/>
+      <c r="AN65" s="57"/>
+      <c r="AO65" s="57"/>
+      <c r="AP65" s="57"/>
+      <c r="AQ65" s="57"/>
+      <c r="AR65" s="57"/>
+      <c r="AS65" s="57"/>
+      <c r="AT65" s="57"/>
+      <c r="AU65" s="57"/>
+      <c r="AV65" s="57"/>
+      <c r="AW65" s="57"/>
+      <c r="AX65" s="57"/>
+      <c r="AY65" s="57"/>
+      <c r="AZ65" s="57"/>
+      <c r="BA65" s="57"/>
+      <c r="BB65" s="57"/>
+      <c r="BC65" s="57"/>
+      <c r="BD65" s="57"/>
+      <c r="BE65" s="57"/>
+      <c r="BF65" s="57"/>
+      <c r="BG65" s="57"/>
+      <c r="BH65" s="57"/>
+      <c r="BI65" s="57"/>
+      <c r="BJ65" s="57"/>
+      <c r="BK65" s="57"/>
+      <c r="BL65" s="57"/>
+      <c r="BM65" s="57"/>
+    </row>
+    <row r="66" spans="22:65" x14ac:dyDescent="0.35">
+      <c r="V66" s="57"/>
+      <c r="W66" s="57"/>
+      <c r="X66" s="57"/>
+      <c r="Y66" s="57"/>
+      <c r="Z66" s="57"/>
+      <c r="AA66" s="57"/>
+      <c r="AB66" s="57"/>
+      <c r="AC66" s="57"/>
+      <c r="AD66" s="57"/>
+      <c r="AE66" s="57"/>
+      <c r="AF66" s="57"/>
+      <c r="AG66" s="57"/>
+      <c r="AH66" s="57"/>
+      <c r="AI66" s="57"/>
+      <c r="AJ66" s="57"/>
+      <c r="AK66" s="57"/>
+      <c r="AL66" s="57"/>
+      <c r="AM66" s="57"/>
+      <c r="AN66" s="57"/>
+      <c r="AO66" s="57"/>
+      <c r="AP66" s="57"/>
+      <c r="AQ66" s="57"/>
+      <c r="AR66" s="57"/>
+      <c r="AS66" s="57"/>
+      <c r="AT66" s="57"/>
+      <c r="AU66" s="57"/>
+      <c r="AV66" s="57"/>
+      <c r="AW66" s="57"/>
+      <c r="AX66" s="57"/>
+      <c r="AY66" s="57"/>
+      <c r="AZ66" s="57"/>
+      <c r="BA66" s="57"/>
+      <c r="BB66" s="57"/>
+      <c r="BC66" s="57"/>
+      <c r="BD66" s="57"/>
+      <c r="BE66" s="57"/>
+      <c r="BF66" s="57"/>
+      <c r="BG66" s="57"/>
+      <c r="BH66" s="57"/>
+      <c r="BI66" s="57"/>
+      <c r="BJ66" s="57"/>
+      <c r="BK66" s="57"/>
+      <c r="BL66" s="57"/>
+      <c r="BM66" s="57"/>
+    </row>
+    <row r="67" spans="22:65" x14ac:dyDescent="0.35">
+      <c r="V67" s="57"/>
+      <c r="W67" s="57"/>
+      <c r="X67" s="57"/>
+      <c r="Y67" s="57"/>
+      <c r="Z67" s="57"/>
+      <c r="AA67" s="57"/>
+      <c r="AB67" s="57"/>
+      <c r="AC67" s="57"/>
+      <c r="AD67" s="57"/>
+      <c r="AE67" s="57"/>
+      <c r="AF67" s="57"/>
+      <c r="AG67" s="57"/>
+      <c r="AH67" s="57"/>
+      <c r="AI67" s="57"/>
+      <c r="AJ67" s="57"/>
+      <c r="AK67" s="57"/>
+      <c r="AL67" s="57"/>
+      <c r="AM67" s="57"/>
+      <c r="AN67" s="57"/>
+      <c r="AO67" s="57"/>
+      <c r="AP67" s="57"/>
+      <c r="AQ67" s="57"/>
+      <c r="AR67" s="57"/>
+      <c r="AS67" s="57"/>
+      <c r="AT67" s="57"/>
+      <c r="AU67" s="57"/>
+      <c r="AV67" s="57"/>
+      <c r="AW67" s="57"/>
+      <c r="AX67" s="57"/>
+      <c r="AY67" s="57"/>
+      <c r="AZ67" s="57"/>
+      <c r="BA67" s="57"/>
+      <c r="BB67" s="57"/>
+      <c r="BC67" s="57"/>
+      <c r="BD67" s="57"/>
+      <c r="BE67" s="57"/>
+      <c r="BF67" s="57"/>
+      <c r="BG67" s="57"/>
+      <c r="BH67" s="57"/>
+      <c r="BI67" s="57"/>
+      <c r="BJ67" s="57"/>
+      <c r="BK67" s="57"/>
+      <c r="BL67" s="57"/>
+      <c r="BM67" s="57"/>
+    </row>
+    <row r="68" spans="22:65" x14ac:dyDescent="0.35">
+      <c r="V68" s="57"/>
+      <c r="W68" s="57"/>
+      <c r="X68" s="57"/>
+      <c r="Y68" s="57"/>
+      <c r="Z68" s="57"/>
+      <c r="AA68" s="57"/>
+      <c r="AB68" s="57"/>
+      <c r="AC68" s="57"/>
+      <c r="AD68" s="57"/>
+      <c r="AE68" s="57"/>
+      <c r="AF68" s="57"/>
+      <c r="AG68" s="57"/>
+      <c r="AH68" s="57"/>
+      <c r="AI68" s="57"/>
+      <c r="AJ68" s="57"/>
+      <c r="AK68" s="57"/>
+      <c r="AL68" s="57"/>
+      <c r="AM68" s="57"/>
+      <c r="AN68" s="57"/>
+      <c r="AO68" s="57"/>
+      <c r="AP68" s="57"/>
+      <c r="AQ68" s="57"/>
+      <c r="AR68" s="57"/>
+      <c r="AS68" s="57"/>
+      <c r="AT68" s="57"/>
+      <c r="AU68" s="57"/>
+      <c r="AV68" s="57"/>
+      <c r="AW68" s="57"/>
+      <c r="AX68" s="57"/>
+      <c r="AY68" s="57"/>
+      <c r="AZ68" s="57"/>
+      <c r="BA68" s="57"/>
+      <c r="BB68" s="57"/>
+      <c r="BC68" s="57"/>
+      <c r="BD68" s="57"/>
+      <c r="BE68" s="57"/>
+      <c r="BF68" s="57"/>
+      <c r="BG68" s="57"/>
+      <c r="BH68" s="57"/>
+      <c r="BI68" s="57"/>
+      <c r="BJ68" s="57"/>
+      <c r="BK68" s="57"/>
+      <c r="BL68" s="57"/>
+      <c r="BM68" s="57"/>
+    </row>
+    <row r="69" spans="22:65" x14ac:dyDescent="0.35">
+      <c r="V69" s="57"/>
+      <c r="W69" s="57"/>
+      <c r="X69" s="57"/>
+      <c r="Y69" s="57"/>
+      <c r="Z69" s="57"/>
+      <c r="AA69" s="57"/>
+      <c r="AB69" s="57"/>
+      <c r="AC69" s="57"/>
+      <c r="AD69" s="57"/>
+      <c r="AE69" s="57"/>
+      <c r="AF69" s="57"/>
+      <c r="AG69" s="57"/>
+      <c r="AH69" s="57"/>
+      <c r="AI69" s="57"/>
+      <c r="AJ69" s="57"/>
+      <c r="AK69" s="57"/>
+      <c r="AL69" s="57"/>
+      <c r="AM69" s="57"/>
+      <c r="AN69" s="57"/>
+      <c r="AO69" s="57"/>
+      <c r="AP69" s="57"/>
+      <c r="AQ69" s="57"/>
+      <c r="AR69" s="57"/>
+      <c r="AS69" s="57"/>
+      <c r="AT69" s="57"/>
+      <c r="AU69" s="57"/>
+      <c r="AV69" s="57"/>
+      <c r="AW69" s="57"/>
+      <c r="AX69" s="57"/>
+      <c r="AY69" s="57"/>
+      <c r="AZ69" s="57"/>
+      <c r="BA69" s="57"/>
+      <c r="BB69" s="57"/>
+      <c r="BC69" s="57"/>
+      <c r="BD69" s="57"/>
+      <c r="BE69" s="57"/>
+      <c r="BF69" s="57"/>
+      <c r="BG69" s="57"/>
+      <c r="BH69" s="57"/>
+      <c r="BI69" s="57"/>
+      <c r="BJ69" s="57"/>
+      <c r="BK69" s="57"/>
+      <c r="BL69" s="57"/>
+      <c r="BM69" s="57"/>
+    </row>
+    <row r="70" spans="22:65" x14ac:dyDescent="0.35">
+      <c r="V70" s="57"/>
+      <c r="W70" s="57"/>
+      <c r="X70" s="57"/>
+      <c r="Y70" s="57"/>
+      <c r="Z70" s="57"/>
+      <c r="AA70" s="57"/>
+      <c r="AB70" s="57"/>
+      <c r="AC70" s="57"/>
+      <c r="AD70" s="57"/>
+      <c r="AE70" s="57"/>
+      <c r="AF70" s="57"/>
+      <c r="AG70" s="57"/>
+      <c r="AH70" s="57"/>
+      <c r="AI70" s="57"/>
+      <c r="AJ70" s="57"/>
+      <c r="AK70" s="57"/>
+      <c r="AL70" s="57"/>
+      <c r="AM70" s="57"/>
+      <c r="AN70" s="57"/>
+      <c r="AO70" s="57"/>
+      <c r="AP70" s="57"/>
+      <c r="AQ70" s="57"/>
+      <c r="AR70" s="57"/>
+      <c r="AS70" s="57"/>
+      <c r="AT70" s="57"/>
+      <c r="AU70" s="57"/>
+      <c r="AV70" s="57"/>
+      <c r="AW70" s="57"/>
+      <c r="AX70" s="57"/>
+      <c r="AY70" s="57"/>
+      <c r="AZ70" s="57"/>
+      <c r="BA70" s="57"/>
+      <c r="BB70" s="57"/>
+      <c r="BC70" s="57"/>
+      <c r="BD70" s="57"/>
+      <c r="BE70" s="57"/>
+      <c r="BF70" s="57"/>
+      <c r="BG70" s="57"/>
+      <c r="BH70" s="57"/>
+      <c r="BI70" s="57"/>
+      <c r="BJ70" s="57"/>
+      <c r="BK70" s="57"/>
+      <c r="BL70" s="57"/>
+      <c r="BM70" s="57"/>
+    </row>
+    <row r="71" spans="22:65" x14ac:dyDescent="0.35">
+      <c r="V71" s="57"/>
+      <c r="W71" s="57"/>
+      <c r="X71" s="57"/>
+      <c r="Y71" s="57"/>
+      <c r="Z71" s="57"/>
+      <c r="AA71" s="57"/>
+      <c r="AB71" s="57"/>
+      <c r="AC71" s="57"/>
+      <c r="AD71" s="57"/>
+      <c r="AE71" s="57"/>
+      <c r="AF71" s="57"/>
+      <c r="AG71" s="57"/>
+      <c r="AH71" s="57"/>
+      <c r="AI71" s="57"/>
+      <c r="AJ71" s="57"/>
+      <c r="AK71" s="57"/>
+      <c r="AL71" s="57"/>
+      <c r="AM71" s="57"/>
+      <c r="AN71" s="57"/>
+      <c r="AO71" s="57"/>
+      <c r="AP71" s="57"/>
+      <c r="AQ71" s="57"/>
+      <c r="AR71" s="57"/>
+      <c r="AS71" s="57"/>
+      <c r="AT71" s="57"/>
+      <c r="AU71" s="57"/>
+      <c r="AV71" s="57"/>
+      <c r="AW71" s="57"/>
+      <c r="AX71" s="57"/>
+      <c r="AY71" s="57"/>
+      <c r="AZ71" s="57"/>
+      <c r="BA71" s="57"/>
+      <c r="BB71" s="57"/>
+      <c r="BC71" s="57"/>
+      <c r="BD71" s="57"/>
+      <c r="BE71" s="57"/>
+      <c r="BF71" s="57"/>
+      <c r="BG71" s="57"/>
+      <c r="BH71" s="57"/>
+      <c r="BI71" s="57"/>
+      <c r="BJ71" s="57"/>
+      <c r="BK71" s="57"/>
+      <c r="BL71" s="57"/>
+      <c r="BM71" s="57"/>
+    </row>
+    <row r="72" spans="22:65" x14ac:dyDescent="0.35">
+      <c r="V72" s="57"/>
+      <c r="W72" s="57"/>
+      <c r="X72" s="57"/>
+      <c r="Y72" s="57"/>
+      <c r="Z72" s="57"/>
+      <c r="AA72" s="57"/>
+      <c r="AB72" s="57"/>
+      <c r="AC72" s="57"/>
+      <c r="AD72" s="57"/>
+      <c r="AE72" s="57"/>
+      <c r="AF72" s="57"/>
+      <c r="AG72" s="57"/>
+      <c r="AH72" s="57"/>
+      <c r="AI72" s="57"/>
+      <c r="AJ72" s="57"/>
+      <c r="AK72" s="57"/>
+      <c r="AL72" s="57"/>
+      <c r="AM72" s="57"/>
+      <c r="AN72" s="57"/>
+      <c r="AO72" s="57"/>
+      <c r="AP72" s="57"/>
+      <c r="AQ72" s="57"/>
+      <c r="AR72" s="57"/>
+      <c r="AS72" s="57"/>
+      <c r="AT72" s="57"/>
+      <c r="AU72" s="57"/>
+      <c r="AV72" s="57"/>
+      <c r="AW72" s="57"/>
+      <c r="AX72" s="57"/>
+      <c r="AY72" s="57"/>
+      <c r="AZ72" s="57"/>
+      <c r="BA72" s="57"/>
+      <c r="BB72" s="57"/>
+      <c r="BC72" s="57"/>
+      <c r="BD72" s="57"/>
+      <c r="BE72" s="57"/>
+      <c r="BF72" s="57"/>
+      <c r="BG72" s="57"/>
+      <c r="BH72" s="57"/>
+      <c r="BI72" s="57"/>
+      <c r="BJ72" s="57"/>
+      <c r="BK72" s="57"/>
+      <c r="BL72" s="57"/>
+      <c r="BM72" s="57"/>
+    </row>
+    <row r="73" spans="22:65" x14ac:dyDescent="0.35">
+      <c r="V73" s="57"/>
+      <c r="W73" s="57"/>
+      <c r="X73" s="57"/>
+      <c r="Y73" s="57"/>
+      <c r="Z73" s="57"/>
+      <c r="AA73" s="57"/>
+      <c r="AB73" s="57"/>
+      <c r="AC73" s="57"/>
+      <c r="AD73" s="57"/>
+      <c r="AE73" s="57"/>
+      <c r="AF73" s="57"/>
+      <c r="AG73" s="57"/>
+      <c r="AH73" s="57"/>
+      <c r="AI73" s="57"/>
+      <c r="AJ73" s="57"/>
+      <c r="AK73" s="57"/>
+      <c r="AL73" s="57"/>
+      <c r="AM73" s="57"/>
+      <c r="AN73" s="57"/>
+      <c r="AO73" s="57"/>
+      <c r="AP73" s="57"/>
+      <c r="AQ73" s="57"/>
+      <c r="AR73" s="57"/>
+      <c r="AS73" s="57"/>
+      <c r="AT73" s="57"/>
+      <c r="AU73" s="57"/>
+      <c r="AV73" s="57"/>
+      <c r="AW73" s="57"/>
+      <c r="AX73" s="57"/>
+      <c r="AY73" s="57"/>
+      <c r="AZ73" s="57"/>
+      <c r="BA73" s="57"/>
+      <c r="BB73" s="57"/>
+      <c r="BC73" s="57"/>
+      <c r="BD73" s="57"/>
+      <c r="BE73" s="57"/>
+      <c r="BF73" s="57"/>
+      <c r="BG73" s="57"/>
+      <c r="BH73" s="57"/>
+      <c r="BI73" s="57"/>
+      <c r="BJ73" s="57"/>
+      <c r="BK73" s="57"/>
+      <c r="BL73" s="57"/>
+      <c r="BM73" s="57"/>
+    </row>
+    <row r="74" spans="22:65" x14ac:dyDescent="0.35">
+      <c r="V74" s="57"/>
+      <c r="W74" s="57"/>
+      <c r="X74" s="57"/>
+      <c r="Y74" s="57"/>
+      <c r="Z74" s="57"/>
+      <c r="AA74" s="57"/>
+      <c r="AB74" s="57"/>
+      <c r="AC74" s="57"/>
+      <c r="AD74" s="57"/>
+      <c r="AE74" s="57"/>
+      <c r="AF74" s="57"/>
+      <c r="AG74" s="57"/>
+      <c r="AH74" s="57"/>
+      <c r="AI74" s="57"/>
+      <c r="AJ74" s="57"/>
+      <c r="AK74" s="57"/>
+      <c r="AL74" s="57"/>
+      <c r="AM74" s="57"/>
+      <c r="AN74" s="57"/>
+      <c r="AO74" s="57"/>
+      <c r="AP74" s="57"/>
+      <c r="AQ74" s="57"/>
+      <c r="AR74" s="57"/>
+      <c r="AS74" s="57"/>
+      <c r="AT74" s="57"/>
+      <c r="AU74" s="57"/>
+      <c r="AV74" s="57"/>
+      <c r="AW74" s="57"/>
+      <c r="AX74" s="57"/>
+      <c r="AY74" s="57"/>
+      <c r="AZ74" s="57"/>
+      <c r="BA74" s="57"/>
+      <c r="BB74" s="57"/>
+      <c r="BC74" s="57"/>
+      <c r="BD74" s="57"/>
+      <c r="BE74" s="57"/>
+      <c r="BF74" s="57"/>
+      <c r="BG74" s="57"/>
+      <c r="BH74" s="57"/>
+      <c r="BI74" s="57"/>
+      <c r="BJ74" s="57"/>
+      <c r="BK74" s="57"/>
+      <c r="BL74" s="57"/>
+      <c r="BM74" s="57"/>
+    </row>
+    <row r="75" spans="22:65" x14ac:dyDescent="0.35">
+      <c r="V75" s="57"/>
+      <c r="W75" s="57"/>
+      <c r="X75" s="57"/>
+      <c r="Y75" s="57"/>
+      <c r="Z75" s="57"/>
+      <c r="AA75" s="57"/>
+      <c r="AB75" s="57"/>
+      <c r="AC75" s="57"/>
+      <c r="AD75" s="57"/>
+      <c r="AE75" s="57"/>
+      <c r="AF75" s="57"/>
+      <c r="AG75" s="57"/>
+      <c r="AH75" s="57"/>
+      <c r="AI75" s="57"/>
+      <c r="AJ75" s="57"/>
+      <c r="AK75" s="57"/>
+      <c r="AL75" s="57"/>
+      <c r="AM75" s="57"/>
+      <c r="AN75" s="57"/>
+      <c r="AO75" s="57"/>
+      <c r="AP75" s="57"/>
+      <c r="AQ75" s="57"/>
+      <c r="AR75" s="57"/>
+      <c r="AS75" s="57"/>
+      <c r="AT75" s="57"/>
+      <c r="AU75" s="57"/>
+      <c r="AV75" s="57"/>
+      <c r="AW75" s="57"/>
+      <c r="AX75" s="57"/>
+      <c r="AY75" s="57"/>
+      <c r="AZ75" s="57"/>
+      <c r="BA75" s="57"/>
+      <c r="BB75" s="57"/>
+      <c r="BC75" s="57"/>
+      <c r="BD75" s="57"/>
+      <c r="BE75" s="57"/>
+      <c r="BF75" s="57"/>
+      <c r="BG75" s="57"/>
+      <c r="BH75" s="57"/>
+      <c r="BI75" s="57"/>
+      <c r="BJ75" s="57"/>
+      <c r="BK75" s="57"/>
+      <c r="BL75" s="57"/>
+      <c r="BM75" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4649,8 +5538,8 @@
     <col min="6" max="6" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4702,8 +5591,8 @@
     <col min="6" max="6" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
     </row>

--- a/bug finder.xlsx
+++ b/bug finder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Tech demo platformer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10743E0B-AA03-435D-BBE4-9B68B140DD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C0C1AE-8497-4531-8B4D-E8CC9DD2DC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="21000" xr2:uid="{9356C0CF-D086-4FEC-A8F0-753CF5CB4E4B}"/>
   </bookViews>
@@ -448,7 +448,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -554,6 +554,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,7 +682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -811,9 +817,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -826,6 +829,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -841,16 +847,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1170,13 +1167,13 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:BM75"/>
+  <dimension ref="A1:AZ59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AV89" sqref="AV89"/>
+      <selection pane="bottomRight" activeCell="AO27" sqref="AO27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.35"/>
@@ -2440,7 +2437,7 @@
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="24"/>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="46" t="s">
         <v>86</v>
       </c>
       <c r="F20" s="24" t="s">
@@ -2619,7 +2616,7 @@
         <v>25</v>
       </c>
       <c r="C23" s="20"/>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="24" t="s">
         <v>67</v>
       </c>
       <c r="E23" s="24"/>
@@ -2906,17 +2903,17 @@
       <c r="D27" s="24"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="28" t="s">
+      <c r="G27" s="24"/>
+      <c r="H27" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="28" t="s">
+      <c r="I27" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="J27" s="28" t="s">
+      <c r="J27" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="K27" s="28" t="s">
+      <c r="K27" s="24" t="s">
         <v>87</v>
       </c>
       <c r="L27" s="20"/>
@@ -2927,7 +2924,7 @@
       <c r="Q27" s="20"/>
       <c r="R27" s="20"/>
       <c r="S27" s="20"/>
-      <c r="T27" s="28" t="s">
+      <c r="T27" s="24" t="s">
         <v>78</v>
       </c>
       <c r="U27" s="20"/>
@@ -3927,7 +3924,7 @@
       <c r="AN44" s="20"/>
       <c r="AO44" s="20"/>
       <c r="AP44" s="20"/>
-      <c r="AQ44" s="59" t="s">
+      <c r="AQ44" s="50" t="s">
         <v>72</v>
       </c>
       <c r="AR44" s="20"/>
@@ -4158,13 +4155,13 @@
       <c r="AK48" s="20"/>
       <c r="AL48" s="20"/>
       <c r="AM48" s="24"/>
-      <c r="AN48" s="46" t="s">
+      <c r="AN48" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="AO48" s="46" t="s">
+      <c r="AO48" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="AP48" s="20"/>
+      <c r="AP48" s="56"/>
       <c r="AQ48" s="20"/>
       <c r="AR48" s="20"/>
       <c r="AS48" s="20"/>
@@ -4176,7 +4173,7 @@
       <c r="AY48" s="21"/>
       <c r="AZ48" s="21"/>
     </row>
-    <row r="49" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A49" s="39" t="s">
         <v>54</v>
       </c>
@@ -4250,7 +4247,7 @@
       <c r="AY49" s="21"/>
       <c r="AZ49" s="21"/>
     </row>
-    <row r="50" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A50" s="39"/>
       <c r="B50" s="40" t="s">
         <v>56</v>
@@ -4306,7 +4303,7 @@
       <c r="AY50" s="21"/>
       <c r="AZ50" s="21"/>
     </row>
-    <row r="51" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A51" s="39"/>
       <c r="B51" s="40" t="s">
         <v>73</v>
@@ -4378,7 +4375,7 @@
       <c r="AY51" s="20"/>
       <c r="AZ51" s="21"/>
     </row>
-    <row r="52" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A52" s="39"/>
       <c r="B52" s="40" t="s">
         <v>58</v>
@@ -4404,12 +4401,12 @@
       <c r="S52" s="42"/>
       <c r="T52" s="42"/>
       <c r="U52" s="42"/>
-      <c r="V52" s="56"/>
-      <c r="W52" s="56"/>
-      <c r="X52" s="56"/>
-      <c r="Y52" s="56"/>
-      <c r="Z52" s="56"/>
-      <c r="AA52" s="56"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="20"/>
+      <c r="X52" s="20"/>
+      <c r="Y52" s="20"/>
+      <c r="Z52" s="20"/>
+      <c r="AA52" s="20"/>
       <c r="AB52" s="20"/>
       <c r="AC52" s="20"/>
       <c r="AD52" s="20"/>
@@ -4436,1079 +4433,71 @@
       <c r="AY52" s="24"/>
       <c r="AZ52" s="24"/>
     </row>
-    <row r="53" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="V53" s="57"/>
-      <c r="W53" s="57"/>
-      <c r="X53" s="57"/>
-      <c r="Y53" s="57"/>
-      <c r="Z53" s="57"/>
-      <c r="AA53" s="57"/>
-      <c r="AB53" s="57"/>
-      <c r="AC53" s="57"/>
-      <c r="AD53" s="57"/>
-      <c r="AE53" s="56"/>
-      <c r="AF53" s="56"/>
-      <c r="AG53" s="56"/>
-      <c r="AH53" s="56"/>
-      <c r="AI53" s="56"/>
-      <c r="AJ53" s="56"/>
-      <c r="AK53" s="56"/>
-      <c r="AL53" s="56"/>
-      <c r="AM53" s="56"/>
-      <c r="AN53" s="56"/>
-      <c r="AO53" s="56"/>
-      <c r="AP53" s="56"/>
-      <c r="AQ53" s="56"/>
-      <c r="AR53" s="56"/>
-      <c r="AS53" s="56"/>
-      <c r="AT53" s="56"/>
-      <c r="AU53" s="56"/>
-      <c r="AV53" s="56"/>
-      <c r="AW53" s="56"/>
-      <c r="AX53" s="56"/>
-      <c r="AY53" s="56"/>
-      <c r="AZ53" s="57"/>
-      <c r="BA53" s="57"/>
-      <c r="BB53" s="57"/>
-      <c r="BC53" s="57"/>
-      <c r="BD53" s="57"/>
-      <c r="BE53" s="57"/>
-      <c r="BF53" s="57"/>
-      <c r="BG53" s="57"/>
-      <c r="BH53" s="57"/>
-      <c r="BI53" s="57"/>
-      <c r="BJ53" s="57"/>
-      <c r="BK53" s="57"/>
-      <c r="BL53" s="57"/>
-      <c r="BM53" s="57"/>
-    </row>
-    <row r="54" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="AE53" s="20"/>
+      <c r="AF53" s="20"/>
+      <c r="AG53" s="20"/>
+      <c r="AH53" s="20"/>
+      <c r="AI53" s="20"/>
+      <c r="AJ53" s="20"/>
+      <c r="AK53" s="20"/>
+      <c r="AL53" s="20"/>
+      <c r="AM53" s="20"/>
+      <c r="AN53" s="20"/>
+      <c r="AO53" s="20"/>
+      <c r="AP53" s="20"/>
+      <c r="AQ53" s="20"/>
+      <c r="AR53" s="20"/>
+      <c r="AS53" s="20"/>
+      <c r="AT53" s="20"/>
+      <c r="AU53" s="20"/>
+      <c r="AV53" s="20"/>
+      <c r="AW53" s="20"/>
+      <c r="AX53" s="20"/>
+      <c r="AY53" s="20"/>
+    </row>
+    <row r="54" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A54" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="V54" s="57"/>
-      <c r="W54" s="57"/>
-      <c r="X54" s="57"/>
-      <c r="Y54" s="57"/>
-      <c r="Z54" s="57"/>
-      <c r="AA54" s="57"/>
-      <c r="AB54" s="57"/>
-      <c r="AC54" s="57"/>
-      <c r="AD54" s="57"/>
-      <c r="AE54" s="56"/>
-      <c r="AF54" s="56"/>
-      <c r="AG54" s="56"/>
-      <c r="AH54" s="56"/>
-      <c r="AI54" s="56"/>
-      <c r="AJ54" s="56"/>
-      <c r="AK54" s="56"/>
-      <c r="AL54" s="56"/>
-      <c r="AM54" s="56"/>
-      <c r="AN54" s="56"/>
-      <c r="AO54" s="56"/>
-      <c r="AP54" s="56"/>
-      <c r="AQ54" s="56"/>
-      <c r="AR54" s="56"/>
-      <c r="AS54" s="56"/>
-      <c r="AT54" s="56"/>
-      <c r="AU54" s="56"/>
-      <c r="AV54" s="56"/>
-      <c r="AW54" s="56"/>
-      <c r="AX54" s="56"/>
-      <c r="AY54" s="56"/>
-      <c r="AZ54" s="57"/>
-      <c r="BA54" s="57"/>
-      <c r="BB54" s="57"/>
-      <c r="BC54" s="57"/>
-      <c r="BD54" s="57"/>
-      <c r="BE54" s="57"/>
-      <c r="BF54" s="57"/>
-      <c r="BG54" s="57"/>
-      <c r="BH54" s="57"/>
-      <c r="BI54" s="57"/>
-      <c r="BJ54" s="57"/>
-      <c r="BK54" s="57"/>
-      <c r="BL54" s="57"/>
-      <c r="BM54" s="57"/>
-    </row>
-    <row r="55" spans="1:65" s="50" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="48" t="s">
+      <c r="AE54" s="20"/>
+      <c r="AF54" s="20"/>
+      <c r="AG54" s="20"/>
+      <c r="AH54" s="20"/>
+      <c r="AI54" s="20"/>
+      <c r="AJ54" s="20"/>
+      <c r="AK54" s="20"/>
+      <c r="AL54" s="20"/>
+      <c r="AM54" s="20"/>
+      <c r="AN54" s="20"/>
+      <c r="AO54" s="20"/>
+      <c r="AP54" s="20"/>
+      <c r="AQ54" s="20"/>
+      <c r="AR54" s="20"/>
+      <c r="AS54" s="20"/>
+      <c r="AT54" s="20"/>
+      <c r="AU54" s="20"/>
+      <c r="AV54" s="20"/>
+      <c r="AW54" s="20"/>
+      <c r="AX54" s="20"/>
+      <c r="AY54" s="20"/>
+    </row>
+    <row r="55" spans="1:52" s="49" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="B55" s="49" t="s">
+      <c r="B55" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="48" t="s">
+      <c r="C55" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D55" s="48" t="s">
+      <c r="D55" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="V55" s="58"/>
-      <c r="W55" s="58"/>
-      <c r="X55" s="58"/>
-      <c r="Y55" s="58"/>
-      <c r="Z55" s="58"/>
-      <c r="AA55" s="58"/>
-      <c r="AB55" s="58"/>
-      <c r="AC55" s="58"/>
-      <c r="AD55" s="58"/>
-      <c r="AE55" s="58"/>
-      <c r="AF55" s="58"/>
-      <c r="AG55" s="58"/>
-      <c r="AH55" s="58"/>
-      <c r="AI55" s="58"/>
-      <c r="AJ55" s="58"/>
-      <c r="AK55" s="58"/>
-      <c r="AL55" s="58"/>
-      <c r="AM55" s="58"/>
-      <c r="AN55" s="58"/>
-      <c r="AO55" s="58"/>
-      <c r="AP55" s="58"/>
-      <c r="AQ55" s="58"/>
-      <c r="AR55" s="58"/>
-      <c r="AS55" s="58"/>
-      <c r="AT55" s="58"/>
-      <c r="AU55" s="58"/>
-      <c r="AV55" s="58"/>
-      <c r="AW55" s="58"/>
-      <c r="AX55" s="58"/>
-      <c r="AY55" s="58"/>
-      <c r="AZ55" s="58"/>
-      <c r="BA55" s="58"/>
-      <c r="BB55" s="58"/>
-      <c r="BC55" s="58"/>
-      <c r="BD55" s="58"/>
-      <c r="BE55" s="58"/>
-      <c r="BF55" s="58"/>
-      <c r="BG55" s="58"/>
-      <c r="BH55" s="58"/>
-      <c r="BI55" s="58"/>
-      <c r="BJ55" s="58"/>
-      <c r="BK55" s="58"/>
-      <c r="BL55" s="58"/>
-      <c r="BM55" s="58"/>
-    </row>
-    <row r="56" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="V56" s="57"/>
-      <c r="W56" s="57"/>
-      <c r="X56" s="57"/>
-      <c r="Y56" s="57"/>
-      <c r="Z56" s="57"/>
-      <c r="AA56" s="57"/>
-      <c r="AB56" s="57"/>
-      <c r="AC56" s="57"/>
-      <c r="AD56" s="57"/>
-      <c r="AE56" s="57"/>
-      <c r="AF56" s="57"/>
-      <c r="AG56" s="57"/>
-      <c r="AH56" s="57"/>
-      <c r="AI56" s="57"/>
-      <c r="AJ56" s="57"/>
-      <c r="AK56" s="57"/>
-      <c r="AL56" s="57"/>
-      <c r="AM56" s="57"/>
-      <c r="AN56" s="57"/>
-      <c r="AO56" s="57"/>
-      <c r="AP56" s="57"/>
-      <c r="AQ56" s="57"/>
-      <c r="AR56" s="57"/>
-      <c r="AS56" s="57"/>
-      <c r="AT56" s="57"/>
-      <c r="AU56" s="57"/>
-      <c r="AV56" s="57"/>
-      <c r="AW56" s="57"/>
-      <c r="AX56" s="57"/>
-      <c r="AY56" s="57"/>
-      <c r="AZ56" s="57"/>
-      <c r="BA56" s="57"/>
-      <c r="BB56" s="57"/>
-      <c r="BC56" s="57"/>
-      <c r="BD56" s="57"/>
-      <c r="BE56" s="57"/>
-      <c r="BF56" s="57"/>
-      <c r="BG56" s="57"/>
-      <c r="BH56" s="57"/>
-      <c r="BI56" s="57"/>
-      <c r="BJ56" s="57"/>
-      <c r="BK56" s="57"/>
-      <c r="BL56" s="57"/>
-      <c r="BM56" s="57"/>
-    </row>
-    <row r="57" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="V57" s="57"/>
-      <c r="W57" s="57"/>
-      <c r="X57" s="57"/>
-      <c r="Y57" s="57"/>
-      <c r="Z57" s="57"/>
-      <c r="AA57" s="57"/>
-      <c r="AB57" s="57"/>
-      <c r="AC57" s="57"/>
-      <c r="AD57" s="57"/>
-      <c r="AE57" s="57"/>
-      <c r="AF57" s="57"/>
-      <c r="AG57" s="57"/>
-      <c r="AH57" s="57"/>
-      <c r="AI57" s="57"/>
-      <c r="AJ57" s="57"/>
-      <c r="AK57" s="57"/>
-      <c r="AL57" s="57"/>
-      <c r="AM57" s="57"/>
-      <c r="AN57" s="57"/>
-      <c r="AO57" s="57"/>
-      <c r="AP57" s="57"/>
-      <c r="AQ57" s="57"/>
-      <c r="AR57" s="57"/>
-      <c r="AS57" s="57"/>
-      <c r="AT57" s="57"/>
-      <c r="AU57" s="57"/>
-      <c r="AV57" s="57"/>
-      <c r="AW57" s="57"/>
-      <c r="AX57" s="57"/>
-      <c r="AY57" s="57"/>
-      <c r="AZ57" s="57"/>
-      <c r="BA57" s="57"/>
-      <c r="BB57" s="57"/>
-      <c r="BC57" s="57"/>
-      <c r="BD57" s="57"/>
-      <c r="BE57" s="57"/>
-      <c r="BF57" s="57"/>
-      <c r="BG57" s="57"/>
-      <c r="BH57" s="57"/>
-      <c r="BI57" s="57"/>
-      <c r="BJ57" s="57"/>
-      <c r="BK57" s="57"/>
-      <c r="BL57" s="57"/>
-      <c r="BM57" s="57"/>
-    </row>
-    <row r="58" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="V58" s="57"/>
-      <c r="W58" s="57"/>
-      <c r="X58" s="57"/>
-      <c r="Y58" s="57"/>
-      <c r="Z58" s="57"/>
-      <c r="AA58" s="57"/>
-      <c r="AB58" s="57"/>
-      <c r="AC58" s="57"/>
-      <c r="AD58" s="57"/>
-      <c r="AE58" s="57"/>
-      <c r="AF58" s="57"/>
-      <c r="AG58" s="57"/>
-      <c r="AH58" s="57"/>
-      <c r="AI58" s="57"/>
-      <c r="AJ58" s="57"/>
-      <c r="AK58" s="57"/>
-      <c r="AL58" s="57"/>
-      <c r="AM58" s="57"/>
-      <c r="AN58" s="57"/>
-      <c r="AO58" s="57"/>
-      <c r="AP58" s="57"/>
-      <c r="AQ58" s="57"/>
-      <c r="AR58" s="57"/>
-      <c r="AS58" s="57"/>
-      <c r="AT58" s="57"/>
-      <c r="AU58" s="57"/>
-      <c r="AV58" s="57"/>
-      <c r="AW58" s="57"/>
-      <c r="AX58" s="57"/>
-      <c r="AY58" s="57"/>
-      <c r="AZ58" s="57"/>
-      <c r="BA58" s="57"/>
-      <c r="BB58" s="57"/>
-      <c r="BC58" s="57"/>
-      <c r="BD58" s="57"/>
-      <c r="BE58" s="57"/>
-      <c r="BF58" s="57"/>
-      <c r="BG58" s="57"/>
-      <c r="BH58" s="57"/>
-      <c r="BI58" s="57"/>
-      <c r="BJ58" s="57"/>
-      <c r="BK58" s="57"/>
-      <c r="BL58" s="57"/>
-      <c r="BM58" s="57"/>
-    </row>
-    <row r="59" spans="1:65" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:52" x14ac:dyDescent="0.35">
       <c r="G59" s="44"/>
-      <c r="V59" s="57"/>
-      <c r="W59" s="57"/>
-      <c r="X59" s="57"/>
-      <c r="Y59" s="57"/>
-      <c r="Z59" s="57"/>
-      <c r="AA59" s="57"/>
-      <c r="AB59" s="57"/>
-      <c r="AC59" s="57"/>
-      <c r="AD59" s="57"/>
-      <c r="AE59" s="57"/>
-      <c r="AF59" s="57"/>
-      <c r="AG59" s="57"/>
-      <c r="AH59" s="57"/>
-      <c r="AI59" s="57"/>
-      <c r="AJ59" s="57"/>
-      <c r="AK59" s="57"/>
-      <c r="AL59" s="57"/>
-      <c r="AM59" s="57"/>
-      <c r="AN59" s="57"/>
-      <c r="AO59" s="57"/>
-      <c r="AP59" s="57"/>
-      <c r="AQ59" s="57"/>
-      <c r="AR59" s="57"/>
-      <c r="AS59" s="57"/>
-      <c r="AT59" s="57"/>
-      <c r="AU59" s="57"/>
-      <c r="AV59" s="57"/>
-      <c r="AW59" s="57"/>
-      <c r="AX59" s="57"/>
-      <c r="AY59" s="57"/>
-      <c r="AZ59" s="57"/>
-      <c r="BA59" s="57"/>
-      <c r="BB59" s="57"/>
-      <c r="BC59" s="57"/>
-      <c r="BD59" s="57"/>
-      <c r="BE59" s="57"/>
-      <c r="BF59" s="57"/>
-      <c r="BG59" s="57"/>
-      <c r="BH59" s="57"/>
-      <c r="BI59" s="57"/>
-      <c r="BJ59" s="57"/>
-      <c r="BK59" s="57"/>
-      <c r="BL59" s="57"/>
-      <c r="BM59" s="57"/>
-    </row>
-    <row r="60" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="V60" s="57"/>
-      <c r="W60" s="57"/>
-      <c r="X60" s="57"/>
-      <c r="Y60" s="57"/>
-      <c r="Z60" s="57"/>
-      <c r="AA60" s="57"/>
-      <c r="AB60" s="57"/>
-      <c r="AC60" s="57"/>
-      <c r="AD60" s="57"/>
-      <c r="AE60" s="57"/>
-      <c r="AF60" s="57"/>
-      <c r="AG60" s="57"/>
-      <c r="AH60" s="57"/>
-      <c r="AI60" s="57"/>
-      <c r="AJ60" s="57"/>
-      <c r="AK60" s="57"/>
-      <c r="AL60" s="57"/>
-      <c r="AM60" s="57"/>
-      <c r="AN60" s="57"/>
-      <c r="AO60" s="57"/>
-      <c r="AP60" s="57"/>
-      <c r="AQ60" s="57"/>
-      <c r="AR60" s="57"/>
-      <c r="AS60" s="57"/>
-      <c r="AT60" s="57"/>
-      <c r="AU60" s="57"/>
-      <c r="AV60" s="57"/>
-      <c r="AW60" s="57"/>
-      <c r="AX60" s="57"/>
-      <c r="AY60" s="57"/>
-      <c r="AZ60" s="57"/>
-      <c r="BA60" s="57"/>
-      <c r="BB60" s="57"/>
-      <c r="BC60" s="57"/>
-      <c r="BD60" s="57"/>
-      <c r="BE60" s="57"/>
-      <c r="BF60" s="57"/>
-      <c r="BG60" s="57"/>
-      <c r="BH60" s="57"/>
-      <c r="BI60" s="57"/>
-      <c r="BJ60" s="57"/>
-      <c r="BK60" s="57"/>
-      <c r="BL60" s="57"/>
-      <c r="BM60" s="57"/>
-    </row>
-    <row r="61" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="V61" s="57"/>
-      <c r="W61" s="57"/>
-      <c r="X61" s="57"/>
-      <c r="Y61" s="57"/>
-      <c r="Z61" s="57"/>
-      <c r="AA61" s="57"/>
-      <c r="AB61" s="57"/>
-      <c r="AC61" s="57"/>
-      <c r="AD61" s="57"/>
-      <c r="AE61" s="57"/>
-      <c r="AF61" s="57"/>
-      <c r="AG61" s="57"/>
-      <c r="AH61" s="57"/>
-      <c r="AI61" s="57"/>
-      <c r="AJ61" s="57"/>
-      <c r="AK61" s="57"/>
-      <c r="AL61" s="57"/>
-      <c r="AM61" s="57"/>
-      <c r="AN61" s="57"/>
-      <c r="AO61" s="57"/>
-      <c r="AP61" s="57"/>
-      <c r="AQ61" s="57"/>
-      <c r="AR61" s="57"/>
-      <c r="AS61" s="57"/>
-      <c r="AT61" s="57"/>
-      <c r="AU61" s="57"/>
-      <c r="AV61" s="57"/>
-      <c r="AW61" s="57"/>
-      <c r="AX61" s="57"/>
-      <c r="AY61" s="57"/>
-      <c r="AZ61" s="57"/>
-      <c r="BA61" s="57"/>
-      <c r="BB61" s="57"/>
-      <c r="BC61" s="57"/>
-      <c r="BD61" s="57"/>
-      <c r="BE61" s="57"/>
-      <c r="BF61" s="57"/>
-      <c r="BG61" s="57"/>
-      <c r="BH61" s="57"/>
-      <c r="BI61" s="57"/>
-      <c r="BJ61" s="57"/>
-      <c r="BK61" s="57"/>
-      <c r="BL61" s="57"/>
-      <c r="BM61" s="57"/>
-    </row>
-    <row r="62" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="V62" s="57"/>
-      <c r="W62" s="57"/>
-      <c r="X62" s="57"/>
-      <c r="Y62" s="57"/>
-      <c r="Z62" s="57"/>
-      <c r="AA62" s="57"/>
-      <c r="AB62" s="57"/>
-      <c r="AC62" s="57"/>
-      <c r="AD62" s="57"/>
-      <c r="AE62" s="57"/>
-      <c r="AF62" s="57"/>
-      <c r="AG62" s="57"/>
-      <c r="AH62" s="57"/>
-      <c r="AI62" s="57"/>
-      <c r="AJ62" s="57"/>
-      <c r="AK62" s="57"/>
-      <c r="AL62" s="57"/>
-      <c r="AM62" s="57"/>
-      <c r="AN62" s="57"/>
-      <c r="AO62" s="57"/>
-      <c r="AP62" s="57"/>
-      <c r="AQ62" s="57"/>
-      <c r="AR62" s="57"/>
-      <c r="AS62" s="57"/>
-      <c r="AT62" s="57"/>
-      <c r="AU62" s="57"/>
-      <c r="AV62" s="57"/>
-      <c r="AW62" s="57"/>
-      <c r="AX62" s="57"/>
-      <c r="AY62" s="57"/>
-      <c r="AZ62" s="57"/>
-      <c r="BA62" s="57"/>
-      <c r="BB62" s="57"/>
-      <c r="BC62" s="57"/>
-      <c r="BD62" s="57"/>
-      <c r="BE62" s="57"/>
-      <c r="BF62" s="57"/>
-      <c r="BG62" s="57"/>
-      <c r="BH62" s="57"/>
-      <c r="BI62" s="57"/>
-      <c r="BJ62" s="57"/>
-      <c r="BK62" s="57"/>
-      <c r="BL62" s="57"/>
-      <c r="BM62" s="57"/>
-    </row>
-    <row r="63" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="V63" s="57"/>
-      <c r="W63" s="57"/>
-      <c r="X63" s="57"/>
-      <c r="Y63" s="57"/>
-      <c r="Z63" s="57"/>
-      <c r="AA63" s="57"/>
-      <c r="AB63" s="57"/>
-      <c r="AC63" s="57"/>
-      <c r="AD63" s="57"/>
-      <c r="AE63" s="57"/>
-      <c r="AF63" s="57"/>
-      <c r="AG63" s="57"/>
-      <c r="AH63" s="57"/>
-      <c r="AI63" s="57"/>
-      <c r="AJ63" s="57"/>
-      <c r="AK63" s="57"/>
-      <c r="AL63" s="57"/>
-      <c r="AM63" s="57"/>
-      <c r="AN63" s="57"/>
-      <c r="AO63" s="57"/>
-      <c r="AP63" s="57"/>
-      <c r="AQ63" s="57"/>
-      <c r="AR63" s="57"/>
-      <c r="AS63" s="57"/>
-      <c r="AT63" s="57"/>
-      <c r="AU63" s="57"/>
-      <c r="AV63" s="57"/>
-      <c r="AW63" s="57"/>
-      <c r="AX63" s="57"/>
-      <c r="AY63" s="57"/>
-      <c r="AZ63" s="57"/>
-      <c r="BA63" s="57"/>
-      <c r="BB63" s="57"/>
-      <c r="BC63" s="57"/>
-      <c r="BD63" s="57"/>
-      <c r="BE63" s="57"/>
-      <c r="BF63" s="57"/>
-      <c r="BG63" s="57"/>
-      <c r="BH63" s="57"/>
-      <c r="BI63" s="57"/>
-      <c r="BJ63" s="57"/>
-      <c r="BK63" s="57"/>
-      <c r="BL63" s="57"/>
-      <c r="BM63" s="57"/>
-    </row>
-    <row r="64" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="V64" s="57"/>
-      <c r="W64" s="57"/>
-      <c r="X64" s="57"/>
-      <c r="Y64" s="57"/>
-      <c r="Z64" s="57"/>
-      <c r="AA64" s="57"/>
-      <c r="AB64" s="57"/>
-      <c r="AC64" s="57"/>
-      <c r="AD64" s="57"/>
-      <c r="AE64" s="57"/>
-      <c r="AF64" s="57"/>
-      <c r="AG64" s="57"/>
-      <c r="AH64" s="57"/>
-      <c r="AI64" s="57"/>
-      <c r="AJ64" s="57"/>
-      <c r="AK64" s="57"/>
-      <c r="AL64" s="57"/>
-      <c r="AM64" s="57"/>
-      <c r="AN64" s="57"/>
-      <c r="AO64" s="57"/>
-      <c r="AP64" s="57"/>
-      <c r="AQ64" s="57"/>
-      <c r="AR64" s="57"/>
-      <c r="AS64" s="57"/>
-      <c r="AT64" s="57"/>
-      <c r="AU64" s="57"/>
-      <c r="AV64" s="57"/>
-      <c r="AW64" s="57"/>
-      <c r="AX64" s="57"/>
-      <c r="AY64" s="57"/>
-      <c r="AZ64" s="57"/>
-      <c r="BA64" s="57"/>
-      <c r="BB64" s="57"/>
-      <c r="BC64" s="57"/>
-      <c r="BD64" s="57"/>
-      <c r="BE64" s="57"/>
-      <c r="BF64" s="57"/>
-      <c r="BG64" s="57"/>
-      <c r="BH64" s="57"/>
-      <c r="BI64" s="57"/>
-      <c r="BJ64" s="57"/>
-      <c r="BK64" s="57"/>
-      <c r="BL64" s="57"/>
-      <c r="BM64" s="57"/>
-    </row>
-    <row r="65" spans="22:65" x14ac:dyDescent="0.35">
-      <c r="V65" s="57"/>
-      <c r="W65" s="57"/>
-      <c r="X65" s="57"/>
-      <c r="Y65" s="57"/>
-      <c r="Z65" s="57"/>
-      <c r="AA65" s="57"/>
-      <c r="AB65" s="57"/>
-      <c r="AC65" s="57"/>
-      <c r="AD65" s="57"/>
-      <c r="AE65" s="57"/>
-      <c r="AF65" s="57"/>
-      <c r="AG65" s="57"/>
-      <c r="AH65" s="57"/>
-      <c r="AI65" s="57"/>
-      <c r="AJ65" s="57"/>
-      <c r="AK65" s="57"/>
-      <c r="AL65" s="57"/>
-      <c r="AM65" s="57"/>
-      <c r="AN65" s="57"/>
-      <c r="AO65" s="57"/>
-      <c r="AP65" s="57"/>
-      <c r="AQ65" s="57"/>
-      <c r="AR65" s="57"/>
-      <c r="AS65" s="57"/>
-      <c r="AT65" s="57"/>
-      <c r="AU65" s="57"/>
-      <c r="AV65" s="57"/>
-      <c r="AW65" s="57"/>
-      <c r="AX65" s="57"/>
-      <c r="AY65" s="57"/>
-      <c r="AZ65" s="57"/>
-      <c r="BA65" s="57"/>
-      <c r="BB65" s="57"/>
-      <c r="BC65" s="57"/>
-      <c r="BD65" s="57"/>
-      <c r="BE65" s="57"/>
-      <c r="BF65" s="57"/>
-      <c r="BG65" s="57"/>
-      <c r="BH65" s="57"/>
-      <c r="BI65" s="57"/>
-      <c r="BJ65" s="57"/>
-      <c r="BK65" s="57"/>
-      <c r="BL65" s="57"/>
-      <c r="BM65" s="57"/>
-    </row>
-    <row r="66" spans="22:65" x14ac:dyDescent="0.35">
-      <c r="V66" s="57"/>
-      <c r="W66" s="57"/>
-      <c r="X66" s="57"/>
-      <c r="Y66" s="57"/>
-      <c r="Z66" s="57"/>
-      <c r="AA66" s="57"/>
-      <c r="AB66" s="57"/>
-      <c r="AC66" s="57"/>
-      <c r="AD66" s="57"/>
-      <c r="AE66" s="57"/>
-      <c r="AF66" s="57"/>
-      <c r="AG66" s="57"/>
-      <c r="AH66" s="57"/>
-      <c r="AI66" s="57"/>
-      <c r="AJ66" s="57"/>
-      <c r="AK66" s="57"/>
-      <c r="AL66" s="57"/>
-      <c r="AM66" s="57"/>
-      <c r="AN66" s="57"/>
-      <c r="AO66" s="57"/>
-      <c r="AP66" s="57"/>
-      <c r="AQ66" s="57"/>
-      <c r="AR66" s="57"/>
-      <c r="AS66" s="57"/>
-      <c r="AT66" s="57"/>
-      <c r="AU66" s="57"/>
-      <c r="AV66" s="57"/>
-      <c r="AW66" s="57"/>
-      <c r="AX66" s="57"/>
-      <c r="AY66" s="57"/>
-      <c r="AZ66" s="57"/>
-      <c r="BA66" s="57"/>
-      <c r="BB66" s="57"/>
-      <c r="BC66" s="57"/>
-      <c r="BD66" s="57"/>
-      <c r="BE66" s="57"/>
-      <c r="BF66" s="57"/>
-      <c r="BG66" s="57"/>
-      <c r="BH66" s="57"/>
-      <c r="BI66" s="57"/>
-      <c r="BJ66" s="57"/>
-      <c r="BK66" s="57"/>
-      <c r="BL66" s="57"/>
-      <c r="BM66" s="57"/>
-    </row>
-    <row r="67" spans="22:65" x14ac:dyDescent="0.35">
-      <c r="V67" s="57"/>
-      <c r="W67" s="57"/>
-      <c r="X67" s="57"/>
-      <c r="Y67" s="57"/>
-      <c r="Z67" s="57"/>
-      <c r="AA67" s="57"/>
-      <c r="AB67" s="57"/>
-      <c r="AC67" s="57"/>
-      <c r="AD67" s="57"/>
-      <c r="AE67" s="57"/>
-      <c r="AF67" s="57"/>
-      <c r="AG67" s="57"/>
-      <c r="AH67" s="57"/>
-      <c r="AI67" s="57"/>
-      <c r="AJ67" s="57"/>
-      <c r="AK67" s="57"/>
-      <c r="AL67" s="57"/>
-      <c r="AM67" s="57"/>
-      <c r="AN67" s="57"/>
-      <c r="AO67" s="57"/>
-      <c r="AP67" s="57"/>
-      <c r="AQ67" s="57"/>
-      <c r="AR67" s="57"/>
-      <c r="AS67" s="57"/>
-      <c r="AT67" s="57"/>
-      <c r="AU67" s="57"/>
-      <c r="AV67" s="57"/>
-      <c r="AW67" s="57"/>
-      <c r="AX67" s="57"/>
-      <c r="AY67" s="57"/>
-      <c r="AZ67" s="57"/>
-      <c r="BA67" s="57"/>
-      <c r="BB67" s="57"/>
-      <c r="BC67" s="57"/>
-      <c r="BD67" s="57"/>
-      <c r="BE67" s="57"/>
-      <c r="BF67" s="57"/>
-      <c r="BG67" s="57"/>
-      <c r="BH67" s="57"/>
-      <c r="BI67" s="57"/>
-      <c r="BJ67" s="57"/>
-      <c r="BK67" s="57"/>
-      <c r="BL67" s="57"/>
-      <c r="BM67" s="57"/>
-    </row>
-    <row r="68" spans="22:65" x14ac:dyDescent="0.35">
-      <c r="V68" s="57"/>
-      <c r="W68" s="57"/>
-      <c r="X68" s="57"/>
-      <c r="Y68" s="57"/>
-      <c r="Z68" s="57"/>
-      <c r="AA68" s="57"/>
-      <c r="AB68" s="57"/>
-      <c r="AC68" s="57"/>
-      <c r="AD68" s="57"/>
-      <c r="AE68" s="57"/>
-      <c r="AF68" s="57"/>
-      <c r="AG68" s="57"/>
-      <c r="AH68" s="57"/>
-      <c r="AI68" s="57"/>
-      <c r="AJ68" s="57"/>
-      <c r="AK68" s="57"/>
-      <c r="AL68" s="57"/>
-      <c r="AM68" s="57"/>
-      <c r="AN68" s="57"/>
-      <c r="AO68" s="57"/>
-      <c r="AP68" s="57"/>
-      <c r="AQ68" s="57"/>
-      <c r="AR68" s="57"/>
-      <c r="AS68" s="57"/>
-      <c r="AT68" s="57"/>
-      <c r="AU68" s="57"/>
-      <c r="AV68" s="57"/>
-      <c r="AW68" s="57"/>
-      <c r="AX68" s="57"/>
-      <c r="AY68" s="57"/>
-      <c r="AZ68" s="57"/>
-      <c r="BA68" s="57"/>
-      <c r="BB68" s="57"/>
-      <c r="BC68" s="57"/>
-      <c r="BD68" s="57"/>
-      <c r="BE68" s="57"/>
-      <c r="BF68" s="57"/>
-      <c r="BG68" s="57"/>
-      <c r="BH68" s="57"/>
-      <c r="BI68" s="57"/>
-      <c r="BJ68" s="57"/>
-      <c r="BK68" s="57"/>
-      <c r="BL68" s="57"/>
-      <c r="BM68" s="57"/>
-    </row>
-    <row r="69" spans="22:65" x14ac:dyDescent="0.35">
-      <c r="V69" s="57"/>
-      <c r="W69" s="57"/>
-      <c r="X69" s="57"/>
-      <c r="Y69" s="57"/>
-      <c r="Z69" s="57"/>
-      <c r="AA69" s="57"/>
-      <c r="AB69" s="57"/>
-      <c r="AC69" s="57"/>
-      <c r="AD69" s="57"/>
-      <c r="AE69" s="57"/>
-      <c r="AF69" s="57"/>
-      <c r="AG69" s="57"/>
-      <c r="AH69" s="57"/>
-      <c r="AI69" s="57"/>
-      <c r="AJ69" s="57"/>
-      <c r="AK69" s="57"/>
-      <c r="AL69" s="57"/>
-      <c r="AM69" s="57"/>
-      <c r="AN69" s="57"/>
-      <c r="AO69" s="57"/>
-      <c r="AP69" s="57"/>
-      <c r="AQ69" s="57"/>
-      <c r="AR69" s="57"/>
-      <c r="AS69" s="57"/>
-      <c r="AT69" s="57"/>
-      <c r="AU69" s="57"/>
-      <c r="AV69" s="57"/>
-      <c r="AW69" s="57"/>
-      <c r="AX69" s="57"/>
-      <c r="AY69" s="57"/>
-      <c r="AZ69" s="57"/>
-      <c r="BA69" s="57"/>
-      <c r="BB69" s="57"/>
-      <c r="BC69" s="57"/>
-      <c r="BD69" s="57"/>
-      <c r="BE69" s="57"/>
-      <c r="BF69" s="57"/>
-      <c r="BG69" s="57"/>
-      <c r="BH69" s="57"/>
-      <c r="BI69" s="57"/>
-      <c r="BJ69" s="57"/>
-      <c r="BK69" s="57"/>
-      <c r="BL69" s="57"/>
-      <c r="BM69" s="57"/>
-    </row>
-    <row r="70" spans="22:65" x14ac:dyDescent="0.35">
-      <c r="V70" s="57"/>
-      <c r="W70" s="57"/>
-      <c r="X70" s="57"/>
-      <c r="Y70" s="57"/>
-      <c r="Z70" s="57"/>
-      <c r="AA70" s="57"/>
-      <c r="AB70" s="57"/>
-      <c r="AC70" s="57"/>
-      <c r="AD70" s="57"/>
-      <c r="AE70" s="57"/>
-      <c r="AF70" s="57"/>
-      <c r="AG70" s="57"/>
-      <c r="AH70" s="57"/>
-      <c r="AI70" s="57"/>
-      <c r="AJ70" s="57"/>
-      <c r="AK70" s="57"/>
-      <c r="AL70" s="57"/>
-      <c r="AM70" s="57"/>
-      <c r="AN70" s="57"/>
-      <c r="AO70" s="57"/>
-      <c r="AP70" s="57"/>
-      <c r="AQ70" s="57"/>
-      <c r="AR70" s="57"/>
-      <c r="AS70" s="57"/>
-      <c r="AT70" s="57"/>
-      <c r="AU70" s="57"/>
-      <c r="AV70" s="57"/>
-      <c r="AW70" s="57"/>
-      <c r="AX70" s="57"/>
-      <c r="AY70" s="57"/>
-      <c r="AZ70" s="57"/>
-      <c r="BA70" s="57"/>
-      <c r="BB70" s="57"/>
-      <c r="BC70" s="57"/>
-      <c r="BD70" s="57"/>
-      <c r="BE70" s="57"/>
-      <c r="BF70" s="57"/>
-      <c r="BG70" s="57"/>
-      <c r="BH70" s="57"/>
-      <c r="BI70" s="57"/>
-      <c r="BJ70" s="57"/>
-      <c r="BK70" s="57"/>
-      <c r="BL70" s="57"/>
-      <c r="BM70" s="57"/>
-    </row>
-    <row r="71" spans="22:65" x14ac:dyDescent="0.35">
-      <c r="V71" s="57"/>
-      <c r="W71" s="57"/>
-      <c r="X71" s="57"/>
-      <c r="Y71" s="57"/>
-      <c r="Z71" s="57"/>
-      <c r="AA71" s="57"/>
-      <c r="AB71" s="57"/>
-      <c r="AC71" s="57"/>
-      <c r="AD71" s="57"/>
-      <c r="AE71" s="57"/>
-      <c r="AF71" s="57"/>
-      <c r="AG71" s="57"/>
-      <c r="AH71" s="57"/>
-      <c r="AI71" s="57"/>
-      <c r="AJ71" s="57"/>
-      <c r="AK71" s="57"/>
-      <c r="AL71" s="57"/>
-      <c r="AM71" s="57"/>
-      <c r="AN71" s="57"/>
-      <c r="AO71" s="57"/>
-      <c r="AP71" s="57"/>
-      <c r="AQ71" s="57"/>
-      <c r="AR71" s="57"/>
-      <c r="AS71" s="57"/>
-      <c r="AT71" s="57"/>
-      <c r="AU71" s="57"/>
-      <c r="AV71" s="57"/>
-      <c r="AW71" s="57"/>
-      <c r="AX71" s="57"/>
-      <c r="AY71" s="57"/>
-      <c r="AZ71" s="57"/>
-      <c r="BA71" s="57"/>
-      <c r="BB71" s="57"/>
-      <c r="BC71" s="57"/>
-      <c r="BD71" s="57"/>
-      <c r="BE71" s="57"/>
-      <c r="BF71" s="57"/>
-      <c r="BG71" s="57"/>
-      <c r="BH71" s="57"/>
-      <c r="BI71" s="57"/>
-      <c r="BJ71" s="57"/>
-      <c r="BK71" s="57"/>
-      <c r="BL71" s="57"/>
-      <c r="BM71" s="57"/>
-    </row>
-    <row r="72" spans="22:65" x14ac:dyDescent="0.35">
-      <c r="V72" s="57"/>
-      <c r="W72" s="57"/>
-      <c r="X72" s="57"/>
-      <c r="Y72" s="57"/>
-      <c r="Z72" s="57"/>
-      <c r="AA72" s="57"/>
-      <c r="AB72" s="57"/>
-      <c r="AC72" s="57"/>
-      <c r="AD72" s="57"/>
-      <c r="AE72" s="57"/>
-      <c r="AF72" s="57"/>
-      <c r="AG72" s="57"/>
-      <c r="AH72" s="57"/>
-      <c r="AI72" s="57"/>
-      <c r="AJ72" s="57"/>
-      <c r="AK72" s="57"/>
-      <c r="AL72" s="57"/>
-      <c r="AM72" s="57"/>
-      <c r="AN72" s="57"/>
-      <c r="AO72" s="57"/>
-      <c r="AP72" s="57"/>
-      <c r="AQ72" s="57"/>
-      <c r="AR72" s="57"/>
-      <c r="AS72" s="57"/>
-      <c r="AT72" s="57"/>
-      <c r="AU72" s="57"/>
-      <c r="AV72" s="57"/>
-      <c r="AW72" s="57"/>
-      <c r="AX72" s="57"/>
-      <c r="AY72" s="57"/>
-      <c r="AZ72" s="57"/>
-      <c r="BA72" s="57"/>
-      <c r="BB72" s="57"/>
-      <c r="BC72" s="57"/>
-      <c r="BD72" s="57"/>
-      <c r="BE72" s="57"/>
-      <c r="BF72" s="57"/>
-      <c r="BG72" s="57"/>
-      <c r="BH72" s="57"/>
-      <c r="BI72" s="57"/>
-      <c r="BJ72" s="57"/>
-      <c r="BK72" s="57"/>
-      <c r="BL72" s="57"/>
-      <c r="BM72" s="57"/>
-    </row>
-    <row r="73" spans="22:65" x14ac:dyDescent="0.35">
-      <c r="V73" s="57"/>
-      <c r="W73" s="57"/>
-      <c r="X73" s="57"/>
-      <c r="Y73" s="57"/>
-      <c r="Z73" s="57"/>
-      <c r="AA73" s="57"/>
-      <c r="AB73" s="57"/>
-      <c r="AC73" s="57"/>
-      <c r="AD73" s="57"/>
-      <c r="AE73" s="57"/>
-      <c r="AF73" s="57"/>
-      <c r="AG73" s="57"/>
-      <c r="AH73" s="57"/>
-      <c r="AI73" s="57"/>
-      <c r="AJ73" s="57"/>
-      <c r="AK73" s="57"/>
-      <c r="AL73" s="57"/>
-      <c r="AM73" s="57"/>
-      <c r="AN73" s="57"/>
-      <c r="AO73" s="57"/>
-      <c r="AP73" s="57"/>
-      <c r="AQ73" s="57"/>
-      <c r="AR73" s="57"/>
-      <c r="AS73" s="57"/>
-      <c r="AT73" s="57"/>
-      <c r="AU73" s="57"/>
-      <c r="AV73" s="57"/>
-      <c r="AW73" s="57"/>
-      <c r="AX73" s="57"/>
-      <c r="AY73" s="57"/>
-      <c r="AZ73" s="57"/>
-      <c r="BA73" s="57"/>
-      <c r="BB73" s="57"/>
-      <c r="BC73" s="57"/>
-      <c r="BD73" s="57"/>
-      <c r="BE73" s="57"/>
-      <c r="BF73" s="57"/>
-      <c r="BG73" s="57"/>
-      <c r="BH73" s="57"/>
-      <c r="BI73" s="57"/>
-      <c r="BJ73" s="57"/>
-      <c r="BK73" s="57"/>
-      <c r="BL73" s="57"/>
-      <c r="BM73" s="57"/>
-    </row>
-    <row r="74" spans="22:65" x14ac:dyDescent="0.35">
-      <c r="V74" s="57"/>
-      <c r="W74" s="57"/>
-      <c r="X74" s="57"/>
-      <c r="Y74" s="57"/>
-      <c r="Z74" s="57"/>
-      <c r="AA74" s="57"/>
-      <c r="AB74" s="57"/>
-      <c r="AC74" s="57"/>
-      <c r="AD74" s="57"/>
-      <c r="AE74" s="57"/>
-      <c r="AF74" s="57"/>
-      <c r="AG74" s="57"/>
-      <c r="AH74" s="57"/>
-      <c r="AI74" s="57"/>
-      <c r="AJ74" s="57"/>
-      <c r="AK74" s="57"/>
-      <c r="AL74" s="57"/>
-      <c r="AM74" s="57"/>
-      <c r="AN74" s="57"/>
-      <c r="AO74" s="57"/>
-      <c r="AP74" s="57"/>
-      <c r="AQ74" s="57"/>
-      <c r="AR74" s="57"/>
-      <c r="AS74" s="57"/>
-      <c r="AT74" s="57"/>
-      <c r="AU74" s="57"/>
-      <c r="AV74" s="57"/>
-      <c r="AW74" s="57"/>
-      <c r="AX74" s="57"/>
-      <c r="AY74" s="57"/>
-      <c r="AZ74" s="57"/>
-      <c r="BA74" s="57"/>
-      <c r="BB74" s="57"/>
-      <c r="BC74" s="57"/>
-      <c r="BD74" s="57"/>
-      <c r="BE74" s="57"/>
-      <c r="BF74" s="57"/>
-      <c r="BG74" s="57"/>
-      <c r="BH74" s="57"/>
-      <c r="BI74" s="57"/>
-      <c r="BJ74" s="57"/>
-      <c r="BK74" s="57"/>
-      <c r="BL74" s="57"/>
-      <c r="BM74" s="57"/>
-    </row>
-    <row r="75" spans="22:65" x14ac:dyDescent="0.35">
-      <c r="V75" s="57"/>
-      <c r="W75" s="57"/>
-      <c r="X75" s="57"/>
-      <c r="Y75" s="57"/>
-      <c r="Z75" s="57"/>
-      <c r="AA75" s="57"/>
-      <c r="AB75" s="57"/>
-      <c r="AC75" s="57"/>
-      <c r="AD75" s="57"/>
-      <c r="AE75" s="57"/>
-      <c r="AF75" s="57"/>
-      <c r="AG75" s="57"/>
-      <c r="AH75" s="57"/>
-      <c r="AI75" s="57"/>
-      <c r="AJ75" s="57"/>
-      <c r="AK75" s="57"/>
-      <c r="AL75" s="57"/>
-      <c r="AM75" s="57"/>
-      <c r="AN75" s="57"/>
-      <c r="AO75" s="57"/>
-      <c r="AP75" s="57"/>
-      <c r="AQ75" s="57"/>
-      <c r="AR75" s="57"/>
-      <c r="AS75" s="57"/>
-      <c r="AT75" s="57"/>
-      <c r="AU75" s="57"/>
-      <c r="AV75" s="57"/>
-      <c r="AW75" s="57"/>
-      <c r="AX75" s="57"/>
-      <c r="AY75" s="57"/>
-      <c r="AZ75" s="57"/>
-      <c r="BA75" s="57"/>
-      <c r="BB75" s="57"/>
-      <c r="BC75" s="57"/>
-      <c r="BD75" s="57"/>
-      <c r="BE75" s="57"/>
-      <c r="BF75" s="57"/>
-      <c r="BG75" s="57"/>
-      <c r="BH75" s="57"/>
-      <c r="BI75" s="57"/>
-      <c r="BJ75" s="57"/>
-      <c r="BK75" s="57"/>
-      <c r="BL75" s="57"/>
-      <c r="BM75" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/bug finder.xlsx
+++ b/bug finder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Tech demo platformer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C0C1AE-8497-4531-8B4D-E8CC9DD2DC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9BDC4A-EE2B-4781-9D9A-0F4BBE0484F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="21000" xr2:uid="{9356C0CF-D086-4FEC-A8F0-753CF5CB4E4B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="112">
   <si>
     <t>A</t>
   </si>
@@ -369,6 +369,9 @@
   </si>
   <si>
     <t>ko xuống</t>
+  </si>
+  <si>
+    <t>lỗi gravity</t>
   </si>
 </sst>
 </file>
@@ -448,7 +451,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -541,12 +544,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -554,12 +551,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -748,27 +739,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -781,7 +769,7 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -817,7 +805,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -829,7 +817,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -846,9 +834,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1169,17 +1154,17 @@
   </sheetPr>
   <dimension ref="A1:AZ59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO27" sqref="AO27"/>
+      <selection pane="bottomRight" activeCell="S55" sqref="S55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="42" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="21.42578125" style="22" bestFit="1" customWidth="1"/>
@@ -1221,8 +1206,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51"/>
-      <c r="B1" s="52"/>
+      <c r="A1" s="50"/>
+      <c r="B1" s="51"/>
       <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
@@ -1291,8 +1276,8 @@
       <c r="AZ1" s="9"/>
     </row>
     <row r="2" spans="1:52" s="15" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
@@ -2365,10 +2350,10 @@
       <c r="AZ18" s="21"/>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="30" t="s">
         <v>93</v>
       </c>
       <c r="C19" s="24"/>
@@ -2431,13 +2416,13 @@
       <c r="AZ19" s="21"/>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="24"/>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="45" t="s">
         <v>86</v>
       </c>
       <c r="F20" s="24" t="s">
@@ -2499,8 +2484,8 @@
       <c r="AZ20" s="21"/>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31" t="s">
+      <c r="A21" s="29"/>
+      <c r="B21" s="30" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="24"/>
@@ -2555,8 +2540,8 @@
       <c r="AZ21" s="21"/>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31" t="s">
+      <c r="A22" s="29"/>
+      <c r="B22" s="30" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="20"/>
@@ -2611,8 +2596,8 @@
       <c r="AZ22" s="21"/>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="30" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="20"/>
@@ -2671,10 +2656,10 @@
       <c r="AZ23" s="21"/>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="32" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="20"/>
@@ -2747,19 +2732,19 @@
       <c r="AZ24" s="21"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A25" s="32"/>
-      <c r="B25" s="33" t="s">
+      <c r="A25" s="31"/>
+      <c r="B25" s="32" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="20"/>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="28" t="s">
         <v>64</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G25" s="29" t="s">
+      <c r="G25" s="28" t="s">
         <v>64</v>
       </c>
       <c r="H25" s="20" t="s">
@@ -2831,8 +2816,8 @@
       <c r="AZ25" s="21"/>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A26" s="32"/>
-      <c r="B26" s="33" t="s">
+      <c r="A26" s="31"/>
+      <c r="B26" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="20"/>
@@ -2961,7 +2946,7 @@
       <c r="AZ27" s="21"/>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="19" t="s">
@@ -3020,7 +3005,7 @@
       <c r="AZ28" s="21"/>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A29" s="30"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="19" t="s">
         <v>62</v>
       </c>
@@ -3028,7 +3013,7 @@
       <c r="D29" s="24"/>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="45"/>
+      <c r="G29" s="44"/>
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
@@ -3076,7 +3061,7 @@
       <c r="AZ29" s="21"/>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A30" s="30"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="19" t="s">
         <v>60</v>
       </c>
@@ -3132,7 +3117,7 @@
       <c r="AZ30" s="21"/>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A31" s="30"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="19" t="s">
         <v>59</v>
       </c>
@@ -3188,7 +3173,7 @@
       <c r="AZ31" s="21"/>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A32" s="30"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="19" t="s">
         <v>34</v>
       </c>
@@ -3244,7 +3229,7 @@
       <c r="AZ32" s="21"/>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A33" s="30"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="19" t="s">
         <v>35</v>
       </c>
@@ -3300,7 +3285,7 @@
       <c r="AZ33" s="21"/>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A34" s="30"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="19" t="s">
         <v>47</v>
       </c>
@@ -3356,7 +3341,7 @@
       <c r="AZ34" s="21"/>
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A35" s="30"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="19" t="s">
         <v>46</v>
       </c>
@@ -3412,13 +3397,13 @@
       <c r="AZ35" s="21"/>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A36" s="30"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="24"/>
-      <c r="E36" s="34"/>
+      <c r="E36" s="33"/>
       <c r="F36" s="20"/>
       <c r="G36" s="24"/>
       <c r="H36" s="20"/>
@@ -3437,8 +3422,8 @@
       <c r="U36" s="20"/>
       <c r="V36" s="20"/>
       <c r="W36" s="20"/>
-      <c r="X36" s="29"/>
-      <c r="Y36" s="29"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="28"/>
       <c r="Z36" s="20"/>
       <c r="AA36" s="20"/>
       <c r="AB36" s="20"/>
@@ -3468,7 +3453,7 @@
       <c r="AZ36" s="21"/>
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A37" s="30"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="19" t="s">
         <v>37</v>
       </c>
@@ -3524,13 +3509,13 @@
       <c r="AZ37" s="21"/>
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A38" s="30"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="24"/>
-      <c r="E38" s="34"/>
+      <c r="E38" s="33"/>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
@@ -3580,13 +3565,13 @@
       <c r="AZ38" s="21"/>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A39" s="30"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="24"/>
-      <c r="E39" s="35"/>
+      <c r="E39" s="34"/>
       <c r="F39" s="20"/>
       <c r="G39" s="24"/>
       <c r="H39" s="20"/>
@@ -3638,7 +3623,7 @@
       <c r="AZ39" s="21"/>
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A40" s="30"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="19" t="s">
         <v>41</v>
       </c>
@@ -3696,7 +3681,7 @@
       <c r="AZ40" s="21"/>
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A41" s="30"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="19" t="s">
         <v>42</v>
       </c>
@@ -3754,7 +3739,7 @@
       <c r="AZ41" s="21"/>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A42" s="30"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="19" t="s">
         <v>43</v>
       </c>
@@ -3812,7 +3797,7 @@
       <c r="AZ42" s="21"/>
     </row>
     <row r="43" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A43" s="30"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="19" t="s">
         <v>44</v>
       </c>
@@ -3872,7 +3857,7 @@
       <c r="AZ43" s="21"/>
     </row>
     <row r="44" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A44" s="36"/>
+      <c r="A44" s="35"/>
       <c r="B44" s="19" t="s">
         <v>45</v>
       </c>
@@ -3924,7 +3909,7 @@
       <c r="AN44" s="20"/>
       <c r="AO44" s="20"/>
       <c r="AP44" s="20"/>
-      <c r="AQ44" s="50" t="s">
+      <c r="AQ44" s="49" t="s">
         <v>72</v>
       </c>
       <c r="AR44" s="20"/>
@@ -3938,10 +3923,10 @@
       <c r="AZ44" s="21"/>
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C45" s="20"/>
@@ -3996,8 +3981,8 @@
       <c r="AZ45" s="21"/>
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A46" s="37"/>
-      <c r="B46" s="38" t="s">
+      <c r="A46" s="36"/>
+      <c r="B46" s="37" t="s">
         <v>50</v>
       </c>
       <c r="C46" s="20"/>
@@ -4054,8 +4039,8 @@
       <c r="AZ46" s="21"/>
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A47" s="37"/>
-      <c r="B47" s="38" t="s">
+      <c r="A47" s="36"/>
+      <c r="B47" s="37" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="20"/>
@@ -4112,15 +4097,15 @@
       <c r="AZ47" s="21"/>
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A48" s="37"/>
-      <c r="B48" s="38" t="s">
+      <c r="A48" s="36"/>
+      <c r="B48" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="24"/>
       <c r="E48" s="24"/>
       <c r="F48" s="24"/>
-      <c r="G48" s="29" t="s">
+      <c r="G48" s="24" t="s">
         <v>79</v>
       </c>
       <c r="H48" s="20"/>
@@ -4139,8 +4124,8 @@
       <c r="U48" s="20"/>
       <c r="V48" s="20"/>
       <c r="W48" s="20"/>
-      <c r="X48" s="29"/>
-      <c r="Y48" s="29"/>
+      <c r="X48" s="28"/>
+      <c r="Y48" s="28"/>
       <c r="Z48" s="20"/>
       <c r="AA48" s="20"/>
       <c r="AB48" s="20"/>
@@ -4161,7 +4146,7 @@
       <c r="AO48" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="AP48" s="56"/>
+      <c r="AP48" s="20"/>
       <c r="AQ48" s="20"/>
       <c r="AR48" s="20"/>
       <c r="AS48" s="20"/>
@@ -4174,10 +4159,10 @@
       <c r="AZ48" s="21"/>
     </row>
     <row r="49" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="39" t="s">
         <v>55</v>
       </c>
       <c r="C49" s="20"/>
@@ -4241,15 +4226,17 @@
       <c r="AS49" s="20"/>
       <c r="AT49" s="24"/>
       <c r="AU49" s="24"/>
-      <c r="AV49" s="20"/>
+      <c r="AV49" s="24" t="s">
+        <v>111</v>
+      </c>
       <c r="AW49" s="24"/>
       <c r="AX49" s="21"/>
       <c r="AY49" s="21"/>
       <c r="AZ49" s="21"/>
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A50" s="39"/>
-      <c r="B50" s="40" t="s">
+      <c r="A50" s="38"/>
+      <c r="B50" s="39" t="s">
         <v>56</v>
       </c>
       <c r="C50" s="20"/>
@@ -4304,8 +4291,8 @@
       <c r="AZ50" s="21"/>
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A51" s="39"/>
-      <c r="B51" s="40" t="s">
+      <c r="A51" s="38"/>
+      <c r="B51" s="39" t="s">
         <v>73</v>
       </c>
       <c r="C51" s="20"/>
@@ -4355,13 +4342,13 @@
       <c r="AK51" s="20"/>
       <c r="AL51" s="24"/>
       <c r="AM51" s="24"/>
-      <c r="AN51" s="28" t="s">
+      <c r="AN51" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="AO51" s="28" t="s">
+      <c r="AO51" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="AP51" s="28" t="s">
+      <c r="AP51" s="24" t="s">
         <v>105</v>
       </c>
       <c r="AQ51" s="24"/>
@@ -4376,31 +4363,31 @@
       <c r="AZ51" s="21"/>
     </row>
     <row r="52" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A52" s="39"/>
-      <c r="B52" s="40" t="s">
+      <c r="A52" s="38"/>
+      <c r="B52" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="41"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="42"/>
-      <c r="L52" s="42" t="s">
+      <c r="C52" s="40"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="M52" s="42"/>
-      <c r="N52" s="42"/>
-      <c r="O52" s="42"/>
-      <c r="P52" s="42"/>
-      <c r="Q52" s="42"/>
-      <c r="R52" s="42"/>
-      <c r="S52" s="42"/>
-      <c r="T52" s="42"/>
-      <c r="U52" s="42"/>
+      <c r="M52" s="41"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="41"/>
+      <c r="P52" s="41"/>
+      <c r="Q52" s="41"/>
+      <c r="R52" s="41"/>
+      <c r="S52" s="41"/>
+      <c r="T52" s="41"/>
+      <c r="U52" s="41"/>
       <c r="V52" s="20"/>
       <c r="W52" s="20"/>
       <c r="X52" s="20"/>
@@ -4482,22 +4469,22 @@
       <c r="AX54" s="20"/>
       <c r="AY54" s="20"/>
     </row>
-    <row r="55" spans="1:52" s="49" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="47" t="s">
+    <row r="55" spans="1:52" s="48" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="B55" s="48" t="s">
+      <c r="B55" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="47" t="s">
+      <c r="C55" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="D55" s="47" t="s">
+      <c r="D55" s="46" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="G59" s="44"/>
+      <c r="G59" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4527,8 +4514,8 @@
     <col min="6" max="6" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:6" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4580,8 +4567,8 @@
     <col min="6" max="6" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:6" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
     </row>

--- a/bug finder.xlsx
+++ b/bug finder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Tech demo platformer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9BDC4A-EE2B-4781-9D9A-0F4BBE0484F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315866C1-B94C-4E35-9298-8E9D92ED5E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="21000" xr2:uid="{9356C0CF-D086-4FEC-A8F0-753CF5CB4E4B}"/>
   </bookViews>
@@ -1154,8 +1154,8 @@
   </sheetPr>
   <dimension ref="A1:AZ59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="M8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="S55" sqref="S55"/>
@@ -2737,14 +2737,14 @@
         <v>29</v>
       </c>
       <c r="C25" s="20"/>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="24" t="s">
         <v>64</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="24" t="s">
         <v>64</v>
       </c>
       <c r="H25" s="20" t="s">

--- a/bug finder.xlsx
+++ b/bug finder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Tech demo platformer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315866C1-B94C-4E35-9298-8E9D92ED5E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D358D445-4C92-4DB8-A94D-0FE6820AC894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="21000" xr2:uid="{9356C0CF-D086-4FEC-A8F0-753CF5CB4E4B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="114">
   <si>
     <t>A</t>
   </si>
@@ -372,6 +372,12 @@
   </si>
   <si>
     <t>lỗi gravity</t>
+  </si>
+  <si>
+    <t>Chest</t>
+  </si>
+  <si>
+    <t>Mimic</t>
   </si>
 </sst>
 </file>
@@ -451,7 +457,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -551,6 +557,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,7 +685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -834,6 +846,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1152,13 +1167,13 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:AZ59"/>
+  <dimension ref="A1:BB59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S55" sqref="S55"/>
+      <selection pane="bottomRight" activeCell="AC83" sqref="AC83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.35"/>
@@ -1187,25 +1202,26 @@
     <col min="30" max="30" width="15.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="14.28515625" style="22" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="19.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.140625" style="22" customWidth="1"/>
     <col min="34" max="34" width="12.85546875" style="22" bestFit="1" customWidth="1"/>
     <col min="35" max="36" width="20.85546875" style="22" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="9" style="22" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="24.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="23.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="35.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="19.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="22.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="50" max="52" width="9" style="22" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="9.140625" style="22"/>
+    <col min="38" max="38" width="9" style="22" customWidth="1"/>
+    <col min="39" max="39" width="18.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="18.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="24.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="23.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="35.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="19.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="22.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="51" max="53" width="9" style="22" bestFit="1" customWidth="1"/>
+    <col min="54" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="50"/>
       <c r="B1" s="51"/>
       <c r="C1" s="3" t="s">
@@ -1240,14 +1256,14 @@
       </c>
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="5"/>
+      <c r="AD1" s="7"/>
       <c r="AE1" s="5"/>
       <c r="AF1" s="5"/>
       <c r="AG1" s="5"/>
@@ -1262,20 +1278,22 @@
       <c r="AP1" s="5"/>
       <c r="AQ1" s="5"/>
       <c r="AR1" s="5"/>
-      <c r="AS1" s="8" t="s">
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
       <c r="AV1" s="8"/>
-      <c r="AW1" s="9" t="s">
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AX1" s="9"/>
-      <c r="AY1" s="9"/>
       <c r="AZ1" s="9"/>
-    </row>
-    <row r="2" spans="1:52" s="15" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="BA1" s="9"/>
+      <c r="BB1" s="9"/>
+    </row>
+    <row r="2" spans="1:54" s="15" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="52"/>
       <c r="B2" s="53"/>
       <c r="C2" s="11" t="s">
@@ -1348,88 +1366,94 @@
         <v>29</v>
       </c>
       <c r="Z2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="11" t="s">
+      <c r="AB2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AC2" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="AC2" s="11" t="s">
+      <c r="AD2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AD2" s="11" t="s">
+      <c r="AE2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AE2" s="11" t="s">
+      <c r="AF2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AF2" s="11" t="s">
+      <c r="AG2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AG2" s="11" t="s">
+      <c r="AH2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AH2" s="11" t="s">
+      <c r="AI2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AI2" s="11" t="s">
+      <c r="AJ2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="11" t="s">
+      <c r="AK2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" s="11" t="s">
+      <c r="AL2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AL2" s="11" t="s">
+      <c r="AM2" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AM2" s="11" t="s">
+      <c r="AO2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AN2" s="11" t="s">
+      <c r="AP2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AO2" s="11" t="s">
+      <c r="AQ2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AP2" s="11" t="s">
+      <c r="AR2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AQ2" s="11" t="s">
+      <c r="AS2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AR2" s="11" t="s">
+      <c r="AT2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AS2" s="16" t="s">
+      <c r="AU2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="16" t="s">
+      <c r="AV2" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="AU2" s="16" t="s">
+      <c r="AW2" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="AV2" s="16" t="s">
+      <c r="AX2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="AW2" s="17" t="s">
+      <c r="AY2" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="AX2" s="17" t="s">
+      <c r="AZ2" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="AY2" s="17" t="s">
+      <c r="BA2" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AZ2" s="17" t="s">
+      <c r="BB2" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>14</v>
       </c>
@@ -1486,8 +1510,10 @@
       <c r="AX3" s="21"/>
       <c r="AY3" s="21"/>
       <c r="AZ3" s="21"/>
-    </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA3" s="21"/>
+      <c r="BB3" s="21"/>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A4" s="18"/>
       <c r="B4" s="19" t="s">
         <v>8</v>
@@ -1542,8 +1568,10 @@
       <c r="AX4" s="21"/>
       <c r="AY4" s="21"/>
       <c r="AZ4" s="21"/>
-    </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA4" s="21"/>
+      <c r="BB4" s="21"/>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A5" s="18"/>
       <c r="B5" s="19" t="s">
         <v>9</v>
@@ -1598,8 +1626,10 @@
       <c r="AX5" s="21"/>
       <c r="AY5" s="21"/>
       <c r="AZ5" s="21"/>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA5" s="21"/>
+      <c r="BB5" s="21"/>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A6" s="18"/>
       <c r="B6" s="19" t="s">
         <v>10</v>
@@ -1654,8 +1684,10 @@
       <c r="AX6" s="21"/>
       <c r="AY6" s="21"/>
       <c r="AZ6" s="21"/>
-    </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA6" s="21"/>
+      <c r="BB6" s="21"/>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A7" s="18"/>
       <c r="B7" s="19" t="s">
         <v>74</v>
@@ -1710,8 +1742,10 @@
       <c r="AX7" s="21"/>
       <c r="AY7" s="21"/>
       <c r="AZ7" s="21"/>
-    </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA7" s="21"/>
+      <c r="BB7" s="21"/>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A8" s="18"/>
       <c r="B8" s="19" t="s">
         <v>11</v>
@@ -1766,8 +1800,10 @@
       <c r="AX8" s="21"/>
       <c r="AY8" s="21"/>
       <c r="AZ8" s="21"/>
-    </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA8" s="21"/>
+      <c r="BB8" s="21"/>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A9" s="18"/>
       <c r="B9" s="19" t="s">
         <v>12</v>
@@ -1822,8 +1858,10 @@
       <c r="AX9" s="21"/>
       <c r="AY9" s="21"/>
       <c r="AZ9" s="21"/>
-    </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA9" s="21"/>
+      <c r="BB9" s="21"/>
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A10" s="18"/>
       <c r="B10" s="19" t="s">
         <v>39</v>
@@ -1880,8 +1918,10 @@
       <c r="AX10" s="21"/>
       <c r="AY10" s="21"/>
       <c r="AZ10" s="21"/>
-    </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA10" s="21"/>
+      <c r="BB10" s="21"/>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
         <v>13</v>
@@ -1936,8 +1976,10 @@
       <c r="AX11" s="21"/>
       <c r="AY11" s="21"/>
       <c r="AZ11" s="21"/>
-    </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA11" s="21"/>
+      <c r="BB11" s="21"/>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>21</v>
       </c>
@@ -1996,8 +2038,10 @@
       <c r="AX12" s="21"/>
       <c r="AY12" s="21"/>
       <c r="AZ12" s="21"/>
-    </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA12" s="21"/>
+      <c r="BB12" s="21"/>
+    </row>
+    <row r="13" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A13" s="26"/>
       <c r="B13" s="27" t="s">
         <v>16</v>
@@ -2056,8 +2100,10 @@
       <c r="AX13" s="21"/>
       <c r="AY13" s="21"/>
       <c r="AZ13" s="21"/>
-    </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA13" s="21"/>
+      <c r="BB13" s="21"/>
+    </row>
+    <row r="14" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A14" s="26"/>
       <c r="B14" s="27" t="s">
         <v>17</v>
@@ -2114,8 +2160,10 @@
       <c r="AX14" s="21"/>
       <c r="AY14" s="21"/>
       <c r="AZ14" s="21"/>
-    </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA14" s="21"/>
+      <c r="BB14" s="21"/>
+    </row>
+    <row r="15" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A15" s="26"/>
       <c r="B15" s="27" t="s">
         <v>33</v>
@@ -2174,8 +2222,10 @@
       <c r="AX15" s="21"/>
       <c r="AY15" s="21"/>
       <c r="AZ15" s="21"/>
-    </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA15" s="21"/>
+      <c r="BB15" s="21"/>
+    </row>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A16" s="26"/>
       <c r="B16" s="27" t="s">
         <v>18</v>
@@ -2232,8 +2282,10 @@
       <c r="AX16" s="21"/>
       <c r="AY16" s="21"/>
       <c r="AZ16" s="21"/>
-    </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA16" s="21"/>
+      <c r="BB16" s="21"/>
+    </row>
+    <row r="17" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A17" s="26"/>
       <c r="B17" s="27" t="s">
         <v>19</v>
@@ -2290,8 +2342,10 @@
       <c r="AX17" s="21"/>
       <c r="AY17" s="21"/>
       <c r="AZ17" s="21"/>
-    </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA17" s="21"/>
+      <c r="BB17" s="21"/>
+    </row>
+    <row r="18" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A18" s="26"/>
       <c r="B18" s="27" t="s">
         <v>20</v>
@@ -2348,8 +2402,10 @@
       <c r="AX18" s="21"/>
       <c r="AY18" s="21"/>
       <c r="AZ18" s="21"/>
-    </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA18" s="21"/>
+      <c r="BB18" s="21"/>
+    </row>
+    <row r="19" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A19" s="29" t="s">
         <v>26</v>
       </c>
@@ -2414,8 +2470,10 @@
       <c r="AX19" s="21"/>
       <c r="AY19" s="21"/>
       <c r="AZ19" s="21"/>
-    </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA19" s="21"/>
+      <c r="BB19" s="21"/>
+    </row>
+    <row r="20" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A20" s="29"/>
       <c r="B20" s="30" t="s">
         <v>22</v>
@@ -2482,8 +2540,10 @@
       <c r="AX20" s="21"/>
       <c r="AY20" s="21"/>
       <c r="AZ20" s="21"/>
-    </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA20" s="21"/>
+      <c r="BB20" s="21"/>
+    </row>
+    <row r="21" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A21" s="29"/>
       <c r="B21" s="30" t="s">
         <v>23</v>
@@ -2538,8 +2598,10 @@
       <c r="AX21" s="21"/>
       <c r="AY21" s="21"/>
       <c r="AZ21" s="21"/>
-    </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA21" s="21"/>
+      <c r="BB21" s="21"/>
+    </row>
+    <row r="22" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A22" s="29"/>
       <c r="B22" s="30" t="s">
         <v>24</v>
@@ -2594,8 +2656,10 @@
       <c r="AX22" s="21"/>
       <c r="AY22" s="21"/>
       <c r="AZ22" s="21"/>
-    </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA22" s="21"/>
+      <c r="BB22" s="21"/>
+    </row>
+    <row r="23" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A23" s="29"/>
       <c r="B23" s="30" t="s">
         <v>25</v>
@@ -2654,8 +2718,10 @@
       <c r="AX23" s="21"/>
       <c r="AY23" s="21"/>
       <c r="AZ23" s="21"/>
-    </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA23" s="21"/>
+      <c r="BB23" s="21"/>
+    </row>
+    <row r="24" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A24" s="31" t="s">
         <v>27</v>
       </c>
@@ -2730,8 +2796,10 @@
       <c r="AX24" s="21"/>
       <c r="AY24" s="21"/>
       <c r="AZ24" s="21"/>
-    </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA24" s="21"/>
+      <c r="BB24" s="21"/>
+    </row>
+    <row r="25" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A25" s="31"/>
       <c r="B25" s="32" t="s">
         <v>29</v>
@@ -2814,41 +2882,37 @@
       <c r="AX25" s="21"/>
       <c r="AY25" s="21"/>
       <c r="AZ25" s="21"/>
-    </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA25" s="21"/>
+      <c r="BB25" s="21"/>
+    </row>
+    <row r="26" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A26" s="31"/>
       <c r="B26" s="32" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="24" t="s">
-        <v>66</v>
-      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="24" t="s">
-        <v>101</v>
-      </c>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
       <c r="T26" s="20"/>
       <c r="U26" s="20"/>
       <c r="V26" s="20"/>
-      <c r="W26" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="24"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
       <c r="Z26" s="20"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="21"/>
@@ -2876,31 +2940,25 @@
       <c r="AX26" s="21"/>
       <c r="AY26" s="21"/>
       <c r="AZ26" s="21"/>
-    </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A27" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>31</v>
+      <c r="BA26" s="21"/>
+      <c r="BB26" s="21"/>
+    </row>
+    <row r="27" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A27" s="31"/>
+      <c r="B27" s="32" t="s">
+        <v>48</v>
       </c>
       <c r="C27" s="20"/>
-      <c r="D27" s="24"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="J27" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="K27" s="24" t="s">
-        <v>87</v>
-      </c>
+      <c r="F27" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
       <c r="L27" s="20"/>
       <c r="M27" s="20"/>
       <c r="N27" s="20"/>
@@ -2908,16 +2966,18 @@
       <c r="P27" s="20"/>
       <c r="Q27" s="20"/>
       <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="24" t="s">
-        <v>78</v>
-      </c>
+      <c r="S27" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="T27" s="20"/>
       <c r="U27" s="20"/>
       <c r="V27" s="20"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="20"/>
-      <c r="Y27" s="20"/>
-      <c r="Z27" s="20"/>
+      <c r="W27" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
       <c r="AA27" s="20"/>
       <c r="AB27" s="21"/>
       <c r="AC27" s="21"/>
@@ -2944,36 +3004,47 @@
       <c r="AX27" s="21"/>
       <c r="AY27" s="21"/>
       <c r="AZ27" s="21"/>
-    </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A28" s="29" t="s">
-        <v>32</v>
+      <c r="BA27" s="21"/>
+      <c r="BB27" s="21"/>
+    </row>
+    <row r="28" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A28" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>63</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C28" s="20"/>
       <c r="D28" s="24"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="K28" s="24" t="s">
+        <v>87</v>
+      </c>
       <c r="L28" s="20"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
       <c r="P28" s="20"/>
       <c r="Q28" s="20"/>
       <c r="R28" s="20"/>
       <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
+      <c r="T28" s="24" t="s">
+        <v>78</v>
+      </c>
       <c r="U28" s="20"/>
       <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
+      <c r="W28" s="24"/>
       <c r="X28" s="20"/>
       <c r="Y28" s="20"/>
       <c r="Z28" s="20"/>
@@ -3003,17 +3074,22 @@
       <c r="AX28" s="21"/>
       <c r="AY28" s="21"/>
       <c r="AZ28" s="21"/>
-    </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A29" s="29"/>
+      <c r="BA28" s="21"/>
+      <c r="BB28" s="21"/>
+    </row>
+    <row r="29" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A29" s="29" t="s">
+        <v>32</v>
+      </c>
       <c r="B29" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="20"/>
+        <v>63</v>
+      </c>
       <c r="D29" s="24"/>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="44"/>
+      <c r="G29" s="24" t="s">
+        <v>75</v>
+      </c>
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
@@ -3059,17 +3135,19 @@
       <c r="AX29" s="21"/>
       <c r="AY29" s="21"/>
       <c r="AZ29" s="21"/>
-    </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA29" s="21"/>
+      <c r="BB29" s="21"/>
+    </row>
+    <row r="30" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A30" s="29"/>
       <c r="B30" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="24"/>
+        <v>62</v>
+      </c>
+      <c r="C30" s="20"/>
       <c r="D30" s="24"/>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
+      <c r="G30" s="44"/>
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
@@ -3115,11 +3193,13 @@
       <c r="AX30" s="21"/>
       <c r="AY30" s="21"/>
       <c r="AZ30" s="21"/>
-    </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA30" s="21"/>
+      <c r="BB30" s="21"/>
+    </row>
+    <row r="31" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A31" s="29"/>
       <c r="B31" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
@@ -3171,17 +3251,19 @@
       <c r="AX31" s="21"/>
       <c r="AY31" s="21"/>
       <c r="AZ31" s="21"/>
-    </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA31" s="21"/>
+      <c r="BB31" s="21"/>
+    </row>
+    <row r="32" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A32" s="29"/>
       <c r="B32" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="20"/>
+        <v>59</v>
+      </c>
+      <c r="C32" s="24"/>
       <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
+      <c r="E32" s="20"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="24"/>
+      <c r="G32" s="20"/>
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
       <c r="J32" s="20"/>
@@ -3189,17 +3271,17 @@
       <c r="L32" s="20"/>
       <c r="M32" s="24"/>
       <c r="N32" s="24"/>
-      <c r="O32" s="20"/>
+      <c r="O32" s="24"/>
       <c r="P32" s="20"/>
       <c r="Q32" s="20"/>
       <c r="R32" s="20"/>
-      <c r="S32" s="24"/>
+      <c r="S32" s="20"/>
       <c r="T32" s="20"/>
       <c r="U32" s="20"/>
       <c r="V32" s="20"/>
       <c r="W32" s="20"/>
-      <c r="X32" s="24"/>
-      <c r="Y32" s="24"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="20"/>
       <c r="Z32" s="20"/>
       <c r="AA32" s="20"/>
       <c r="AB32" s="20"/>
@@ -3227,11 +3309,13 @@
       <c r="AX32" s="21"/>
       <c r="AY32" s="21"/>
       <c r="AZ32" s="21"/>
-    </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA32" s="21"/>
+      <c r="BB32" s="21"/>
+    </row>
+    <row r="33" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A33" s="29"/>
       <c r="B33" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="24"/>
@@ -3240,16 +3324,16 @@
       <c r="G33" s="24"/>
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
-      <c r="J33" s="24"/>
+      <c r="J33" s="20"/>
       <c r="K33" s="20"/>
-      <c r="L33" s="24"/>
+      <c r="L33" s="20"/>
       <c r="M33" s="24"/>
       <c r="N33" s="24"/>
       <c r="O33" s="20"/>
       <c r="P33" s="20"/>
       <c r="Q33" s="20"/>
       <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
+      <c r="S33" s="24"/>
       <c r="T33" s="20"/>
       <c r="U33" s="20"/>
       <c r="V33" s="20"/>
@@ -3263,7 +3347,7 @@
       <c r="AD33" s="20"/>
       <c r="AE33" s="20"/>
       <c r="AF33" s="20"/>
-      <c r="AG33" s="24"/>
+      <c r="AG33" s="20"/>
       <c r="AH33" s="21"/>
       <c r="AI33" s="21"/>
       <c r="AJ33" s="21"/>
@@ -3283,35 +3367,37 @@
       <c r="AX33" s="21"/>
       <c r="AY33" s="21"/>
       <c r="AZ33" s="21"/>
-    </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA33" s="21"/>
+      <c r="BB33" s="21"/>
+    </row>
+    <row r="34" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A34" s="29"/>
       <c r="B34" s="19" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="24"/>
-      <c r="E34" s="20"/>
+      <c r="E34" s="24"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
+      <c r="G34" s="24"/>
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
+      <c r="J34" s="24"/>
       <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
       <c r="N34" s="24"/>
       <c r="O34" s="20"/>
       <c r="P34" s="20"/>
       <c r="Q34" s="20"/>
       <c r="R34" s="20"/>
-      <c r="S34" s="24"/>
+      <c r="S34" s="20"/>
       <c r="T34" s="20"/>
       <c r="U34" s="20"/>
       <c r="V34" s="20"/>
       <c r="W34" s="20"/>
-      <c r="X34" s="20"/>
-      <c r="Y34" s="20"/>
+      <c r="X34" s="24"/>
+      <c r="Y34" s="24"/>
       <c r="Z34" s="20"/>
       <c r="AA34" s="20"/>
       <c r="AB34" s="20"/>
@@ -3320,7 +3406,7 @@
       <c r="AE34" s="20"/>
       <c r="AF34" s="20"/>
       <c r="AG34" s="20"/>
-      <c r="AH34" s="20"/>
+      <c r="AH34" s="24"/>
       <c r="AI34" s="21"/>
       <c r="AJ34" s="21"/>
       <c r="AK34" s="21"/>
@@ -3339,11 +3425,13 @@
       <c r="AX34" s="21"/>
       <c r="AY34" s="21"/>
       <c r="AZ34" s="21"/>
-    </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA34" s="21"/>
+      <c r="BB34" s="21"/>
+    </row>
+    <row r="35" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A35" s="29"/>
       <c r="B35" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="24"/>
@@ -3362,7 +3450,7 @@
       <c r="Q35" s="20"/>
       <c r="R35" s="20"/>
       <c r="S35" s="24"/>
-      <c r="T35" s="24"/>
+      <c r="T35" s="20"/>
       <c r="U35" s="20"/>
       <c r="V35" s="20"/>
       <c r="W35" s="20"/>
@@ -3395,22 +3483,24 @@
       <c r="AX35" s="21"/>
       <c r="AY35" s="21"/>
       <c r="AZ35" s="21"/>
-    </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA35" s="21"/>
+      <c r="BB35" s="21"/>
+    </row>
+    <row r="36" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A36" s="29"/>
       <c r="B36" s="19" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="24"/>
-      <c r="E36" s="33"/>
+      <c r="E36" s="20"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="24"/>
+      <c r="G36" s="20"/>
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
-      <c r="L36" s="24"/>
+      <c r="L36" s="20"/>
       <c r="M36" s="20"/>
       <c r="N36" s="24"/>
       <c r="O36" s="20"/>
@@ -3418,12 +3508,12 @@
       <c r="Q36" s="20"/>
       <c r="R36" s="20"/>
       <c r="S36" s="24"/>
-      <c r="T36" s="20"/>
+      <c r="T36" s="24"/>
       <c r="U36" s="20"/>
       <c r="V36" s="20"/>
       <c r="W36" s="20"/>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="28"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
       <c r="Z36" s="20"/>
       <c r="AA36" s="20"/>
       <c r="AB36" s="20"/>
@@ -3431,10 +3521,10 @@
       <c r="AD36" s="20"/>
       <c r="AE36" s="20"/>
       <c r="AF36" s="20"/>
-      <c r="AG36" s="24"/>
+      <c r="AG36" s="20"/>
       <c r="AH36" s="20"/>
       <c r="AI36" s="20"/>
-      <c r="AJ36" s="24"/>
+      <c r="AJ36" s="20"/>
       <c r="AK36" s="21"/>
       <c r="AL36" s="21"/>
       <c r="AM36" s="21"/>
@@ -3451,17 +3541,19 @@
       <c r="AX36" s="21"/>
       <c r="AY36" s="21"/>
       <c r="AZ36" s="21"/>
-    </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA36" s="21"/>
+      <c r="BB36" s="21"/>
+    </row>
+    <row r="37" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A37" s="29"/>
       <c r="B37" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="24"/>
-      <c r="E37" s="20"/>
+      <c r="E37" s="33"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
+      <c r="G37" s="24"/>
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
       <c r="J37" s="20"/>
@@ -3473,13 +3565,13 @@
       <c r="P37" s="20"/>
       <c r="Q37" s="20"/>
       <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
+      <c r="S37" s="24"/>
       <c r="T37" s="20"/>
       <c r="U37" s="20"/>
       <c r="V37" s="20"/>
       <c r="W37" s="20"/>
-      <c r="X37" s="20"/>
-      <c r="Y37" s="20"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="28"/>
       <c r="Z37" s="20"/>
       <c r="AA37" s="20"/>
       <c r="AB37" s="20"/>
@@ -3488,11 +3580,11 @@
       <c r="AE37" s="20"/>
       <c r="AF37" s="20"/>
       <c r="AG37" s="20"/>
-      <c r="AH37" s="20"/>
+      <c r="AH37" s="24"/>
       <c r="AI37" s="20"/>
       <c r="AJ37" s="20"/>
-      <c r="AK37" s="20"/>
-      <c r="AL37" s="21"/>
+      <c r="AK37" s="24"/>
+      <c r="AL37" s="55"/>
       <c r="AM37" s="21"/>
       <c r="AN37" s="21"/>
       <c r="AO37" s="21"/>
@@ -3507,35 +3599,37 @@
       <c r="AX37" s="21"/>
       <c r="AY37" s="21"/>
       <c r="AZ37" s="21"/>
-    </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA37" s="21"/>
+      <c r="BB37" s="21"/>
+    </row>
+    <row r="38" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A38" s="29"/>
       <c r="B38" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="24"/>
-      <c r="E38" s="33"/>
+      <c r="E38" s="20"/>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
-      <c r="J38" s="24"/>
+      <c r="J38" s="20"/>
       <c r="K38" s="20"/>
       <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
+      <c r="M38" s="20"/>
       <c r="N38" s="24"/>
       <c r="O38" s="20"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
       <c r="R38" s="20"/>
-      <c r="S38" s="24"/>
+      <c r="S38" s="20"/>
       <c r="T38" s="20"/>
       <c r="U38" s="20"/>
       <c r="V38" s="20"/>
-      <c r="W38" s="24"/>
-      <c r="X38" s="24"/>
-      <c r="Y38" s="24"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="20"/>
       <c r="Z38" s="20"/>
       <c r="AA38" s="20"/>
       <c r="AB38" s="20"/>
@@ -3549,8 +3643,8 @@
       <c r="AJ38" s="20"/>
       <c r="AK38" s="20"/>
       <c r="AL38" s="20"/>
-      <c r="AM38" s="21"/>
-      <c r="AN38" s="21"/>
+      <c r="AM38" s="55"/>
+      <c r="AN38" s="55"/>
       <c r="AO38" s="21"/>
       <c r="AP38" s="21"/>
       <c r="AQ38" s="21"/>
@@ -3563,36 +3657,38 @@
       <c r="AX38" s="21"/>
       <c r="AY38" s="21"/>
       <c r="AZ38" s="21"/>
-    </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA38" s="21"/>
+      <c r="BB38" s="21"/>
+    </row>
+    <row r="39" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A39" s="29"/>
       <c r="B39" s="19" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="24"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="24"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="20"/>
       <c r="H39" s="20"/>
       <c r="I39" s="20"/>
       <c r="J39" s="20"/>
       <c r="K39" s="20"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
       <c r="O39" s="20"/>
       <c r="P39" s="20"/>
       <c r="Q39" s="20"/>
       <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
+      <c r="S39" s="24"/>
       <c r="T39" s="20"/>
       <c r="U39" s="20"/>
       <c r="V39" s="20"/>
       <c r="W39" s="20"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="24"/>
-      <c r="Z39" s="20"/>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="24"/>
       <c r="AA39" s="20"/>
       <c r="AB39" s="20"/>
       <c r="AC39" s="20"/>
@@ -3601,14 +3697,12 @@
       <c r="AF39" s="20"/>
       <c r="AG39" s="20"/>
       <c r="AH39" s="20"/>
-      <c r="AI39" s="20"/>
+      <c r="AI39" s="24"/>
       <c r="AJ39" s="24"/>
       <c r="AK39" s="20"/>
       <c r="AL39" s="20"/>
-      <c r="AM39" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN39" s="21"/>
+      <c r="AM39" s="20"/>
+      <c r="AN39" s="55"/>
       <c r="AO39" s="21"/>
       <c r="AP39" s="21"/>
       <c r="AQ39" s="21"/>
@@ -3621,20 +3715,22 @@
       <c r="AX39" s="21"/>
       <c r="AY39" s="21"/>
       <c r="AZ39" s="21"/>
-    </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA39" s="21"/>
+      <c r="BB39" s="21"/>
+    </row>
+    <row r="40" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A40" s="29"/>
       <c r="B40" s="19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C40" s="20"/>
       <c r="D40" s="24"/>
-      <c r="E40" s="20"/>
+      <c r="E40" s="33"/>
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
       <c r="H40" s="20"/>
       <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
+      <c r="J40" s="24"/>
       <c r="K40" s="20"/>
       <c r="L40" s="24"/>
       <c r="M40" s="24"/>
@@ -3642,10 +3738,8 @@
       <c r="O40" s="20"/>
       <c r="P40" s="24"/>
       <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24" t="s">
-        <v>98</v>
-      </c>
+      <c r="R40" s="20"/>
+      <c r="S40" s="24"/>
       <c r="T40" s="20"/>
       <c r="U40" s="20"/>
       <c r="V40" s="20"/>
@@ -3662,11 +3756,10 @@
       <c r="AG40" s="20"/>
       <c r="AH40" s="20"/>
       <c r="AI40" s="20"/>
-      <c r="AJ40" s="24"/>
+      <c r="AJ40" s="20"/>
       <c r="AK40" s="20"/>
       <c r="AL40" s="20"/>
-      <c r="AM40" s="24"/>
-      <c r="AN40" s="24"/>
+      <c r="AN40" s="20"/>
       <c r="AO40" s="21"/>
       <c r="AP40" s="21"/>
       <c r="AQ40" s="21"/>
@@ -3679,17 +3772,19 @@
       <c r="AX40" s="21"/>
       <c r="AY40" s="21"/>
       <c r="AZ40" s="21"/>
-    </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA40" s="21"/>
+      <c r="BB40" s="21"/>
+    </row>
+    <row r="41" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A41" s="29"/>
       <c r="B41" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C41" s="20"/>
       <c r="D41" s="24"/>
-      <c r="E41" s="20"/>
+      <c r="E41" s="34"/>
       <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
+      <c r="G41" s="24"/>
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
@@ -3698,16 +3793,14 @@
       <c r="M41" s="24"/>
       <c r="N41" s="24"/>
       <c r="O41" s="20"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="24"/>
-      <c r="S41" s="24" t="s">
-        <v>98</v>
-      </c>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
       <c r="T41" s="20"/>
       <c r="U41" s="20"/>
       <c r="V41" s="20"/>
-      <c r="W41" s="24"/>
+      <c r="W41" s="20"/>
       <c r="X41" s="24"/>
       <c r="Y41" s="24"/>
       <c r="Z41" s="20"/>
@@ -3720,12 +3813,14 @@
       <c r="AG41" s="20"/>
       <c r="AH41" s="20"/>
       <c r="AI41" s="20"/>
-      <c r="AJ41" s="24"/>
-      <c r="AK41" s="20"/>
+      <c r="AJ41" s="20"/>
+      <c r="AK41" s="24"/>
       <c r="AL41" s="20"/>
-      <c r="AM41" s="24"/>
-      <c r="AN41" s="24"/>
-      <c r="AO41" s="24"/>
+      <c r="AM41" s="20"/>
+      <c r="AN41" s="20"/>
+      <c r="AO41" s="24" t="s">
+        <v>104</v>
+      </c>
       <c r="AP41" s="21"/>
       <c r="AQ41" s="21"/>
       <c r="AR41" s="21"/>
@@ -3737,11 +3832,13 @@
       <c r="AX41" s="21"/>
       <c r="AY41" s="21"/>
       <c r="AZ41" s="21"/>
-    </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA41" s="21"/>
+      <c r="BB41" s="21"/>
+    </row>
+    <row r="42" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A42" s="29"/>
       <c r="B42" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="24"/>
@@ -3756,8 +3853,8 @@
       <c r="M42" s="24"/>
       <c r="N42" s="24"/>
       <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
       <c r="R42" s="24"/>
       <c r="S42" s="24" t="s">
         <v>98</v>
@@ -3766,8 +3863,8 @@
       <c r="U42" s="20"/>
       <c r="V42" s="20"/>
       <c r="W42" s="24"/>
-      <c r="X42" s="20"/>
-      <c r="Y42" s="20"/>
+      <c r="X42" s="24"/>
+      <c r="Y42" s="24"/>
       <c r="Z42" s="20"/>
       <c r="AA42" s="20"/>
       <c r="AB42" s="20"/>
@@ -3779,10 +3876,10 @@
       <c r="AH42" s="20"/>
       <c r="AI42" s="20"/>
       <c r="AJ42" s="20"/>
-      <c r="AK42" s="20"/>
+      <c r="AK42" s="24"/>
       <c r="AL42" s="20"/>
       <c r="AM42" s="20"/>
-      <c r="AN42" s="24"/>
+      <c r="AN42" s="20"/>
       <c r="AO42" s="24"/>
       <c r="AP42" s="24"/>
       <c r="AQ42" s="21"/>
@@ -3795,37 +3892,37 @@
       <c r="AX42" s="21"/>
       <c r="AY42" s="21"/>
       <c r="AZ42" s="21"/>
-    </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA42" s="21"/>
+      <c r="BB42" s="21"/>
+    </row>
+    <row r="43" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A43" s="29"/>
       <c r="B43" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="24"/>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="24"/>
+      <c r="G43" s="20"/>
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
-      <c r="K43" s="24"/>
+      <c r="K43" s="20"/>
       <c r="L43" s="24"/>
       <c r="M43" s="24"/>
       <c r="N43" s="24"/>
       <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
       <c r="S43" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="T43" s="24" t="s">
-        <v>107</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="T43" s="20"/>
       <c r="U43" s="20"/>
       <c r="V43" s="20"/>
-      <c r="W43" s="20"/>
+      <c r="W43" s="24"/>
       <c r="X43" s="24"/>
       <c r="Y43" s="24"/>
       <c r="Z43" s="20"/>
@@ -3838,13 +3935,13 @@
       <c r="AG43" s="20"/>
       <c r="AH43" s="20"/>
       <c r="AI43" s="20"/>
-      <c r="AJ43" s="24"/>
-      <c r="AK43" s="20"/>
+      <c r="AJ43" s="20"/>
+      <c r="AK43" s="24"/>
       <c r="AL43" s="20"/>
       <c r="AM43" s="20"/>
       <c r="AN43" s="20"/>
-      <c r="AO43" s="20"/>
-      <c r="AP43" s="20"/>
+      <c r="AO43" s="24"/>
+      <c r="AP43" s="24"/>
       <c r="AQ43" s="24"/>
       <c r="AR43" s="21"/>
       <c r="AS43" s="21"/>
@@ -3855,28 +3952,22 @@
       <c r="AX43" s="21"/>
       <c r="AY43" s="21"/>
       <c r="AZ43" s="21"/>
-    </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A44" s="35"/>
+      <c r="BA43" s="21"/>
+      <c r="BB43" s="21"/>
+    </row>
+    <row r="44" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A44" s="29"/>
       <c r="B44" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="24"/>
       <c r="E44" s="20"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="H44" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="I44" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="J44" s="24" t="s">
-        <v>82</v>
-      </c>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
       <c r="K44" s="20"/>
       <c r="L44" s="24"/>
       <c r="M44" s="24"/>
@@ -3884,12 +3975,14 @@
       <c r="O44" s="20"/>
       <c r="P44" s="20"/>
       <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="20"/>
-      <c r="T44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="T44" s="20"/>
       <c r="U44" s="20"/>
-      <c r="V44" s="24"/>
-      <c r="W44" s="20"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="24"/>
       <c r="X44" s="20"/>
       <c r="Y44" s="20"/>
       <c r="Z44" s="20"/>
@@ -3908,11 +4001,9 @@
       <c r="AM44" s="20"/>
       <c r="AN44" s="20"/>
       <c r="AO44" s="20"/>
-      <c r="AP44" s="20"/>
-      <c r="AQ44" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="AR44" s="20"/>
+      <c r="AP44" s="24"/>
+      <c r="AQ44" s="24"/>
+      <c r="AR44" s="24"/>
       <c r="AS44" s="21"/>
       <c r="AT44" s="21"/>
       <c r="AU44" s="21"/>
@@ -3921,38 +4012,42 @@
       <c r="AX44" s="21"/>
       <c r="AY44" s="21"/>
       <c r="AZ44" s="21"/>
-    </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A45" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>49</v>
+      <c r="BA44" s="21"/>
+      <c r="BB44" s="21"/>
+    </row>
+    <row r="45" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A45" s="29"/>
+      <c r="B45" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="25"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="20"/>
       <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
+      <c r="G45" s="24"/>
       <c r="H45" s="20"/>
-      <c r="I45" s="24"/>
+      <c r="I45" s="20"/>
       <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
+      <c r="K45" s="24"/>
       <c r="L45" s="24"/>
-      <c r="M45" s="20"/>
+      <c r="M45" s="24"/>
       <c r="N45" s="24"/>
       <c r="O45" s="20"/>
       <c r="P45" s="20"/>
       <c r="Q45" s="20"/>
       <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="20"/>
+      <c r="S45" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="T45" s="24" t="s">
+        <v>107</v>
+      </c>
       <c r="U45" s="20"/>
       <c r="V45" s="20"/>
       <c r="W45" s="20"/>
-      <c r="X45" s="20"/>
-      <c r="Y45" s="20"/>
-      <c r="Z45" s="20"/>
+      <c r="X45" s="24"/>
+      <c r="Y45" s="24"/>
+      <c r="Z45" s="24"/>
       <c r="AA45" s="20"/>
       <c r="AB45" s="20"/>
       <c r="AC45" s="20"/>
@@ -3963,15 +4058,15 @@
       <c r="AH45" s="20"/>
       <c r="AI45" s="20"/>
       <c r="AJ45" s="20"/>
-      <c r="AK45" s="20"/>
+      <c r="AK45" s="24"/>
       <c r="AL45" s="20"/>
-      <c r="AM45" s="20"/>
+      <c r="AM45" s="24"/>
       <c r="AN45" s="20"/>
       <c r="AO45" s="20"/>
       <c r="AP45" s="20"/>
       <c r="AQ45" s="20"/>
       <c r="AR45" s="20"/>
-      <c r="AS45" s="20"/>
+      <c r="AS45" s="24"/>
       <c r="AT45" s="21"/>
       <c r="AU45" s="21"/>
       <c r="AV45" s="21"/>
@@ -3979,38 +4074,46 @@
       <c r="AX45" s="21"/>
       <c r="AY45" s="21"/>
       <c r="AZ45" s="21"/>
-    </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A46" s="36"/>
-      <c r="B46" s="37" t="s">
-        <v>50</v>
+      <c r="BA45" s="21"/>
+      <c r="BB45" s="21"/>
+    </row>
+    <row r="46" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A46" s="35"/>
+      <c r="B46" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
+      <c r="D46" s="24"/>
       <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H46" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I46" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="J46" s="24" t="s">
+        <v>82</v>
+      </c>
       <c r="K46" s="20"/>
       <c r="L46" s="24"/>
-      <c r="M46" s="20"/>
+      <c r="M46" s="24"/>
       <c r="N46" s="24"/>
       <c r="O46" s="20"/>
       <c r="P46" s="20"/>
       <c r="Q46" s="20"/>
       <c r="R46" s="20"/>
       <c r="S46" s="20"/>
-      <c r="T46" s="20"/>
+      <c r="T46" s="24"/>
       <c r="U46" s="20"/>
-      <c r="V46" s="20"/>
+      <c r="V46" s="24"/>
       <c r="W46" s="20"/>
       <c r="X46" s="20"/>
       <c r="Y46" s="20"/>
-      <c r="Z46" s="24" t="s">
-        <v>89</v>
-      </c>
+      <c r="Z46" s="20"/>
       <c r="AA46" s="20"/>
       <c r="AB46" s="20"/>
       <c r="AC46" s="20"/>
@@ -4029,7 +4132,9 @@
       <c r="AP46" s="20"/>
       <c r="AQ46" s="20"/>
       <c r="AR46" s="20"/>
-      <c r="AS46" s="20"/>
+      <c r="AS46" s="49" t="s">
+        <v>72</v>
+      </c>
       <c r="AT46" s="20"/>
       <c r="AU46" s="21"/>
       <c r="AV46" s="21"/>
@@ -4037,19 +4142,23 @@
       <c r="AX46" s="21"/>
       <c r="AY46" s="21"/>
       <c r="AZ46" s="21"/>
-    </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A47" s="36"/>
+      <c r="BA46" s="21"/>
+      <c r="BB46" s="21"/>
+    </row>
+    <row r="47" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A47" s="36" t="s">
+        <v>53</v>
+      </c>
       <c r="B47" s="37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
+      <c r="E47" s="25"/>
       <c r="F47" s="20"/>
       <c r="G47" s="20"/>
       <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
+      <c r="I47" s="24"/>
       <c r="J47" s="20"/>
       <c r="K47" s="20"/>
       <c r="L47" s="24"/>
@@ -4066,9 +4175,7 @@
       <c r="W47" s="20"/>
       <c r="X47" s="20"/>
       <c r="Y47" s="20"/>
-      <c r="Z47" s="24" t="s">
-        <v>89</v>
-      </c>
+      <c r="Z47" s="20"/>
       <c r="AA47" s="20"/>
       <c r="AB47" s="20"/>
       <c r="AC47" s="20"/>
@@ -4095,21 +4202,21 @@
       <c r="AX47" s="21"/>
       <c r="AY47" s="21"/>
       <c r="AZ47" s="21"/>
-    </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA47" s="21"/>
+      <c r="BB47" s="21"/>
+    </row>
+    <row r="48" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A48" s="36"/>
       <c r="B48" s="37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C48" s="20"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24" t="s">
-        <v>79</v>
-      </c>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
       <c r="H48" s="20"/>
-      <c r="I48" s="24"/>
+      <c r="I48" s="20"/>
       <c r="J48" s="20"/>
       <c r="K48" s="20"/>
       <c r="L48" s="24"/>
@@ -4124,10 +4231,12 @@
       <c r="U48" s="20"/>
       <c r="V48" s="20"/>
       <c r="W48" s="20"/>
-      <c r="X48" s="28"/>
-      <c r="Y48" s="28"/>
+      <c r="X48" s="20"/>
+      <c r="Y48" s="20"/>
       <c r="Z48" s="20"/>
-      <c r="AA48" s="20"/>
+      <c r="AA48" s="24" t="s">
+        <v>89</v>
+      </c>
       <c r="AB48" s="20"/>
       <c r="AC48" s="20"/>
       <c r="AD48" s="20"/>
@@ -4139,13 +4248,9 @@
       <c r="AJ48" s="20"/>
       <c r="AK48" s="20"/>
       <c r="AL48" s="20"/>
-      <c r="AM48" s="24"/>
-      <c r="AN48" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO48" s="25" t="s">
-        <v>78</v>
-      </c>
+      <c r="AM48" s="20"/>
+      <c r="AN48" s="20"/>
+      <c r="AO48" s="20"/>
       <c r="AP48" s="20"/>
       <c r="AQ48" s="20"/>
       <c r="AR48" s="20"/>
@@ -4157,55 +4262,41 @@
       <c r="AX48" s="21"/>
       <c r="AY48" s="21"/>
       <c r="AZ48" s="21"/>
-    </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A49" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="39" t="s">
-        <v>55</v>
+      <c r="BA48" s="21"/>
+      <c r="BB48" s="21"/>
+    </row>
+    <row r="49" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A49" s="36"/>
+      <c r="B49" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="C49" s="20"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
       <c r="H49" s="20"/>
       <c r="I49" s="20"/>
       <c r="J49" s="20"/>
-      <c r="K49" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="L49" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="M49" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="N49" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="O49" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="P49" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q49" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="R49" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="S49" s="24"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="20"/>
       <c r="T49" s="20"/>
       <c r="U49" s="20"/>
       <c r="V49" s="20"/>
-      <c r="W49" s="24"/>
+      <c r="W49" s="20"/>
       <c r="X49" s="20"/>
       <c r="Y49" s="20"/>
       <c r="Z49" s="20"/>
-      <c r="AA49" s="20"/>
+      <c r="AA49" s="24" t="s">
+        <v>89</v>
+      </c>
       <c r="AB49" s="20"/>
       <c r="AC49" s="20"/>
       <c r="AD49" s="20"/>
@@ -4224,33 +4315,35 @@
       <c r="AQ49" s="20"/>
       <c r="AR49" s="20"/>
       <c r="AS49" s="20"/>
-      <c r="AT49" s="24"/>
-      <c r="AU49" s="24"/>
-      <c r="AV49" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW49" s="24"/>
+      <c r="AT49" s="20"/>
+      <c r="AU49" s="20"/>
+      <c r="AV49" s="20"/>
+      <c r="AW49" s="20"/>
       <c r="AX49" s="21"/>
       <c r="AY49" s="21"/>
       <c r="AZ49" s="21"/>
-    </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A50" s="38"/>
-      <c r="B50" s="39" t="s">
-        <v>56</v>
+      <c r="BA49" s="21"/>
+      <c r="BB49" s="21"/>
+    </row>
+    <row r="50" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A50" s="36"/>
+      <c r="B50" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24" t="s">
+        <v>79</v>
+      </c>
       <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
+      <c r="I50" s="24"/>
       <c r="J50" s="20"/>
       <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
+      <c r="L50" s="24"/>
       <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
+      <c r="N50" s="24"/>
       <c r="O50" s="20"/>
       <c r="P50" s="20"/>
       <c r="Q50" s="20"/>
@@ -4260,8 +4353,8 @@
       <c r="U50" s="20"/>
       <c r="V50" s="20"/>
       <c r="W50" s="20"/>
-      <c r="X50" s="20"/>
-      <c r="Y50" s="20"/>
+      <c r="X50" s="28"/>
+      <c r="Y50" s="28"/>
       <c r="Z50" s="20"/>
       <c r="AA50" s="20"/>
       <c r="AB50" s="20"/>
@@ -4277,117 +4370,127 @@
       <c r="AL50" s="20"/>
       <c r="AM50" s="20"/>
       <c r="AN50" s="20"/>
-      <c r="AO50" s="20"/>
-      <c r="AP50" s="20"/>
-      <c r="AQ50" s="20"/>
+      <c r="AO50" s="24"/>
+      <c r="AP50" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ50" s="25" t="s">
+        <v>78</v>
+      </c>
       <c r="AR50" s="20"/>
       <c r="AS50" s="20"/>
       <c r="AT50" s="20"/>
       <c r="AU50" s="20"/>
-      <c r="AV50" s="24"/>
+      <c r="AV50" s="20"/>
       <c r="AW50" s="20"/>
       <c r="AX50" s="20"/>
       <c r="AY50" s="21"/>
       <c r="AZ50" s="21"/>
-    </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A51" s="38"/>
+      <c r="BA50" s="21"/>
+      <c r="BB50" s="21"/>
+    </row>
+    <row r="51" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A51" s="38" t="s">
+        <v>54</v>
+      </c>
       <c r="B51" s="39" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="24" t="s">
-        <v>71</v>
-      </c>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
       <c r="J51" s="20"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="20"/>
-      <c r="S51" s="24" t="s">
-        <v>98</v>
-      </c>
+      <c r="K51" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="L51" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="M51" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="N51" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="O51" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="P51" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q51" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="R51" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="S51" s="24"/>
       <c r="T51" s="20"/>
       <c r="U51" s="20"/>
-      <c r="V51" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="W51" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="X51" s="24"/>
-      <c r="Y51" s="24"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="24"/>
+      <c r="X51" s="20"/>
+      <c r="Y51" s="20"/>
       <c r="Z51" s="20"/>
       <c r="AA51" s="20"/>
       <c r="AB51" s="20"/>
-      <c r="AC51" s="24" t="s">
-        <v>110</v>
-      </c>
+      <c r="AC51" s="20"/>
       <c r="AD51" s="20"/>
       <c r="AE51" s="20"/>
       <c r="AF51" s="20"/>
-      <c r="AG51" s="24"/>
-      <c r="AH51" s="24"/>
-      <c r="AI51" s="24"/>
+      <c r="AG51" s="20"/>
+      <c r="AH51" s="20"/>
+      <c r="AI51" s="20"/>
       <c r="AJ51" s="20"/>
       <c r="AK51" s="20"/>
-      <c r="AL51" s="24"/>
-      <c r="AM51" s="24"/>
-      <c r="AN51" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="AO51" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="AP51" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ51" s="24"/>
+      <c r="AL51" s="20"/>
+      <c r="AM51" s="20"/>
+      <c r="AN51" s="20"/>
+      <c r="AO51" s="20"/>
+      <c r="AP51" s="20"/>
+      <c r="AQ51" s="20"/>
       <c r="AR51" s="20"/>
-      <c r="AS51" s="24"/>
+      <c r="AS51" s="20"/>
       <c r="AT51" s="20"/>
       <c r="AU51" s="20"/>
       <c r="AV51" s="24"/>
-      <c r="AW51" s="20"/>
-      <c r="AX51" s="24"/>
-      <c r="AY51" s="20"/>
+      <c r="AW51" s="24"/>
+      <c r="AX51" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY51" s="24"/>
       <c r="AZ51" s="21"/>
-    </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA51" s="21"/>
+      <c r="BB51" s="21"/>
+    </row>
+    <row r="52" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A52" s="38"/>
       <c r="B52" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="40"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="41"/>
-      <c r="L52" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="M52" s="41"/>
-      <c r="N52" s="41"/>
-      <c r="O52" s="41"/>
-      <c r="P52" s="41"/>
-      <c r="Q52" s="41"/>
-      <c r="R52" s="41"/>
-      <c r="S52" s="41"/>
-      <c r="T52" s="41"/>
-      <c r="U52" s="41"/>
+        <v>56</v>
+      </c>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="20"/>
+      <c r="T52" s="20"/>
+      <c r="U52" s="20"/>
       <c r="V52" s="20"/>
       <c r="W52" s="20"/>
       <c r="X52" s="20"/>
@@ -4414,39 +4517,123 @@
       <c r="AS52" s="20"/>
       <c r="AT52" s="20"/>
       <c r="AU52" s="20"/>
-      <c r="AV52" s="24"/>
+      <c r="AV52" s="20"/>
       <c r="AW52" s="20"/>
       <c r="AX52" s="24"/>
-      <c r="AY52" s="24"/>
-      <c r="AZ52" s="24"/>
-    </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="AY52" s="20"/>
+      <c r="AZ52" s="20"/>
+      <c r="BA52" s="21"/>
+      <c r="BB52" s="21"/>
+    </row>
+    <row r="53" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A53" s="38"/>
+      <c r="B53" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F53" s="20"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="T53" s="20"/>
+      <c r="U53" s="20"/>
+      <c r="V53" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="W53" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="X53" s="24"/>
+      <c r="Y53" s="24"/>
+      <c r="Z53" s="24"/>
+      <c r="AA53" s="20"/>
+      <c r="AB53" s="20"/>
+      <c r="AC53" s="20"/>
+      <c r="AD53" s="24" t="s">
+        <v>110</v>
+      </c>
       <c r="AE53" s="20"/>
       <c r="AF53" s="20"/>
       <c r="AG53" s="20"/>
-      <c r="AH53" s="20"/>
-      <c r="AI53" s="20"/>
-      <c r="AJ53" s="20"/>
+      <c r="AH53" s="24"/>
+      <c r="AI53" s="24"/>
+      <c r="AJ53" s="24"/>
       <c r="AK53" s="20"/>
       <c r="AL53" s="20"/>
       <c r="AM53" s="20"/>
       <c r="AN53" s="20"/>
-      <c r="AO53" s="20"/>
-      <c r="AP53" s="20"/>
-      <c r="AQ53" s="20"/>
-      <c r="AR53" s="20"/>
-      <c r="AS53" s="20"/>
+      <c r="AO53" s="24"/>
+      <c r="AP53" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ53" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="AR53" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS53" s="24"/>
       <c r="AT53" s="20"/>
-      <c r="AU53" s="20"/>
+      <c r="AU53" s="24"/>
       <c r="AV53" s="20"/>
       <c r="AW53" s="20"/>
-      <c r="AX53" s="20"/>
+      <c r="AX53" s="24"/>
       <c r="AY53" s="20"/>
-    </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A54" s="22" t="s">
-        <v>83</v>
-      </c>
+      <c r="AZ53" s="24"/>
+      <c r="BA53" s="20"/>
+      <c r="BB53" s="21"/>
+    </row>
+    <row r="54" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A54" s="38"/>
+      <c r="B54" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="40"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="M54" s="41"/>
+      <c r="N54" s="41"/>
+      <c r="O54" s="41"/>
+      <c r="P54" s="41"/>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="41"/>
+      <c r="S54" s="41"/>
+      <c r="T54" s="41"/>
+      <c r="U54" s="41"/>
+      <c r="V54" s="20"/>
+      <c r="W54" s="20"/>
+      <c r="X54" s="20"/>
+      <c r="Y54" s="20"/>
+      <c r="Z54" s="20"/>
+      <c r="AA54" s="20"/>
+      <c r="AB54" s="20"/>
+      <c r="AC54" s="20"/>
+      <c r="AD54" s="20"/>
       <c r="AE54" s="20"/>
       <c r="AF54" s="20"/>
       <c r="AG54" s="20"/>
@@ -4466,24 +4653,54 @@
       <c r="AU54" s="20"/>
       <c r="AV54" s="20"/>
       <c r="AW54" s="20"/>
-      <c r="AX54" s="20"/>
+      <c r="AX54" s="24"/>
       <c r="AY54" s="20"/>
-    </row>
-    <row r="55" spans="1:52" s="48" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="46" t="s">
+      <c r="AZ54" s="24"/>
+      <c r="BA54" s="24"/>
+      <c r="BB54" s="24"/>
+    </row>
+    <row r="55" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A55" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE55" s="20"/>
+      <c r="AF55" s="20"/>
+      <c r="AG55" s="20"/>
+      <c r="AH55" s="20"/>
+      <c r="AI55" s="20"/>
+      <c r="AJ55" s="20"/>
+      <c r="AK55" s="20"/>
+      <c r="AL55" s="20"/>
+      <c r="AM55" s="20"/>
+      <c r="AN55" s="20"/>
+      <c r="AO55" s="20"/>
+      <c r="AP55" s="20"/>
+      <c r="AQ55" s="20"/>
+      <c r="AR55" s="20"/>
+      <c r="AS55" s="20"/>
+      <c r="AT55" s="20"/>
+      <c r="AU55" s="20"/>
+      <c r="AV55" s="20"/>
+      <c r="AW55" s="20"/>
+      <c r="AX55" s="20"/>
+      <c r="AY55" s="20"/>
+      <c r="AZ55" s="20"/>
+    </row>
+    <row r="56" spans="1:54" s="48" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="B55" s="47" t="s">
+      <c r="B56" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="46" t="s">
+      <c r="C56" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="D55" s="46" t="s">
+      <c r="D56" s="46" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:54" x14ac:dyDescent="0.35">
       <c r="G59" s="43"/>
     </row>
   </sheetData>
